--- a/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.991461612950421</v>
+        <v>0.9914616129504205</v>
       </c>
       <c r="D2">
         <v>1.010333263801119</v>
       </c>
       <c r="E2">
-        <v>0.9991770849292134</v>
+        <v>0.9991770849292132</v>
       </c>
       <c r="F2">
-        <v>0.9916003052670118</v>
+        <v>0.9916003052670115</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>1.010647896183529</v>
       </c>
       <c r="M2">
-        <v>1.003177914979741</v>
+        <v>1.00317791497974</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.997946818148768</v>
+        <v>0.997946818148767</v>
       </c>
       <c r="D3">
-        <v>1.015253263856459</v>
+        <v>1.015253263856458</v>
       </c>
       <c r="E3">
-        <v>1.004722932024318</v>
+        <v>1.004722932024317</v>
       </c>
       <c r="F3">
-        <v>0.9990837271743639</v>
+        <v>0.9990837271743623</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.042928558183362</v>
       </c>
       <c r="J3">
-        <v>1.018493611894392</v>
+        <v>1.018493611894391</v>
       </c>
       <c r="K3">
-        <v>1.025694626552289</v>
+        <v>1.025694626552288</v>
       </c>
       <c r="L3">
-        <v>1.015295736634492</v>
+        <v>1.015295736634491</v>
       </c>
       <c r="M3">
-        <v>1.009728345322972</v>
+        <v>1.009728345322971</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002024099302798</v>
+        <v>1.002024099302799</v>
       </c>
       <c r="D4">
-        <v>1.018347739000031</v>
+        <v>1.018347739000032</v>
       </c>
       <c r="E4">
-        <v>1.008215237529118</v>
+        <v>1.008215237529119</v>
       </c>
       <c r="F4">
         <v>1.003793056147587</v>
@@ -515,7 +515,7 @@
         <v>1.044285951944077</v>
       </c>
       <c r="J4">
-        <v>1.021376169749979</v>
+        <v>1.02137616974998</v>
       </c>
       <c r="K4">
         <v>1.028229653621321</v>
@@ -524,7 +524,7 @@
         <v>1.018215512817357</v>
       </c>
       <c r="M4">
-        <v>1.013845916879706</v>
+        <v>1.013845916879707</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00371113804655</v>
+        <v>1.003711138046551</v>
       </c>
       <c r="D5">
-        <v>1.019628337458101</v>
+        <v>1.019628337458102</v>
       </c>
       <c r="E5">
-        <v>1.009661517049522</v>
+        <v>1.009661517049523</v>
       </c>
       <c r="F5">
-        <v>1.005742758859534</v>
+        <v>1.005742758859535</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044843897307957</v>
+        <v>1.044843897307958</v>
       </c>
       <c r="J5">
-        <v>1.022567623225069</v>
+        <v>1.02256762322507</v>
       </c>
       <c r="K5">
-        <v>1.029276690030703</v>
+        <v>1.029276690030704</v>
       </c>
       <c r="L5">
-        <v>1.019423006656822</v>
+        <v>1.019423006656823</v>
       </c>
       <c r="M5">
-        <v>1.015549490607383</v>
+        <v>1.015549490607385</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,13 +576,13 @@
         <v>1.003992853332935</v>
       </c>
       <c r="D6">
-        <v>1.019842192021323</v>
+        <v>1.019842192021324</v>
       </c>
       <c r="E6">
-        <v>1.009903102215329</v>
+        <v>1.00990310221533</v>
       </c>
       <c r="F6">
-        <v>1.006068405213936</v>
+        <v>1.006068405213937</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>1.022766506805932</v>
       </c>
       <c r="K6">
-        <v>1.029451420831802</v>
+        <v>1.029451420831803</v>
       </c>
       <c r="L6">
-        <v>1.019624606544121</v>
+        <v>1.019624606544122</v>
       </c>
       <c r="M6">
-        <v>1.015833960047115</v>
+        <v>1.015833960047116</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002046746041413</v>
+        <v>1.002046746041414</v>
       </c>
       <c r="D7">
-        <v>1.018364928978631</v>
+        <v>1.018364928978632</v>
       </c>
       <c r="E7">
         <v>1.008234647324297</v>
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936788892896422</v>
+        <v>0.9936788892896418</v>
       </c>
       <c r="D8">
         <v>1.012015081665608</v>
@@ -670,7 +670,7 @@
         <v>1.015472056118724</v>
       </c>
       <c r="K8">
-        <v>1.023034723924265</v>
+        <v>1.023034723924264</v>
       </c>
       <c r="L8">
         <v>1.012237446815595</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779495895027314</v>
+        <v>0.9779495895027307</v>
       </c>
       <c r="D9">
-        <v>1.000093650365217</v>
+        <v>1.000093650365216</v>
       </c>
       <c r="E9">
-        <v>0.9876566186543025</v>
+        <v>0.9876566186543019</v>
       </c>
       <c r="F9">
-        <v>0.9760297962482666</v>
+        <v>0.9760297962482658</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036114727882615</v>
+        <v>1.036114727882614</v>
       </c>
       <c r="J9">
-        <v>1.004305776131944</v>
+        <v>1.004305776131943</v>
       </c>
       <c r="K9">
-        <v>1.013185208340098</v>
+        <v>1.013185208340097</v>
       </c>
       <c r="L9">
-        <v>1.000953184333396</v>
+        <v>1.000953184333395</v>
       </c>
       <c r="M9">
-        <v>0.9895241258403846</v>
+        <v>0.9895241258403839</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9666892832014138</v>
+        <v>0.9666892832014131</v>
       </c>
       <c r="D10">
-        <v>0.9915761516876963</v>
+        <v>0.9915761516876958</v>
       </c>
       <c r="E10">
-        <v>0.9780908059713552</v>
+        <v>0.9780908059713547</v>
       </c>
       <c r="F10">
-        <v>0.9630681406002521</v>
+        <v>0.9630681406002517</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032185684710644</v>
       </c>
       <c r="J10">
-        <v>0.9962898273816621</v>
+        <v>0.9962898273816615</v>
       </c>
       <c r="K10">
         <v>1.006099185439974</v>
       </c>
       <c r="L10">
-        <v>0.9928672351634542</v>
+        <v>0.9928672351634538</v>
       </c>
       <c r="M10">
-        <v>0.9781378403415777</v>
+        <v>0.978137840341577</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9616006863680425</v>
+        <v>0.9616006863680413</v>
       </c>
       <c r="D11">
-        <v>0.9877327729375732</v>
+        <v>0.9877327729375723</v>
       </c>
       <c r="E11">
-        <v>0.9737782327430301</v>
+        <v>0.9737782327430287</v>
       </c>
       <c r="F11">
-        <v>0.9572128812237387</v>
+        <v>0.9572128812237379</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030392766108227</v>
+        <v>1.030392766108226</v>
       </c>
       <c r="J11">
-        <v>0.9926630155902205</v>
+        <v>0.9926630155902196</v>
       </c>
       <c r="K11">
-        <v>1.002889799411327</v>
+        <v>1.002889799411326</v>
       </c>
       <c r="L11">
-        <v>0.9892121946705014</v>
+        <v>0.9892121946705001</v>
       </c>
       <c r="M11">
-        <v>0.9729894721083029</v>
+        <v>0.9729894721083021</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9596757341421035</v>
+        <v>0.9596757341421037</v>
       </c>
       <c r="D12">
-        <v>0.9862798947118299</v>
+        <v>0.9862798947118301</v>
       </c>
       <c r="E12">
-        <v>0.9721485021755755</v>
+        <v>0.9721485021755756</v>
       </c>
       <c r="F12">
-        <v>0.9549980799375987</v>
+        <v>0.9549980799375989</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029712014373107</v>
       </c>
       <c r="J12">
-        <v>0.9912904696471091</v>
+        <v>0.9912904696471093</v>
       </c>
       <c r="K12">
         <v>1.00167475690732</v>
       </c>
       <c r="L12">
-        <v>0.9878294789508451</v>
+        <v>0.9878294789508454</v>
       </c>
       <c r="M12">
-        <v>0.9710413976806701</v>
+        <v>0.9710413976806702</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.9600902682372624</v>
       </c>
       <c r="D13">
-        <v>0.9865927197598821</v>
+        <v>0.9865927197598822</v>
       </c>
       <c r="E13">
-        <v>0.9724993839344135</v>
+        <v>0.9724993839344136</v>
       </c>
       <c r="F13">
-        <v>0.9554750274880047</v>
+        <v>0.9554750274880046</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>1.001936455642477</v>
       </c>
       <c r="L13">
-        <v>0.9881272449267039</v>
+        <v>0.988127244926704</v>
       </c>
       <c r="M13">
-        <v>0.9714609356631915</v>
+        <v>0.9714609356631914</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9614422972745755</v>
+        <v>0.9614422972745769</v>
       </c>
       <c r="D14">
-        <v>0.9876132053268309</v>
+        <v>0.9876132053268321</v>
       </c>
       <c r="E14">
-        <v>0.9736441006822176</v>
+        <v>0.9736441006822188</v>
       </c>
       <c r="F14">
-        <v>0.9570306402906106</v>
+        <v>0.9570306402906116</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.030336802828074</v>
       </c>
       <c r="J14">
-        <v>0.9925500906499986</v>
+        <v>0.9925500906499999</v>
       </c>
       <c r="K14">
-        <v>1.002789842251434</v>
+        <v>1.002789842251435</v>
       </c>
       <c r="L14">
-        <v>0.9890984226376992</v>
+        <v>0.9890984226377004</v>
       </c>
       <c r="M14">
-        <v>0.972829191374713</v>
+        <v>0.9728291913747141</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9622706217268739</v>
+        <v>0.9622706217268743</v>
       </c>
       <c r="D15">
-        <v>0.9882385484234378</v>
+        <v>0.9882385484234379</v>
       </c>
       <c r="E15">
-        <v>0.9743456368693496</v>
+        <v>0.9743456368693497</v>
       </c>
       <c r="F15">
-        <v>0.9579837081595566</v>
+        <v>0.9579837081595567</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030629371362126</v>
       </c>
       <c r="J15">
-        <v>0.993140629495326</v>
+        <v>0.9931406294953264</v>
       </c>
       <c r="K15">
         <v>1.003312547456435</v>
       </c>
       <c r="L15">
-        <v>0.9896934121723887</v>
+        <v>0.989693412172389</v>
       </c>
       <c r="M15">
-        <v>0.9736673871770315</v>
+        <v>0.9736673871770317</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9670222776340972</v>
+        <v>0.9670222776340981</v>
       </c>
       <c r="D16">
-        <v>0.9918277918305516</v>
+        <v>0.9918277918305524</v>
       </c>
       <c r="E16">
-        <v>0.9783732403240483</v>
+        <v>0.9783732403240493</v>
       </c>
       <c r="F16">
-        <v>0.963451337347924</v>
+        <v>0.9634513373479251</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032302660443574</v>
       </c>
       <c r="J16">
-        <v>0.9965270803742069</v>
+        <v>0.9965270803742077</v>
       </c>
       <c r="K16">
-        <v>1.006309065691499</v>
+        <v>1.0063090656915</v>
       </c>
       <c r="L16">
-        <v>0.9931064057028086</v>
+        <v>0.9931064057028099</v>
       </c>
       <c r="M16">
-        <v>0.9784746805147362</v>
+        <v>0.9784746805147373</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9699439857179275</v>
+        <v>0.9699439857179279</v>
       </c>
       <c r="D17">
-        <v>0.9940363586178128</v>
+        <v>0.9940363586178129</v>
       </c>
       <c r="E17">
-        <v>0.9808525050654442</v>
+        <v>0.9808525050654447</v>
       </c>
       <c r="F17">
-        <v>0.9668137529483974</v>
+        <v>0.9668137529483976</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033327060950189</v>
       </c>
       <c r="J17">
-        <v>0.998608266173813</v>
+        <v>0.9986082661738135</v>
       </c>
       <c r="K17">
         <v>1.008149766345485</v>
       </c>
       <c r="L17">
-        <v>0.9952048003308788</v>
+        <v>0.9952048003308791</v>
       </c>
       <c r="M17">
-        <v>0.9814298016589821</v>
+        <v>0.9814298016589823</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,25 +1029,25 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9716278453631243</v>
+        <v>0.9716278453631241</v>
       </c>
       <c r="D18">
-        <v>0.9953097428706267</v>
+        <v>0.9953097428706265</v>
       </c>
       <c r="E18">
         <v>0.9822823303400109</v>
       </c>
       <c r="F18">
-        <v>0.9687518212835932</v>
+        <v>0.9687518212835931</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033915811581847</v>
+        <v>1.033915811581846</v>
       </c>
       <c r="J18">
-        <v>0.9998072941723388</v>
+        <v>0.9998072941723386</v>
       </c>
       <c r="K18">
         <v>1.009209930388184</v>
@@ -1056,7 +1056,7 @@
         <v>0.9964140666205764</v>
       </c>
       <c r="M18">
-        <v>0.983132657107826</v>
+        <v>0.9831326571078259</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9721986317691208</v>
+        <v>0.9721986317691221</v>
       </c>
       <c r="D19">
-        <v>0.9957414732214346</v>
+        <v>0.9957414732214357</v>
       </c>
       <c r="E19">
-        <v>0.9827671645733135</v>
+        <v>0.9827671645733147</v>
       </c>
       <c r="F19">
-        <v>0.9694088192616576</v>
+        <v>0.9694088192616587</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.034115102612198</v>
       </c>
       <c r="J19">
-        <v>1.00021366178091</v>
+        <v>1.000213661780911</v>
       </c>
       <c r="K19">
-        <v>1.009569180942561</v>
+        <v>1.009569180942562</v>
       </c>
       <c r="L19">
-        <v>0.9968239591770885</v>
+        <v>0.9968239591770897</v>
       </c>
       <c r="M19">
-        <v>0.9837098406479227</v>
+        <v>0.9837098406479238</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9696326357034853</v>
+        <v>0.969632635703485</v>
       </c>
       <c r="D20">
-        <v>0.9938009481669667</v>
+        <v>0.9938009481669663</v>
       </c>
       <c r="E20">
-        <v>0.9805882034301971</v>
+        <v>0.9805882034301964</v>
       </c>
       <c r="F20">
-        <v>0.966455417718164</v>
+        <v>0.9664554177181632</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.03321806602687</v>
       </c>
       <c r="J20">
-        <v>0.998386528523401</v>
+        <v>0.9983865285234005</v>
       </c>
       <c r="K20">
         <v>1.007953683339289</v>
       </c>
       <c r="L20">
-        <v>0.9949811955597339</v>
+        <v>0.9949811955597331</v>
       </c>
       <c r="M20">
-        <v>0.9811149186893686</v>
+        <v>0.981114918689368</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9610451442885859</v>
+        <v>0.9610451442885862</v>
       </c>
       <c r="D21">
-        <v>0.9873134123735592</v>
+        <v>0.9873134123735594</v>
       </c>
       <c r="E21">
-        <v>0.9733077981772248</v>
+        <v>0.9733077981772255</v>
       </c>
       <c r="F21">
-        <v>0.9565736821222925</v>
+        <v>0.956573682122293</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.030196437532937</v>
       </c>
       <c r="J21">
-        <v>0.9922669279901882</v>
+        <v>0.9922669279901887</v>
       </c>
       <c r="K21">
-        <v>1.002539189252077</v>
+        <v>1.002539189252078</v>
       </c>
       <c r="L21">
-        <v>0.9888131441065661</v>
+        <v>0.9888131441065666</v>
       </c>
       <c r="M21">
-        <v>0.972427286658069</v>
+        <v>0.9724272866580694</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9554427054624466</v>
+        <v>0.9554427054624457</v>
       </c>
       <c r="D22">
-        <v>0.9830870535237678</v>
+        <v>0.9830870535237671</v>
       </c>
       <c r="E22">
-        <v>0.9685678811200445</v>
+        <v>0.968567881120044</v>
       </c>
       <c r="F22">
-        <v>0.9501277816296749</v>
+        <v>0.9501277816296744</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02821049774906</v>
+        <v>1.028210497749059</v>
       </c>
       <c r="J22">
-        <v>0.9882712529478948</v>
+        <v>0.988271252947894</v>
       </c>
       <c r="K22">
-        <v>0.9990011733790199</v>
+        <v>0.9990011733790192</v>
       </c>
       <c r="L22">
-        <v>0.9847888336774371</v>
+        <v>0.9847888336774365</v>
       </c>
       <c r="M22">
-        <v>0.9667564741793868</v>
+        <v>0.9667564741793865</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9584329663722139</v>
+        <v>0.958432966372211</v>
       </c>
       <c r="D23">
-        <v>0.9853422127936918</v>
+        <v>0.9853422127936889</v>
       </c>
       <c r="E23">
-        <v>0.9710968166055356</v>
+        <v>0.9710968166055328</v>
       </c>
       <c r="F23">
-        <v>0.9535682088578177</v>
+        <v>0.9535682088578146</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029271818613276</v>
+        <v>1.029271818613274</v>
       </c>
       <c r="J23">
-        <v>0.9904041918906514</v>
+        <v>0.9904041918906488</v>
       </c>
       <c r="K23">
-        <v>1.000890053673842</v>
+        <v>1.000890053673839</v>
       </c>
       <c r="L23">
-        <v>0.9869367785429973</v>
+        <v>0.9869367785429947</v>
       </c>
       <c r="M23">
-        <v>0.969783546126366</v>
+        <v>0.9697835461263629</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.969773383966985</v>
+        <v>0.9697733839669855</v>
       </c>
       <c r="D24">
-        <v>0.9939073657179061</v>
+        <v>0.9939073657179063</v>
       </c>
       <c r="E24">
-        <v>0.9807076801318202</v>
+        <v>0.9807076801318206</v>
       </c>
       <c r="F24">
-        <v>0.9666174053386246</v>
+        <v>0.9666174053386254</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033267343151613</v>
       </c>
       <c r="J24">
-        <v>0.9984867680991825</v>
+        <v>0.9984867680991831</v>
       </c>
       <c r="K24">
         <v>1.008042326355121</v>
       </c>
       <c r="L24">
-        <v>0.9950822781871139</v>
+        <v>0.9950822781871145</v>
       </c>
       <c r="M24">
-        <v>0.9812572648581522</v>
+        <v>0.9812572648581528</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821434549593725</v>
+        <v>0.9821434549593737</v>
       </c>
       <c r="D25">
-        <v>1.003269888346922</v>
+        <v>1.003269888346923</v>
       </c>
       <c r="E25">
-        <v>0.9912274281371045</v>
+        <v>0.9912274281371057</v>
       </c>
       <c r="F25">
-        <v>0.9808600807618842</v>
+        <v>0.9808600807618851</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037562753074581</v>
+        <v>1.037562753074582</v>
       </c>
       <c r="J25">
-        <v>1.007287077636934</v>
+        <v>1.007287077636935</v>
       </c>
       <c r="K25">
-        <v>1.015817654701356</v>
+        <v>1.015817654701357</v>
       </c>
       <c r="L25">
-        <v>1.003963470803885</v>
+        <v>1.003963470803886</v>
       </c>
       <c r="M25">
-        <v>0.9937629683979291</v>
+        <v>0.9937629683979302</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9914616129504205</v>
+        <v>0.991461612950421</v>
       </c>
       <c r="D2">
         <v>1.010333263801119</v>
       </c>
       <c r="E2">
-        <v>0.9991770849292132</v>
+        <v>0.9991770849292134</v>
       </c>
       <c r="F2">
-        <v>0.9916003052670115</v>
+        <v>0.9916003052670118</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>1.010647896183529</v>
       </c>
       <c r="M2">
-        <v>1.00317791497974</v>
+        <v>1.003177914979741</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.997946818148767</v>
+        <v>0.997946818148768</v>
       </c>
       <c r="D3">
-        <v>1.015253263856458</v>
+        <v>1.015253263856459</v>
       </c>
       <c r="E3">
-        <v>1.004722932024317</v>
+        <v>1.004722932024318</v>
       </c>
       <c r="F3">
-        <v>0.9990837271743623</v>
+        <v>0.9990837271743639</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.042928558183362</v>
       </c>
       <c r="J3">
-        <v>1.018493611894391</v>
+        <v>1.018493611894392</v>
       </c>
       <c r="K3">
-        <v>1.025694626552288</v>
+        <v>1.025694626552289</v>
       </c>
       <c r="L3">
-        <v>1.015295736634491</v>
+        <v>1.015295736634492</v>
       </c>
       <c r="M3">
-        <v>1.009728345322971</v>
+        <v>1.009728345322972</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002024099302799</v>
+        <v>1.002024099302798</v>
       </c>
       <c r="D4">
-        <v>1.018347739000032</v>
+        <v>1.018347739000031</v>
       </c>
       <c r="E4">
-        <v>1.008215237529119</v>
+        <v>1.008215237529118</v>
       </c>
       <c r="F4">
         <v>1.003793056147587</v>
@@ -515,7 +515,7 @@
         <v>1.044285951944077</v>
       </c>
       <c r="J4">
-        <v>1.02137616974998</v>
+        <v>1.021376169749979</v>
       </c>
       <c r="K4">
         <v>1.028229653621321</v>
@@ -524,7 +524,7 @@
         <v>1.018215512817357</v>
       </c>
       <c r="M4">
-        <v>1.013845916879707</v>
+        <v>1.013845916879706</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003711138046551</v>
+        <v>1.00371113804655</v>
       </c>
       <c r="D5">
-        <v>1.019628337458102</v>
+        <v>1.019628337458101</v>
       </c>
       <c r="E5">
-        <v>1.009661517049523</v>
+        <v>1.009661517049522</v>
       </c>
       <c r="F5">
-        <v>1.005742758859535</v>
+        <v>1.005742758859534</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044843897307958</v>
+        <v>1.044843897307957</v>
       </c>
       <c r="J5">
-        <v>1.02256762322507</v>
+        <v>1.022567623225069</v>
       </c>
       <c r="K5">
-        <v>1.029276690030704</v>
+        <v>1.029276690030703</v>
       </c>
       <c r="L5">
-        <v>1.019423006656823</v>
+        <v>1.019423006656822</v>
       </c>
       <c r="M5">
-        <v>1.015549490607385</v>
+        <v>1.015549490607383</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,13 +576,13 @@
         <v>1.003992853332935</v>
       </c>
       <c r="D6">
-        <v>1.019842192021324</v>
+        <v>1.019842192021323</v>
       </c>
       <c r="E6">
-        <v>1.00990310221533</v>
+        <v>1.009903102215329</v>
       </c>
       <c r="F6">
-        <v>1.006068405213937</v>
+        <v>1.006068405213936</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>1.022766506805932</v>
       </c>
       <c r="K6">
-        <v>1.029451420831803</v>
+        <v>1.029451420831802</v>
       </c>
       <c r="L6">
-        <v>1.019624606544122</v>
+        <v>1.019624606544121</v>
       </c>
       <c r="M6">
-        <v>1.015833960047116</v>
+        <v>1.015833960047115</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002046746041414</v>
+        <v>1.002046746041413</v>
       </c>
       <c r="D7">
-        <v>1.018364928978632</v>
+        <v>1.018364928978631</v>
       </c>
       <c r="E7">
         <v>1.008234647324297</v>
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936788892896418</v>
+        <v>0.9936788892896422</v>
       </c>
       <c r="D8">
         <v>1.012015081665608</v>
@@ -670,7 +670,7 @@
         <v>1.015472056118724</v>
       </c>
       <c r="K8">
-        <v>1.023034723924264</v>
+        <v>1.023034723924265</v>
       </c>
       <c r="L8">
         <v>1.012237446815595</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779495895027307</v>
+        <v>0.9779495895027314</v>
       </c>
       <c r="D9">
-        <v>1.000093650365216</v>
+        <v>1.000093650365217</v>
       </c>
       <c r="E9">
-        <v>0.9876566186543019</v>
+        <v>0.9876566186543025</v>
       </c>
       <c r="F9">
-        <v>0.9760297962482658</v>
+        <v>0.9760297962482666</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036114727882614</v>
+        <v>1.036114727882615</v>
       </c>
       <c r="J9">
-        <v>1.004305776131943</v>
+        <v>1.004305776131944</v>
       </c>
       <c r="K9">
-        <v>1.013185208340097</v>
+        <v>1.013185208340098</v>
       </c>
       <c r="L9">
-        <v>1.000953184333395</v>
+        <v>1.000953184333396</v>
       </c>
       <c r="M9">
-        <v>0.9895241258403839</v>
+        <v>0.9895241258403846</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9666892832014131</v>
+        <v>0.9666892832014138</v>
       </c>
       <c r="D10">
-        <v>0.9915761516876958</v>
+        <v>0.9915761516876963</v>
       </c>
       <c r="E10">
-        <v>0.9780908059713547</v>
+        <v>0.9780908059713552</v>
       </c>
       <c r="F10">
-        <v>0.9630681406002517</v>
+        <v>0.9630681406002521</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032185684710644</v>
       </c>
       <c r="J10">
-        <v>0.9962898273816615</v>
+        <v>0.9962898273816621</v>
       </c>
       <c r="K10">
         <v>1.006099185439974</v>
       </c>
       <c r="L10">
-        <v>0.9928672351634538</v>
+        <v>0.9928672351634542</v>
       </c>
       <c r="M10">
-        <v>0.978137840341577</v>
+        <v>0.9781378403415777</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9616006863680413</v>
+        <v>0.9616006863680425</v>
       </c>
       <c r="D11">
-        <v>0.9877327729375723</v>
+        <v>0.9877327729375732</v>
       </c>
       <c r="E11">
-        <v>0.9737782327430287</v>
+        <v>0.9737782327430301</v>
       </c>
       <c r="F11">
-        <v>0.9572128812237379</v>
+        <v>0.9572128812237387</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030392766108226</v>
+        <v>1.030392766108227</v>
       </c>
       <c r="J11">
-        <v>0.9926630155902196</v>
+        <v>0.9926630155902205</v>
       </c>
       <c r="K11">
-        <v>1.002889799411326</v>
+        <v>1.002889799411327</v>
       </c>
       <c r="L11">
-        <v>0.9892121946705001</v>
+        <v>0.9892121946705014</v>
       </c>
       <c r="M11">
-        <v>0.9729894721083021</v>
+        <v>0.9729894721083029</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9596757341421037</v>
+        <v>0.9596757341421035</v>
       </c>
       <c r="D12">
-        <v>0.9862798947118301</v>
+        <v>0.9862798947118299</v>
       </c>
       <c r="E12">
-        <v>0.9721485021755756</v>
+        <v>0.9721485021755755</v>
       </c>
       <c r="F12">
-        <v>0.9549980799375989</v>
+        <v>0.9549980799375987</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029712014373107</v>
       </c>
       <c r="J12">
-        <v>0.9912904696471093</v>
+        <v>0.9912904696471091</v>
       </c>
       <c r="K12">
         <v>1.00167475690732</v>
       </c>
       <c r="L12">
-        <v>0.9878294789508454</v>
+        <v>0.9878294789508451</v>
       </c>
       <c r="M12">
-        <v>0.9710413976806702</v>
+        <v>0.9710413976806701</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.9600902682372624</v>
       </c>
       <c r="D13">
-        <v>0.9865927197598822</v>
+        <v>0.9865927197598821</v>
       </c>
       <c r="E13">
-        <v>0.9724993839344136</v>
+        <v>0.9724993839344135</v>
       </c>
       <c r="F13">
-        <v>0.9554750274880046</v>
+        <v>0.9554750274880047</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>1.001936455642477</v>
       </c>
       <c r="L13">
-        <v>0.988127244926704</v>
+        <v>0.9881272449267039</v>
       </c>
       <c r="M13">
-        <v>0.9714609356631914</v>
+        <v>0.9714609356631915</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9614422972745769</v>
+        <v>0.9614422972745755</v>
       </c>
       <c r="D14">
-        <v>0.9876132053268321</v>
+        <v>0.9876132053268309</v>
       </c>
       <c r="E14">
-        <v>0.9736441006822188</v>
+        <v>0.9736441006822176</v>
       </c>
       <c r="F14">
-        <v>0.9570306402906116</v>
+        <v>0.9570306402906106</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.030336802828074</v>
       </c>
       <c r="J14">
-        <v>0.9925500906499999</v>
+        <v>0.9925500906499986</v>
       </c>
       <c r="K14">
-        <v>1.002789842251435</v>
+        <v>1.002789842251434</v>
       </c>
       <c r="L14">
-        <v>0.9890984226377004</v>
+        <v>0.9890984226376992</v>
       </c>
       <c r="M14">
-        <v>0.9728291913747141</v>
+        <v>0.972829191374713</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9622706217268743</v>
+        <v>0.9622706217268739</v>
       </c>
       <c r="D15">
-        <v>0.9882385484234379</v>
+        <v>0.9882385484234378</v>
       </c>
       <c r="E15">
-        <v>0.9743456368693497</v>
+        <v>0.9743456368693496</v>
       </c>
       <c r="F15">
-        <v>0.9579837081595567</v>
+        <v>0.9579837081595566</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030629371362126</v>
       </c>
       <c r="J15">
-        <v>0.9931406294953264</v>
+        <v>0.993140629495326</v>
       </c>
       <c r="K15">
         <v>1.003312547456435</v>
       </c>
       <c r="L15">
-        <v>0.989693412172389</v>
+        <v>0.9896934121723887</v>
       </c>
       <c r="M15">
-        <v>0.9736673871770317</v>
+        <v>0.9736673871770315</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9670222776340981</v>
+        <v>0.9670222776340972</v>
       </c>
       <c r="D16">
-        <v>0.9918277918305524</v>
+        <v>0.9918277918305516</v>
       </c>
       <c r="E16">
-        <v>0.9783732403240493</v>
+        <v>0.9783732403240483</v>
       </c>
       <c r="F16">
-        <v>0.9634513373479251</v>
+        <v>0.963451337347924</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032302660443574</v>
       </c>
       <c r="J16">
-        <v>0.9965270803742077</v>
+        <v>0.9965270803742069</v>
       </c>
       <c r="K16">
-        <v>1.0063090656915</v>
+        <v>1.006309065691499</v>
       </c>
       <c r="L16">
-        <v>0.9931064057028099</v>
+        <v>0.9931064057028086</v>
       </c>
       <c r="M16">
-        <v>0.9784746805147373</v>
+        <v>0.9784746805147362</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9699439857179279</v>
+        <v>0.9699439857179275</v>
       </c>
       <c r="D17">
-        <v>0.9940363586178129</v>
+        <v>0.9940363586178128</v>
       </c>
       <c r="E17">
-        <v>0.9808525050654447</v>
+        <v>0.9808525050654442</v>
       </c>
       <c r="F17">
-        <v>0.9668137529483976</v>
+        <v>0.9668137529483974</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033327060950189</v>
       </c>
       <c r="J17">
-        <v>0.9986082661738135</v>
+        <v>0.998608266173813</v>
       </c>
       <c r="K17">
         <v>1.008149766345485</v>
       </c>
       <c r="L17">
-        <v>0.9952048003308791</v>
+        <v>0.9952048003308788</v>
       </c>
       <c r="M17">
-        <v>0.9814298016589823</v>
+        <v>0.9814298016589821</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,25 +1029,25 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9716278453631241</v>
+        <v>0.9716278453631243</v>
       </c>
       <c r="D18">
-        <v>0.9953097428706265</v>
+        <v>0.9953097428706267</v>
       </c>
       <c r="E18">
         <v>0.9822823303400109</v>
       </c>
       <c r="F18">
-        <v>0.9687518212835931</v>
+        <v>0.9687518212835932</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033915811581846</v>
+        <v>1.033915811581847</v>
       </c>
       <c r="J18">
-        <v>0.9998072941723386</v>
+        <v>0.9998072941723388</v>
       </c>
       <c r="K18">
         <v>1.009209930388184</v>
@@ -1056,7 +1056,7 @@
         <v>0.9964140666205764</v>
       </c>
       <c r="M18">
-        <v>0.9831326571078259</v>
+        <v>0.983132657107826</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9721986317691221</v>
+        <v>0.9721986317691208</v>
       </c>
       <c r="D19">
-        <v>0.9957414732214357</v>
+        <v>0.9957414732214346</v>
       </c>
       <c r="E19">
-        <v>0.9827671645733147</v>
+        <v>0.9827671645733135</v>
       </c>
       <c r="F19">
-        <v>0.9694088192616587</v>
+        <v>0.9694088192616576</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.034115102612198</v>
       </c>
       <c r="J19">
-        <v>1.000213661780911</v>
+        <v>1.00021366178091</v>
       </c>
       <c r="K19">
-        <v>1.009569180942562</v>
+        <v>1.009569180942561</v>
       </c>
       <c r="L19">
-        <v>0.9968239591770897</v>
+        <v>0.9968239591770885</v>
       </c>
       <c r="M19">
-        <v>0.9837098406479238</v>
+        <v>0.9837098406479227</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.969632635703485</v>
+        <v>0.9696326357034853</v>
       </c>
       <c r="D20">
-        <v>0.9938009481669663</v>
+        <v>0.9938009481669667</v>
       </c>
       <c r="E20">
-        <v>0.9805882034301964</v>
+        <v>0.9805882034301971</v>
       </c>
       <c r="F20">
-        <v>0.9664554177181632</v>
+        <v>0.966455417718164</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.03321806602687</v>
       </c>
       <c r="J20">
-        <v>0.9983865285234005</v>
+        <v>0.998386528523401</v>
       </c>
       <c r="K20">
         <v>1.007953683339289</v>
       </c>
       <c r="L20">
-        <v>0.9949811955597331</v>
+        <v>0.9949811955597339</v>
       </c>
       <c r="M20">
-        <v>0.981114918689368</v>
+        <v>0.9811149186893686</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9610451442885862</v>
+        <v>0.9610451442885859</v>
       </c>
       <c r="D21">
-        <v>0.9873134123735594</v>
+        <v>0.9873134123735592</v>
       </c>
       <c r="E21">
-        <v>0.9733077981772255</v>
+        <v>0.9733077981772248</v>
       </c>
       <c r="F21">
-        <v>0.956573682122293</v>
+        <v>0.9565736821222925</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.030196437532937</v>
       </c>
       <c r="J21">
-        <v>0.9922669279901887</v>
+        <v>0.9922669279901882</v>
       </c>
       <c r="K21">
-        <v>1.002539189252078</v>
+        <v>1.002539189252077</v>
       </c>
       <c r="L21">
-        <v>0.9888131441065666</v>
+        <v>0.9888131441065661</v>
       </c>
       <c r="M21">
-        <v>0.9724272866580694</v>
+        <v>0.972427286658069</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9554427054624457</v>
+        <v>0.9554427054624466</v>
       </c>
       <c r="D22">
-        <v>0.9830870535237671</v>
+        <v>0.9830870535237678</v>
       </c>
       <c r="E22">
-        <v>0.968567881120044</v>
+        <v>0.9685678811200445</v>
       </c>
       <c r="F22">
-        <v>0.9501277816296744</v>
+        <v>0.9501277816296749</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028210497749059</v>
+        <v>1.02821049774906</v>
       </c>
       <c r="J22">
-        <v>0.988271252947894</v>
+        <v>0.9882712529478948</v>
       </c>
       <c r="K22">
-        <v>0.9990011733790192</v>
+        <v>0.9990011733790199</v>
       </c>
       <c r="L22">
-        <v>0.9847888336774365</v>
+        <v>0.9847888336774371</v>
       </c>
       <c r="M22">
-        <v>0.9667564741793865</v>
+        <v>0.9667564741793868</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.958432966372211</v>
+        <v>0.9584329663722139</v>
       </c>
       <c r="D23">
-        <v>0.9853422127936889</v>
+        <v>0.9853422127936918</v>
       </c>
       <c r="E23">
-        <v>0.9710968166055328</v>
+        <v>0.9710968166055356</v>
       </c>
       <c r="F23">
-        <v>0.9535682088578146</v>
+        <v>0.9535682088578177</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029271818613274</v>
+        <v>1.029271818613276</v>
       </c>
       <c r="J23">
-        <v>0.9904041918906488</v>
+        <v>0.9904041918906514</v>
       </c>
       <c r="K23">
-        <v>1.000890053673839</v>
+        <v>1.000890053673842</v>
       </c>
       <c r="L23">
-        <v>0.9869367785429947</v>
+        <v>0.9869367785429973</v>
       </c>
       <c r="M23">
-        <v>0.9697835461263629</v>
+        <v>0.969783546126366</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9697733839669855</v>
+        <v>0.969773383966985</v>
       </c>
       <c r="D24">
-        <v>0.9939073657179063</v>
+        <v>0.9939073657179061</v>
       </c>
       <c r="E24">
-        <v>0.9807076801318206</v>
+        <v>0.9807076801318202</v>
       </c>
       <c r="F24">
-        <v>0.9666174053386254</v>
+        <v>0.9666174053386246</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033267343151613</v>
       </c>
       <c r="J24">
-        <v>0.9984867680991831</v>
+        <v>0.9984867680991825</v>
       </c>
       <c r="K24">
         <v>1.008042326355121</v>
       </c>
       <c r="L24">
-        <v>0.9950822781871145</v>
+        <v>0.9950822781871139</v>
       </c>
       <c r="M24">
-        <v>0.9812572648581528</v>
+        <v>0.9812572648581522</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821434549593737</v>
+        <v>0.9821434549593725</v>
       </c>
       <c r="D25">
-        <v>1.003269888346923</v>
+        <v>1.003269888346922</v>
       </c>
       <c r="E25">
-        <v>0.9912274281371057</v>
+        <v>0.9912274281371045</v>
       </c>
       <c r="F25">
-        <v>0.9808600807618851</v>
+        <v>0.9808600807618842</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037562753074582</v>
+        <v>1.037562753074581</v>
       </c>
       <c r="J25">
-        <v>1.007287077636935</v>
+        <v>1.007287077636934</v>
       </c>
       <c r="K25">
-        <v>1.015817654701357</v>
+        <v>1.015817654701356</v>
       </c>
       <c r="L25">
-        <v>1.003963470803886</v>
+        <v>1.003963470803885</v>
       </c>
       <c r="M25">
-        <v>0.9937629683979302</v>
+        <v>0.9937629683979291</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.991461612950421</v>
+        <v>0.9914672381659433</v>
       </c>
       <c r="D2">
-        <v>1.010333263801119</v>
+        <v>1.01033789600506</v>
       </c>
       <c r="E2">
-        <v>0.9991770849292134</v>
+        <v>0.9991825595403913</v>
       </c>
       <c r="F2">
-        <v>0.9916003052670118</v>
+        <v>0.9916055696983004</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040745412365853</v>
+        <v>1.040748008644551</v>
       </c>
       <c r="J2">
-        <v>1.013900739808687</v>
+        <v>1.013906192755245</v>
       </c>
       <c r="K2">
-        <v>1.021650492739897</v>
+        <v>1.021655062060705</v>
       </c>
       <c r="L2">
-        <v>1.010647896183529</v>
+        <v>1.01065329436655</v>
       </c>
       <c r="M2">
-        <v>1.003177914979741</v>
+        <v>1.003183104489547</v>
+      </c>
+      <c r="N2">
+        <v>1.011354727034085</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.997946818148768</v>
+        <v>0.9979494022881664</v>
       </c>
       <c r="D3">
-        <v>1.015253263856459</v>
+        <v>1.015255510622589</v>
       </c>
       <c r="E3">
-        <v>1.004722932024318</v>
+        <v>1.0047257101817</v>
       </c>
       <c r="F3">
-        <v>0.9990837271743639</v>
+        <v>0.999086323877532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042928558183362</v>
+        <v>1.042929811459302</v>
       </c>
       <c r="J3">
-        <v>1.018493611894392</v>
+        <v>1.018496125192244</v>
       </c>
       <c r="K3">
-        <v>1.025694626552289</v>
+        <v>1.025696845635891</v>
       </c>
       <c r="L3">
-        <v>1.015295736634492</v>
+        <v>1.015298479660866</v>
       </c>
       <c r="M3">
-        <v>1.009728345322972</v>
+        <v>1.009730908724721</v>
+      </c>
+      <c r="N3">
+        <v>1.014514043407235</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002024099302798</v>
+        <v>1.002024800939336</v>
       </c>
       <c r="D4">
-        <v>1.018347739000031</v>
+        <v>1.018348506443948</v>
       </c>
       <c r="E4">
-        <v>1.008215237529118</v>
+        <v>1.008216344692435</v>
       </c>
       <c r="F4">
-        <v>1.003793056147587</v>
+        <v>1.003794009568986</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044285951944077</v>
+        <v>1.044286370542706</v>
       </c>
       <c r="J4">
-        <v>1.021376169749979</v>
+        <v>1.021376853536454</v>
       </c>
       <c r="K4">
-        <v>1.028229653621321</v>
+        <v>1.028230412210708</v>
       </c>
       <c r="L4">
-        <v>1.018215512817357</v>
+        <v>1.018216606886623</v>
       </c>
       <c r="M4">
-        <v>1.013845916879706</v>
+        <v>1.013846858901769</v>
+      </c>
+      <c r="N4">
+        <v>1.016495736468664</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00371113804655</v>
+        <v>1.003711067038209</v>
       </c>
       <c r="D5">
-        <v>1.019628337458101</v>
+        <v>1.019628497170607</v>
       </c>
       <c r="E5">
-        <v>1.009661517049522</v>
+        <v>1.009661938028114</v>
       </c>
       <c r="F5">
-        <v>1.005742758859534</v>
+        <v>1.005743039606285</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044843897307957</v>
+        <v>1.044843972587107</v>
       </c>
       <c r="J5">
-        <v>1.022567623225069</v>
+        <v>1.022567553965972</v>
       </c>
       <c r="K5">
-        <v>1.029276690030703</v>
+        <v>1.029276847952076</v>
       </c>
       <c r="L5">
-        <v>1.019423006656822</v>
+        <v>1.019423422798502</v>
       </c>
       <c r="M5">
-        <v>1.015549490607383</v>
+        <v>1.015549768097301</v>
+      </c>
+      <c r="N5">
+        <v>1.017314547368332</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003992853332935</v>
+        <v>1.003992653649252</v>
       </c>
       <c r="D6">
-        <v>1.019842192021323</v>
+        <v>1.019842250491756</v>
       </c>
       <c r="E6">
-        <v>1.009903102215329</v>
+        <v>1.00990340889931</v>
       </c>
       <c r="F6">
-        <v>1.006068405213936</v>
+        <v>1.00606857403495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044936848349686</v>
+        <v>1.044936866410973</v>
       </c>
       <c r="J6">
-        <v>1.022766506805932</v>
+        <v>1.022766312014559</v>
       </c>
       <c r="K6">
-        <v>1.029451420831802</v>
+        <v>1.029451478649655</v>
       </c>
       <c r="L6">
-        <v>1.019624606544121</v>
+        <v>1.019624909721625</v>
       </c>
       <c r="M6">
-        <v>1.015833960047115</v>
+        <v>1.015834126919694</v>
+      </c>
+      <c r="N6">
+        <v>1.017451210338716</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002046746041413</v>
+        <v>1.002047437282179</v>
       </c>
       <c r="D7">
-        <v>1.018364928978631</v>
+        <v>1.018365688247802</v>
       </c>
       <c r="E7">
-        <v>1.008234647324297</v>
+        <v>1.008235745256426</v>
       </c>
       <c r="F7">
-        <v>1.003819224255553</v>
+        <v>1.003820168619374</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044293456488493</v>
+        <v>1.044293870470689</v>
       </c>
       <c r="J7">
-        <v>1.021392168781464</v>
+        <v>1.02139284244415</v>
       </c>
       <c r="K7">
-        <v>1.0282437164764</v>
+        <v>1.028244466988653</v>
       </c>
       <c r="L7">
-        <v>1.018231724635255</v>
+        <v>1.018232809587482</v>
       </c>
       <c r="M7">
-        <v>1.013868786075038</v>
+        <v>1.013869719152338</v>
+      </c>
+      <c r="N7">
+        <v>1.016506732743951</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936788892896422</v>
+        <v>0.9936834680475054</v>
       </c>
       <c r="D8">
-        <v>1.012015081665608</v>
+        <v>1.012018893642049</v>
       </c>
       <c r="E8">
-        <v>1.00107197658024</v>
+        <v>1.001076523765291</v>
       </c>
       <c r="F8">
-        <v>0.9941579750766735</v>
+        <v>0.9941623196896083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041494984420293</v>
+        <v>1.041497119308237</v>
       </c>
       <c r="J8">
-        <v>1.015472056118724</v>
+        <v>1.015476499725751</v>
       </c>
       <c r="K8">
-        <v>1.023034723924265</v>
+        <v>1.023038485791163</v>
       </c>
       <c r="L8">
-        <v>1.012237446815595</v>
+        <v>1.012241932572262</v>
       </c>
       <c r="M8">
-        <v>1.005417666168702</v>
+        <v>1.005421951056773</v>
+      </c>
+      <c r="N8">
+        <v>1.01243582808258</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779495895027314</v>
+        <v>0.9779617568029645</v>
       </c>
       <c r="D9">
-        <v>1.000093650365217</v>
+        <v>1.000103394697119</v>
       </c>
       <c r="E9">
-        <v>0.9876566186543025</v>
+        <v>0.9876678789099577</v>
       </c>
       <c r="F9">
-        <v>0.9760297962482666</v>
+        <v>0.9760408550141028</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036114727882615</v>
+        <v>1.036120190955612</v>
       </c>
       <c r="J9">
-        <v>1.004305776131944</v>
+        <v>1.004317486021862</v>
       </c>
       <c r="K9">
-        <v>1.013185208340098</v>
+        <v>1.013194794617011</v>
       </c>
       <c r="L9">
-        <v>1.000953184333396</v>
+        <v>1.000964255969181</v>
       </c>
       <c r="M9">
-        <v>0.9895241258403846</v>
+        <v>0.9895349936090729</v>
+      </c>
+      <c r="N9">
+        <v>1.004748761424667</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9666892832014138</v>
+        <v>0.9667071452545276</v>
       </c>
       <c r="D10">
-        <v>0.9915761516876963</v>
+        <v>0.9915903225908583</v>
       </c>
       <c r="E10">
-        <v>0.9780908059713552</v>
+        <v>0.97810708250928</v>
       </c>
       <c r="F10">
-        <v>0.9630681406002521</v>
+        <v>0.9630843055851338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032185684710644</v>
+        <v>1.032193618686915</v>
       </c>
       <c r="J10">
-        <v>0.9962898273816621</v>
+        <v>0.9963069090645494</v>
       </c>
       <c r="K10">
-        <v>1.006099185439974</v>
+        <v>1.006113094790447</v>
       </c>
       <c r="L10">
-        <v>0.9928672351634542</v>
+        <v>0.9928832003462696</v>
       </c>
       <c r="M10">
-        <v>0.9781378403415777</v>
+        <v>0.978153683290284</v>
+      </c>
+      <c r="N10">
+        <v>0.9992254116549791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9616006863680425</v>
+        <v>0.9616212036436572</v>
       </c>
       <c r="D11">
-        <v>0.9877327729375732</v>
+        <v>0.9877489998765596</v>
       </c>
       <c r="E11">
-        <v>0.9737782327430301</v>
+        <v>0.9737968410129982</v>
       </c>
       <c r="F11">
-        <v>0.9572128812237387</v>
+        <v>0.9572314470840397</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030392766108227</v>
+        <v>1.030401844419044</v>
       </c>
       <c r="J11">
-        <v>0.9926630155902205</v>
+        <v>0.992682578214357</v>
       </c>
       <c r="K11">
-        <v>1.002889799411327</v>
+        <v>1.002905710290724</v>
       </c>
       <c r="L11">
-        <v>0.9892121946705014</v>
+        <v>0.9892304266884498</v>
       </c>
       <c r="M11">
-        <v>0.9729894721083029</v>
+        <v>0.9730076451737165</v>
+      </c>
+      <c r="N11">
+        <v>0.9967253985876826</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9596757341421035</v>
+        <v>0.9596972701135379</v>
       </c>
       <c r="D12">
-        <v>0.9862798947118299</v>
+        <v>0.9862969090959468</v>
       </c>
       <c r="E12">
-        <v>0.9721485021755755</v>
+        <v>0.9721680037596928</v>
       </c>
       <c r="F12">
-        <v>0.9549980799375987</v>
+        <v>0.9550175703188335</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029712014373107</v>
+        <v>1.029721530418594</v>
       </c>
       <c r="J12">
-        <v>0.9912904696471091</v>
+        <v>0.9913109801261584</v>
       </c>
       <c r="K12">
-        <v>1.00167475690732</v>
+        <v>1.001691433300251</v>
       </c>
       <c r="L12">
-        <v>0.9878294789508451</v>
+        <v>0.9878485781249553</v>
       </c>
       <c r="M12">
-        <v>0.9710413976806701</v>
+        <v>0.971060466479951</v>
+      </c>
+      <c r="N12">
+        <v>0.9957791566088113</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9600902682372624</v>
+        <v>0.9601115841561488</v>
       </c>
       <c r="D13">
-        <v>0.9865927197598821</v>
+        <v>0.9866095641096415</v>
       </c>
       <c r="E13">
-        <v>0.9724993839344135</v>
+        <v>0.9725186926108943</v>
       </c>
       <c r="F13">
-        <v>0.9554750274880047</v>
+        <v>0.9554943179994536</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029858724537153</v>
+        <v>1.029868146086593</v>
       </c>
       <c r="J13">
-        <v>0.9915860685016455</v>
+        <v>0.9916063744169629</v>
       </c>
       <c r="K13">
-        <v>1.001936455642477</v>
+        <v>1.001952966785837</v>
       </c>
       <c r="L13">
-        <v>0.9881272449267039</v>
+        <v>0.9881461569022009</v>
       </c>
       <c r="M13">
-        <v>0.9714609356631915</v>
+        <v>0.9714798108882329</v>
+      </c>
+      <c r="N13">
+        <v>0.9959829497230869</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9614422972745755</v>
+        <v>0.9614628980689258</v>
       </c>
       <c r="D14">
-        <v>0.9876132053268309</v>
+        <v>0.9876294968540001</v>
       </c>
       <c r="E14">
-        <v>0.9736441006822176</v>
+        <v>0.9736627822182852</v>
       </c>
       <c r="F14">
-        <v>0.9570306402906106</v>
+        <v>0.9570492818774052</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030336802828074</v>
+        <v>1.030345917054002</v>
       </c>
       <c r="J14">
-        <v>0.9925500906499986</v>
+        <v>0.9925697310677121</v>
       </c>
       <c r="K14">
-        <v>1.002789842251434</v>
+        <v>1.00280581594199</v>
       </c>
       <c r="L14">
-        <v>0.9890984226376992</v>
+        <v>0.9891167258032308</v>
       </c>
       <c r="M14">
-        <v>0.972829191374713</v>
+        <v>0.9728474378407563</v>
+      </c>
+      <c r="N14">
+        <v>0.9966475498526702</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9622706217268739</v>
+        <v>0.9622907863370626</v>
       </c>
       <c r="D15">
-        <v>0.9882385484234378</v>
+        <v>0.9882545025765318</v>
       </c>
       <c r="E15">
-        <v>0.9743456368693496</v>
+        <v>0.9743639357139341</v>
       </c>
       <c r="F15">
-        <v>0.9579837081595566</v>
+        <v>0.958001954398039</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030629371362126</v>
+        <v>1.030638297964851</v>
       </c>
       <c r="J15">
-        <v>0.993140629495326</v>
+        <v>0.9931598634657641</v>
       </c>
       <c r="K15">
-        <v>1.003312547456435</v>
+        <v>1.00332819301189</v>
       </c>
       <c r="L15">
-        <v>0.9896934121723887</v>
+        <v>0.9897113436590151</v>
       </c>
       <c r="M15">
-        <v>0.9736673871770315</v>
+        <v>0.9736852503743457</v>
+      </c>
+      <c r="N15">
+        <v>0.9970546533271846</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9670222776340972</v>
+        <v>0.9670399677829021</v>
       </c>
       <c r="D16">
-        <v>0.9918277918305516</v>
+        <v>0.9918418294460568</v>
       </c>
       <c r="E16">
-        <v>0.9783732403240483</v>
+        <v>0.9783893657390696</v>
       </c>
       <c r="F16">
-        <v>0.963451337347924</v>
+        <v>0.9634673473368147</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032302660443574</v>
+        <v>1.032310520164341</v>
       </c>
       <c r="J16">
-        <v>0.9965270803742069</v>
+        <v>0.9965440009181913</v>
       </c>
       <c r="K16">
-        <v>1.006309065691499</v>
+        <v>1.006322845148886</v>
       </c>
       <c r="L16">
-        <v>0.9931064057028086</v>
+        <v>0.993122223798777</v>
       </c>
       <c r="M16">
-        <v>0.9784746805147362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9784903728359843</v>
+      </c>
+      <c r="N16">
+        <v>0.9993889349736315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9699439857179275</v>
+        <v>0.9699601770038311</v>
       </c>
       <c r="D17">
-        <v>0.9940363586178128</v>
+        <v>0.9940492331807029</v>
       </c>
       <c r="E17">
-        <v>0.9808525050654442</v>
+        <v>0.9808673119995417</v>
       </c>
       <c r="F17">
-        <v>0.9668137529483974</v>
+        <v>0.9668284137688756</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033327060950189</v>
+        <v>1.033334272350672</v>
       </c>
       <c r="J17">
-        <v>0.998608266173813</v>
+        <v>0.9986237790441668</v>
       </c>
       <c r="K17">
-        <v>1.008149766345485</v>
+        <v>1.008162411645025</v>
       </c>
       <c r="L17">
-        <v>0.9952048003308788</v>
+        <v>0.9952193342733499</v>
       </c>
       <c r="M17">
-        <v>0.9814298016589821</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9814441818095061</v>
+      </c>
+      <c r="N17">
+        <v>1.000823255358632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9716278453631243</v>
+        <v>0.9716431803560494</v>
       </c>
       <c r="D18">
-        <v>0.9953097428706267</v>
+        <v>0.9953219522723842</v>
       </c>
       <c r="E18">
-        <v>0.9822823303400109</v>
+        <v>0.9822963833866566</v>
       </c>
       <c r="F18">
-        <v>0.9687518212835932</v>
+        <v>0.9687657131541131</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033915811581847</v>
+        <v>1.033922651895072</v>
       </c>
       <c r="J18">
-        <v>0.9998072941723388</v>
+        <v>0.9998220006876994</v>
       </c>
       <c r="K18">
-        <v>1.009209930388184</v>
+        <v>1.009221926462734</v>
       </c>
       <c r="L18">
-        <v>0.9964140666205764</v>
+        <v>0.9964278655861896</v>
       </c>
       <c r="M18">
-        <v>0.983132657107826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9831462885668271</v>
+      </c>
+      <c r="N18">
+        <v>1.001649513377205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9721986317691208</v>
+        <v>0.9722136777258505</v>
       </c>
       <c r="D19">
-        <v>0.9957414732214346</v>
+        <v>0.9957534579859961</v>
       </c>
       <c r="E19">
-        <v>0.9827671645733135</v>
+        <v>0.9827809630459163</v>
       </c>
       <c r="F19">
-        <v>0.9694088192616576</v>
+        <v>0.9694224518768009</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034115102612198</v>
+        <v>1.034121817551348</v>
       </c>
       <c r="J19">
-        <v>1.00021366178091</v>
+        <v>1.000228095761659</v>
       </c>
       <c r="K19">
-        <v>1.009569180942561</v>
+        <v>1.009580957664407</v>
       </c>
       <c r="L19">
-        <v>0.9968239591770885</v>
+        <v>0.996837509835973</v>
       </c>
       <c r="M19">
-        <v>0.9837098406479227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9837232195457689</v>
+      </c>
+      <c r="N19">
+        <v>1.001929527578391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9696326357034853</v>
+        <v>0.9696489859180101</v>
       </c>
       <c r="D20">
-        <v>0.9938009481669667</v>
+        <v>0.9938139461273147</v>
       </c>
       <c r="E20">
-        <v>0.9805882034301971</v>
+        <v>0.9806031502351479</v>
       </c>
       <c r="F20">
-        <v>0.966455417718164</v>
+        <v>0.9664702214020723</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03321806602687</v>
+        <v>1.033225346244963</v>
       </c>
       <c r="J20">
-        <v>0.998386528523401</v>
+        <v>0.998402190881083</v>
       </c>
       <c r="K20">
-        <v>1.007953683339289</v>
+        <v>1.007966449032604</v>
       </c>
       <c r="L20">
-        <v>0.9949811955597339</v>
+        <v>0.9949958658069834</v>
       </c>
       <c r="M20">
-        <v>0.9811149186893686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9811294378731484</v>
+      </c>
+      <c r="N20">
+        <v>1.000670446814369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9610451442885859</v>
+        <v>0.9610659547387206</v>
       </c>
       <c r="D21">
-        <v>0.9873134123735592</v>
+        <v>0.9873298660128524</v>
       </c>
       <c r="E21">
-        <v>0.9733077981772248</v>
+        <v>0.9733266636109449</v>
       </c>
       <c r="F21">
-        <v>0.9565736821222925</v>
+        <v>0.9565925138601568</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030196437532937</v>
+        <v>1.030205641894732</v>
       </c>
       <c r="J21">
-        <v>0.9922669279901882</v>
+        <v>0.9922867636267079</v>
       </c>
       <c r="K21">
-        <v>1.002539189252077</v>
+        <v>1.002555320577304</v>
       </c>
       <c r="L21">
-        <v>0.9888131441065661</v>
+        <v>0.9888316258311084</v>
       </c>
       <c r="M21">
-        <v>0.972427286658069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9724457174096405</v>
+      </c>
+      <c r="N21">
+        <v>0.9964523398623661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9554427054624466</v>
+        <v>0.9554665103611046</v>
       </c>
       <c r="D22">
-        <v>0.9830870535237678</v>
+        <v>0.9831058190074579</v>
       </c>
       <c r="E22">
-        <v>0.9685678811200445</v>
+        <v>0.968589369766212</v>
       </c>
       <c r="F22">
-        <v>0.9501277816296749</v>
+        <v>0.9501493379985321</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02821049774906</v>
+        <v>1.028220986181399</v>
       </c>
       <c r="J22">
-        <v>0.9882712529478948</v>
+        <v>0.9882938666873892</v>
       </c>
       <c r="K22">
-        <v>0.9990011733790199</v>
+        <v>0.9990195500370818</v>
       </c>
       <c r="L22">
-        <v>0.9847888336774371</v>
+        <v>0.9848098591873555</v>
       </c>
       <c r="M22">
-        <v>0.9667564741793868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9667775415718363</v>
+      </c>
+      <c r="N22">
+        <v>0.9936974797585214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9584329663722139</v>
+        <v>0.9584551643191038</v>
       </c>
       <c r="D23">
-        <v>0.9853422127936918</v>
+        <v>0.9853597384693524</v>
       </c>
       <c r="E23">
-        <v>0.9710968166055356</v>
+        <v>0.971116898302935</v>
       </c>
       <c r="F23">
-        <v>0.9535682088578177</v>
+        <v>0.9535883010326849</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029271818613276</v>
+        <v>1.029281618725924</v>
       </c>
       <c r="J23">
-        <v>0.9904041918906514</v>
+        <v>0.9904253171331435</v>
       </c>
       <c r="K23">
-        <v>1.000890053673842</v>
+        <v>1.000907226808448</v>
       </c>
       <c r="L23">
-        <v>0.9869367785429973</v>
+        <v>0.9869564404627208</v>
       </c>
       <c r="M23">
-        <v>0.969783546126366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9698031975241732</v>
+      </c>
+      <c r="N23">
+        <v>0.9951681180497421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.969773383966985</v>
+        <v>0.9697896623132759</v>
       </c>
       <c r="D24">
-        <v>0.9939073657179061</v>
+        <v>0.9939203078795867</v>
       </c>
       <c r="E24">
-        <v>0.9807076801318202</v>
+        <v>0.9807225636885438</v>
       </c>
       <c r="F24">
-        <v>0.9666174053386246</v>
+        <v>0.9666321444133946</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033267343151613</v>
+        <v>1.033274592252263</v>
       </c>
       <c r="J24">
-        <v>0.9984867680991825</v>
+        <v>0.9985023628647226</v>
       </c>
       <c r="K24">
-        <v>1.008042326355121</v>
+        <v>1.008055037609822</v>
       </c>
       <c r="L24">
-        <v>0.9950822781871139</v>
+        <v>0.9950968868009071</v>
       </c>
       <c r="M24">
-        <v>0.9812572648581522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9812717211675397</v>
+      </c>
+      <c r="N24">
+        <v>1.000739526323923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821434549593725</v>
+        <v>0.9821535598578798</v>
       </c>
       <c r="D25">
-        <v>1.003269888346922</v>
+        <v>1.003278024073277</v>
       </c>
       <c r="E25">
-        <v>0.9912274281371045</v>
+        <v>0.9912368669158086</v>
       </c>
       <c r="F25">
-        <v>0.9808600807618842</v>
+        <v>0.9808693046371446</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037562753074581</v>
+        <v>1.037567315661698</v>
       </c>
       <c r="J25">
-        <v>1.007287077636934</v>
+        <v>1.007296824922698</v>
       </c>
       <c r="K25">
-        <v>1.015817654701356</v>
+        <v>1.015825665181057</v>
       </c>
       <c r="L25">
-        <v>1.003963470803885</v>
+        <v>1.003972759718511</v>
       </c>
       <c r="M25">
-        <v>0.9937629683979291</v>
+        <v>0.9937720418162204</v>
+      </c>
+      <c r="N25">
+        <v>1.006802064125889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9914672381659433</v>
+        <v>1.033713904025943</v>
       </c>
       <c r="D2">
-        <v>1.01033789600506</v>
+        <v>1.049048071670456</v>
       </c>
       <c r="E2">
-        <v>0.9991825595403913</v>
+        <v>1.045046502356734</v>
       </c>
       <c r="F2">
-        <v>0.9916055696983004</v>
+        <v>1.056089381905801</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040748008644551</v>
+        <v>1.056757025765599</v>
       </c>
       <c r="J2">
-        <v>1.013906192755245</v>
+        <v>1.054930961844029</v>
       </c>
       <c r="K2">
-        <v>1.021655062060705</v>
+        <v>1.059863900667762</v>
       </c>
       <c r="L2">
-        <v>1.01065329436655</v>
+        <v>1.055912010190217</v>
       </c>
       <c r="M2">
-        <v>1.003183104489547</v>
+        <v>1.066818930111705</v>
       </c>
       <c r="N2">
-        <v>1.011354727034085</v>
+        <v>1.05642908481212</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9979494022881664</v>
+        <v>1.040915068722632</v>
       </c>
       <c r="D3">
-        <v>1.015255510622589</v>
+        <v>1.05469676158593</v>
       </c>
       <c r="E3">
-        <v>1.0047257101817</v>
+        <v>1.051124809641117</v>
       </c>
       <c r="F3">
-        <v>0.999086323877532</v>
+        <v>1.062229803937159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042929811459302</v>
+        <v>1.059084787197391</v>
       </c>
       <c r="J3">
-        <v>1.018496125192244</v>
+        <v>1.060349256781298</v>
       </c>
       <c r="K3">
-        <v>1.025696845635891</v>
+        <v>1.064674538925582</v>
       </c>
       <c r="L3">
-        <v>1.015298479660866</v>
+        <v>1.061142802219558</v>
       </c>
       <c r="M3">
-        <v>1.009730908724721</v>
+        <v>1.07212385948383</v>
       </c>
       <c r="N3">
-        <v>1.014514043407235</v>
+        <v>1.061855074349687</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002024800939336</v>
+        <v>1.045446580603391</v>
       </c>
       <c r="D4">
-        <v>1.018348506443948</v>
+        <v>1.058253666899747</v>
       </c>
       <c r="E4">
-        <v>1.008216344692435</v>
+        <v>1.054955053203142</v>
       </c>
       <c r="F4">
-        <v>1.003794009568986</v>
+        <v>1.066099370739427</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044286370542706</v>
+        <v>1.060538180090005</v>
       </c>
       <c r="J4">
-        <v>1.021376853536454</v>
+        <v>1.06375511113386</v>
       </c>
       <c r="K4">
-        <v>1.028230412210708</v>
+        <v>1.067696404866982</v>
       </c>
       <c r="L4">
-        <v>1.018216606886623</v>
+        <v>1.064432551644652</v>
       </c>
       <c r="M4">
-        <v>1.013846858901769</v>
+        <v>1.075460485971844</v>
       </c>
       <c r="N4">
-        <v>1.016495736468664</v>
+        <v>1.065265765406087</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003711067038209</v>
+        <v>1.047322561547007</v>
       </c>
       <c r="D5">
-        <v>1.019628497170607</v>
+        <v>1.059726638834925</v>
       </c>
       <c r="E5">
-        <v>1.009661938028114</v>
+        <v>1.056541910727244</v>
       </c>
       <c r="F5">
-        <v>1.005743039606285</v>
+        <v>1.067702553940717</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044843972587107</v>
+        <v>1.061137068790691</v>
       </c>
       <c r="J5">
-        <v>1.022567553965972</v>
+        <v>1.065164127795992</v>
       </c>
       <c r="K5">
-        <v>1.029276847952076</v>
+        <v>1.068946057532853</v>
       </c>
       <c r="L5">
-        <v>1.019423422798502</v>
+        <v>1.065793944491324</v>
       </c>
       <c r="M5">
-        <v>1.015549768097301</v>
+        <v>1.076841329157939</v>
       </c>
       <c r="N5">
-        <v>1.017314547368332</v>
+        <v>1.066676783033495</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003992653649252</v>
+        <v>1.04763588694308</v>
       </c>
       <c r="D6">
-        <v>1.019842250491756</v>
+        <v>1.059972678533406</v>
       </c>
       <c r="E6">
-        <v>1.00990340889931</v>
+        <v>1.056807014600304</v>
       </c>
       <c r="F6">
-        <v>1.00606857403495</v>
+        <v>1.067970386965497</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044936866410973</v>
+        <v>1.061236928883704</v>
       </c>
       <c r="J6">
-        <v>1.022766312014559</v>
+        <v>1.065399403016775</v>
       </c>
       <c r="K6">
-        <v>1.029451478649655</v>
+        <v>1.069154692067138</v>
       </c>
       <c r="L6">
-        <v>1.019624909721625</v>
+        <v>1.066021291303391</v>
       </c>
       <c r="M6">
-        <v>1.015834126919694</v>
+        <v>1.07707192686134</v>
       </c>
       <c r="N6">
-        <v>1.017451210338716</v>
+        <v>1.066912392372079</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002047437282179</v>
+        <v>1.045471759731423</v>
       </c>
       <c r="D7">
-        <v>1.018365688247802</v>
+        <v>1.058273435186704</v>
       </c>
       <c r="E7">
-        <v>1.008235745256426</v>
+        <v>1.054976347154205</v>
       </c>
       <c r="F7">
-        <v>1.003820168619374</v>
+        <v>1.066120883640578</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044293870470689</v>
+        <v>1.060546229414243</v>
       </c>
       <c r="J7">
-        <v>1.02139284244415</v>
+        <v>1.063774026606869</v>
       </c>
       <c r="K7">
-        <v>1.028244466988653</v>
+        <v>1.067713182973496</v>
       </c>
       <c r="L7">
-        <v>1.018232809587482</v>
+        <v>1.064450826183064</v>
       </c>
       <c r="M7">
-        <v>1.013869719152338</v>
+        <v>1.075479021408658</v>
       </c>
       <c r="N7">
-        <v>1.016506732743951</v>
+        <v>1.065284707741238</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936834680475054</v>
+        <v>1.036175107430039</v>
       </c>
       <c r="D8">
-        <v>1.012018893642049</v>
+        <v>1.050978122397683</v>
       </c>
       <c r="E8">
-        <v>1.001076523765291</v>
+        <v>1.047122762949872</v>
       </c>
       <c r="F8">
-        <v>0.9941623196896083</v>
+        <v>1.058186815761896</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041497119308237</v>
+        <v>1.057554972538023</v>
       </c>
       <c r="J8">
-        <v>1.015476499725751</v>
+        <v>1.056783569130533</v>
       </c>
       <c r="K8">
-        <v>1.023038485791163</v>
+        <v>1.061509153983322</v>
       </c>
       <c r="L8">
-        <v>1.012241932572262</v>
+        <v>1.057700128839933</v>
       </c>
       <c r="M8">
-        <v>1.005421951056773</v>
+        <v>1.068632333747699</v>
       </c>
       <c r="N8">
-        <v>1.01243582808258</v>
+        <v>1.058284323013468</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779617568029645</v>
+        <v>1.018732623782673</v>
       </c>
       <c r="D9">
-        <v>1.000103394697119</v>
+        <v>1.037314203562253</v>
       </c>
       <c r="E9">
-        <v>0.9876678789099577</v>
+        <v>1.032435111824693</v>
       </c>
       <c r="F9">
-        <v>0.9760408550141028</v>
+        <v>1.043350592080033</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036120190955612</v>
+        <v>1.051853370927752</v>
       </c>
       <c r="J9">
-        <v>1.004317486021862</v>
+        <v>1.043640795014632</v>
       </c>
       <c r="K9">
-        <v>1.013194794617011</v>
+        <v>1.049829563011882</v>
       </c>
       <c r="L9">
-        <v>1.000964255969181</v>
+        <v>1.045022992169951</v>
       </c>
       <c r="M9">
-        <v>0.9895349936090729</v>
+        <v>1.055777419717277</v>
       </c>
       <c r="N9">
-        <v>1.004748761424667</v>
+        <v>1.045122884650825</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9667071452545276</v>
+        <v>1.006267520963074</v>
       </c>
       <c r="D10">
-        <v>0.9915903225908583</v>
+        <v>1.027573043346112</v>
       </c>
       <c r="E10">
-        <v>0.97810708250928</v>
+        <v>1.021977790222514</v>
       </c>
       <c r="F10">
-        <v>0.9630843055851338</v>
+        <v>1.032789573047343</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032193618686915</v>
+        <v>1.04772225774385</v>
       </c>
       <c r="J10">
-        <v>0.9963069090645494</v>
+        <v>1.034234659575368</v>
       </c>
       <c r="K10">
-        <v>1.006113094790447</v>
+        <v>1.04146168642384</v>
       </c>
       <c r="L10">
-        <v>0.9928832003462696</v>
+        <v>1.035961252058656</v>
       </c>
       <c r="M10">
-        <v>0.978153683290284</v>
+        <v>1.046591007012336</v>
       </c>
       <c r="N10">
-        <v>0.9992254116549791</v>
+        <v>1.035703391420338</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9616212036436572</v>
+        <v>1.000639503746767</v>
       </c>
       <c r="D11">
-        <v>0.9877489998765596</v>
+        <v>1.023182416632733</v>
       </c>
       <c r="E11">
-        <v>0.9737968410129982</v>
+        <v>1.017267311542994</v>
       </c>
       <c r="F11">
-        <v>0.9572314470840397</v>
+        <v>1.028033073256047</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030401844419044</v>
+        <v>1.045844712915694</v>
       </c>
       <c r="J11">
-        <v>0.992682578214357</v>
+        <v>1.029985702793892</v>
       </c>
       <c r="K11">
-        <v>1.002905710290724</v>
+        <v>1.037679999938729</v>
       </c>
       <c r="L11">
-        <v>0.9892304266884498</v>
+        <v>1.031870776500822</v>
       </c>
       <c r="M11">
-        <v>0.9730076451737165</v>
+        <v>1.042445007050971</v>
       </c>
       <c r="N11">
-        <v>0.9967253985876826</v>
+        <v>1.03144840063287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9596972701135379</v>
+        <v>0.9985112460010143</v>
       </c>
       <c r="D12">
-        <v>0.9862969090959468</v>
+        <v>1.021523396070883</v>
       </c>
       <c r="E12">
-        <v>0.9721680037596928</v>
+        <v>1.015487847057923</v>
       </c>
       <c r="F12">
-        <v>0.9550175703188335</v>
+        <v>1.026236345721986</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029721530418594</v>
+        <v>1.04513296043153</v>
       </c>
       <c r="J12">
-        <v>0.9913109801261584</v>
+        <v>1.028378746485594</v>
       </c>
       <c r="K12">
-        <v>1.001691433300251</v>
+        <v>1.036249541211415</v>
       </c>
       <c r="L12">
-        <v>0.9878485781249553</v>
+        <v>1.030324220419608</v>
       </c>
       <c r="M12">
-        <v>0.971060466479951</v>
+        <v>1.040877588400621</v>
       </c>
       <c r="N12">
-        <v>0.9957791566088113</v>
+        <v>1.029839162262295</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9601115841561488</v>
+        <v>0.9989695276697974</v>
       </c>
       <c r="D13">
-        <v>0.9866095641096415</v>
+        <v>1.021880573646158</v>
       </c>
       <c r="E13">
-        <v>0.9725186926108943</v>
+        <v>1.015870937320473</v>
       </c>
       <c r="F13">
-        <v>0.9554943179994536</v>
+        <v>1.026623146604107</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029868146086593</v>
+        <v>1.045286300700131</v>
       </c>
       <c r="J13">
-        <v>0.9916063744169629</v>
+        <v>1.028724782224337</v>
       </c>
       <c r="K13">
-        <v>1.001952966785837</v>
+        <v>1.036557580142514</v>
       </c>
       <c r="L13">
-        <v>0.9881461569022009</v>
+        <v>1.030657228491241</v>
       </c>
       <c r="M13">
-        <v>0.9714798108882329</v>
+        <v>1.041215082460864</v>
       </c>
       <c r="N13">
-        <v>0.9959829497230869</v>
+        <v>1.030185689411477</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9614628980689258</v>
+        <v>1.00046437105345</v>
       </c>
       <c r="D14">
-        <v>0.9876294968540001</v>
+        <v>1.023045869361748</v>
       </c>
       <c r="E14">
-        <v>0.9736627822182852</v>
+        <v>1.017120842797332</v>
       </c>
       <c r="F14">
-        <v>0.9570492818774052</v>
+        <v>1.027885180984358</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030345917054002</v>
+        <v>1.045786178246788</v>
       </c>
       <c r="J14">
-        <v>0.9925697310677121</v>
+        <v>1.029853470865359</v>
       </c>
       <c r="K14">
-        <v>1.00280581594199</v>
+        <v>1.037562295826204</v>
       </c>
       <c r="L14">
-        <v>0.9891167258032308</v>
+        <v>1.031743505199132</v>
       </c>
       <c r="M14">
-        <v>0.9728474378407563</v>
+        <v>1.042316016144865</v>
       </c>
       <c r="N14">
-        <v>0.9966475498526702</v>
+        <v>1.031315980919832</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9622907863370626</v>
+        <v>1.001380289672141</v>
       </c>
       <c r="D15">
-        <v>0.9882545025765318</v>
+        <v>1.023760046318799</v>
       </c>
       <c r="E15">
-        <v>0.9743639357139341</v>
+        <v>1.017886928242787</v>
       </c>
       <c r="F15">
-        <v>0.958001954398039</v>
+        <v>1.028658717082114</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030638297964851</v>
+        <v>1.046092235524227</v>
       </c>
       <c r="J15">
-        <v>0.9931598634657641</v>
+        <v>1.030545017446984</v>
       </c>
       <c r="K15">
-        <v>1.00332819301189</v>
+        <v>1.038177855943615</v>
       </c>
       <c r="L15">
-        <v>0.9897113436590151</v>
+        <v>1.032409127657284</v>
       </c>
       <c r="M15">
-        <v>0.9736852503743457</v>
+        <v>1.042990637460643</v>
       </c>
       <c r="N15">
-        <v>0.9970546533271846</v>
+        <v>1.032008509576924</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9670399677829021</v>
+        <v>1.006635918394434</v>
       </c>
       <c r="D16">
-        <v>0.9918418294460568</v>
+        <v>1.027860614740681</v>
       </c>
       <c r="E16">
-        <v>0.9783893657390696</v>
+        <v>1.022286369529608</v>
       </c>
       <c r="F16">
-        <v>0.9634673473368147</v>
+        <v>1.033101182971606</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032310520164341</v>
+        <v>1.047844910433371</v>
       </c>
       <c r="J16">
-        <v>0.9965440009181913</v>
+        <v>1.034512753323073</v>
       </c>
       <c r="K16">
-        <v>1.006322845148886</v>
+        <v>1.041709164448946</v>
       </c>
       <c r="L16">
-        <v>0.993122223798777</v>
+        <v>1.036229035572797</v>
       </c>
       <c r="M16">
-        <v>0.9784903728359843</v>
+        <v>1.046862442456225</v>
       </c>
       <c r="N16">
-        <v>0.9993889349736315</v>
+        <v>1.035981880093063</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9699601770038311</v>
+        <v>1.009868821361248</v>
       </c>
       <c r="D17">
-        <v>0.9940492331807029</v>
+        <v>1.030385092163241</v>
       </c>
       <c r="E17">
-        <v>0.9808673119995417</v>
+        <v>1.02499559687853</v>
       </c>
       <c r="F17">
-        <v>0.9668284137688756</v>
+        <v>1.035837098163942</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033334272350672</v>
+        <v>1.048919876819891</v>
       </c>
       <c r="J17">
-        <v>0.9986237790441668</v>
+        <v>1.036952967488616</v>
       </c>
       <c r="K17">
-        <v>1.008162411645025</v>
+        <v>1.043880540267686</v>
       </c>
       <c r="L17">
-        <v>0.9952193342733499</v>
+        <v>1.038579111100866</v>
       </c>
       <c r="M17">
-        <v>0.9814441818095061</v>
+        <v>1.049244654398219</v>
       </c>
       <c r="N17">
-        <v>1.000823255358632</v>
+        <v>1.038425559642618</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9716431803560494</v>
+        <v>1.011732504693774</v>
       </c>
       <c r="D18">
-        <v>0.9953219522723842</v>
+        <v>1.031841082132545</v>
       </c>
       <c r="E18">
-        <v>0.9822963833866566</v>
+        <v>1.026558420350652</v>
       </c>
       <c r="F18">
-        <v>0.9687657131541131</v>
+        <v>1.037415380194294</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033922651895072</v>
+        <v>1.049538398476071</v>
       </c>
       <c r="J18">
-        <v>0.9998220006876994</v>
+        <v>1.038359483909557</v>
       </c>
       <c r="K18">
-        <v>1.009221926462734</v>
+        <v>1.045131935180305</v>
       </c>
       <c r="L18">
-        <v>0.9964278655861896</v>
+        <v>1.039933944436458</v>
       </c>
       <c r="M18">
-        <v>0.9831462885668271</v>
+        <v>1.050618084210705</v>
       </c>
       <c r="N18">
-        <v>1.001649513377205</v>
+        <v>1.039834073478206</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9722136777258505</v>
+        <v>1.012364327402297</v>
       </c>
       <c r="D19">
-        <v>0.9957534579859961</v>
+        <v>1.03233480218263</v>
       </c>
       <c r="E19">
-        <v>0.9827809630459163</v>
+        <v>1.02708841534385</v>
       </c>
       <c r="F19">
-        <v>0.9694224518768009</v>
+        <v>1.037950627866122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034121817551348</v>
+        <v>1.049747887593287</v>
       </c>
       <c r="J19">
-        <v>1.000228095761659</v>
+        <v>1.038836281082766</v>
       </c>
       <c r="K19">
-        <v>1.009580957664407</v>
+        <v>1.045556118358805</v>
       </c>
       <c r="L19">
-        <v>0.996837509835973</v>
+        <v>1.040393266909175</v>
       </c>
       <c r="M19">
-        <v>0.9837232195457689</v>
+        <v>1.051083722681441</v>
       </c>
       <c r="N19">
-        <v>1.001929527578391</v>
+        <v>1.040311547758091</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9696489859180101</v>
+        <v>1.00952425989042</v>
       </c>
       <c r="D20">
-        <v>0.9938139461273147</v>
+        <v>1.030115960922824</v>
       </c>
       <c r="E20">
-        <v>0.9806031502351479</v>
+        <v>1.02470674088283</v>
       </c>
       <c r="F20">
-        <v>0.9664702214020723</v>
+        <v>1.035545389993846</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033225346244963</v>
+        <v>1.048805428020435</v>
       </c>
       <c r="J20">
-        <v>0.998402190881083</v>
+        <v>1.036692910751942</v>
       </c>
       <c r="K20">
-        <v>1.007966449032604</v>
+        <v>1.043649150939846</v>
       </c>
       <c r="L20">
-        <v>0.9949958658069834</v>
+        <v>1.038328632122541</v>
       </c>
       <c r="M20">
-        <v>0.9811294378731484</v>
+        <v>1.048990742860413</v>
       </c>
       <c r="N20">
-        <v>1.000670446814369</v>
+        <v>1.038165133595549</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9610659547387206</v>
+        <v>1.000025246354942</v>
       </c>
       <c r="D21">
-        <v>0.9873298660128524</v>
+        <v>1.02270351485505</v>
       </c>
       <c r="E21">
-        <v>0.9733266636109449</v>
+        <v>1.016753619492555</v>
       </c>
       <c r="F21">
-        <v>0.9565925138601568</v>
+        <v>1.027514390678905</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030205641894732</v>
+        <v>1.045639381627868</v>
       </c>
       <c r="J21">
-        <v>0.9922867636267079</v>
+        <v>1.029521912066802</v>
       </c>
       <c r="K21">
-        <v>1.002555320577304</v>
+        <v>1.037267160649092</v>
       </c>
       <c r="L21">
-        <v>0.9888316258311084</v>
+        <v>1.031424392224584</v>
       </c>
       <c r="M21">
-        <v>0.9724457174096405</v>
+        <v>1.041992593691126</v>
       </c>
       <c r="N21">
-        <v>0.9964523398623661</v>
+        <v>1.030983951269751</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9554665103611046</v>
+        <v>0.9938325227433853</v>
       </c>
       <c r="D22">
-        <v>0.9831058190074579</v>
+        <v>1.017878875160455</v>
       </c>
       <c r="E22">
-        <v>0.968589369766212</v>
+        <v>1.011579465073065</v>
       </c>
       <c r="F22">
-        <v>0.9501493379985321</v>
+        <v>1.022290295302007</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028220986181399</v>
+        <v>1.043565149953954</v>
       </c>
       <c r="J22">
-        <v>0.9882938666873892</v>
+        <v>1.02484581974405</v>
       </c>
       <c r="K22">
-        <v>0.9990195500370818</v>
+        <v>1.033104278091752</v>
       </c>
       <c r="L22">
-        <v>0.9848098591873555</v>
+        <v>1.02692496850252</v>
       </c>
       <c r="M22">
-        <v>0.9667775415718363</v>
+        <v>1.037432743119929</v>
       </c>
       <c r="N22">
-        <v>0.9936974797585214</v>
+        <v>1.026301218359545</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9584551643191038</v>
+        <v>0.9971374333084317</v>
       </c>
       <c r="D23">
-        <v>0.9853597384693524</v>
+        <v>1.020452875448023</v>
       </c>
       <c r="E23">
-        <v>0.971116898302935</v>
+        <v>1.014339720117532</v>
       </c>
       <c r="F23">
-        <v>0.9535883010326849</v>
+        <v>1.025077117469805</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029281618725924</v>
+        <v>1.044673036812964</v>
       </c>
       <c r="J23">
-        <v>0.9904253171331435</v>
+        <v>1.027341399555404</v>
       </c>
       <c r="K23">
-        <v>1.000907226808448</v>
+        <v>1.035326071360139</v>
       </c>
       <c r="L23">
-        <v>0.9869564404627208</v>
+        <v>1.029325997783239</v>
       </c>
       <c r="M23">
-        <v>0.9698031975241732</v>
+        <v>1.039865939165137</v>
       </c>
       <c r="N23">
-        <v>0.9951681180497421</v>
+        <v>1.028800342180478</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9697896623132759</v>
+        <v>1.009680020186784</v>
       </c>
       <c r="D24">
-        <v>0.9939203078795867</v>
+        <v>1.030237620556742</v>
       </c>
       <c r="E24">
-        <v>0.9807225636885438</v>
+        <v>1.02483731613971</v>
       </c>
       <c r="F24">
-        <v>0.9666321444133946</v>
+        <v>1.035677254359322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033274592252263</v>
+        <v>1.048857168661812</v>
       </c>
       <c r="J24">
-        <v>0.9985023628647226</v>
+        <v>1.036810471006471</v>
       </c>
       <c r="K24">
-        <v>1.008055037609822</v>
+        <v>1.043753752432161</v>
       </c>
       <c r="L24">
-        <v>0.9950968868009071</v>
+        <v>1.038441861849411</v>
       </c>
       <c r="M24">
-        <v>0.9812717211675397</v>
+        <v>1.049105524070493</v>
       </c>
       <c r="N24">
-        <v>1.000739526323923</v>
+        <v>1.038282860799124</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821535598578798</v>
+        <v>1.023379545781612</v>
       </c>
       <c r="D25">
-        <v>1.003278024073277</v>
+        <v>1.040951008351906</v>
       </c>
       <c r="E25">
-        <v>0.9912368669158086</v>
+        <v>1.036341969316203</v>
       </c>
       <c r="F25">
-        <v>0.9808693046371446</v>
+        <v>1.047296671569848</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037567315661698</v>
+        <v>1.053382318731754</v>
       </c>
       <c r="J25">
-        <v>1.007296824922698</v>
+        <v>1.047144923191778</v>
       </c>
       <c r="K25">
-        <v>1.015825665181057</v>
+        <v>1.05294521397209</v>
       </c>
       <c r="L25">
-        <v>1.003972759718511</v>
+        <v>1.04840115194821</v>
       </c>
       <c r="M25">
-        <v>0.9937720418162204</v>
+        <v>1.059202597518728</v>
       </c>
       <c r="N25">
-        <v>1.006802064125889</v>
+        <v>1.048631989091912</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033713904025943</v>
+        <v>1.009127865968322</v>
       </c>
       <c r="D2">
-        <v>1.049048071670456</v>
+        <v>1.02854127413249</v>
       </c>
       <c r="E2">
-        <v>1.045046502356734</v>
+        <v>1.024455251982608</v>
       </c>
       <c r="F2">
-        <v>1.056089381905801</v>
+        <v>1.035979150739121</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056757025765599</v>
+        <v>1.047651911615849</v>
       </c>
       <c r="J2">
-        <v>1.054930961844029</v>
+        <v>1.031038950054015</v>
       </c>
       <c r="K2">
-        <v>1.059863900667762</v>
+        <v>1.039616803724136</v>
       </c>
       <c r="L2">
-        <v>1.055912010190217</v>
+        <v>1.035584083721051</v>
       </c>
       <c r="M2">
-        <v>1.066818930111705</v>
+        <v>1.046959001827247</v>
       </c>
       <c r="N2">
-        <v>1.05642908481212</v>
+        <v>1.013789526565158</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040915068722632</v>
+        <v>1.014345295527167</v>
       </c>
       <c r="D3">
-        <v>1.05469676158593</v>
+        <v>1.032345015338845</v>
       </c>
       <c r="E3">
-        <v>1.051124809641117</v>
+        <v>1.028727235224848</v>
       </c>
       <c r="F3">
-        <v>1.062229803937159</v>
+        <v>1.040326156548736</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059084787197391</v>
+        <v>1.048903927058574</v>
       </c>
       <c r="J3">
-        <v>1.060349256781298</v>
+        <v>1.034452388429364</v>
       </c>
       <c r="K3">
-        <v>1.064674538925582</v>
+        <v>1.042580109364577</v>
       </c>
       <c r="L3">
-        <v>1.061142802219558</v>
+        <v>1.039005280688968</v>
       </c>
       <c r="M3">
-        <v>1.07212385948383</v>
+        <v>1.050467801965839</v>
       </c>
       <c r="N3">
-        <v>1.061855074349687</v>
+        <v>1.014966741175619</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045446580603391</v>
+        <v>1.017648310799621</v>
       </c>
       <c r="D4">
-        <v>1.058253666899747</v>
+        <v>1.034755732044043</v>
       </c>
       <c r="E4">
-        <v>1.054955053203142</v>
+        <v>1.031437630328528</v>
       </c>
       <c r="F4">
-        <v>1.066099370739427</v>
+        <v>1.043083577233591</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060538180090005</v>
+        <v>1.049686158313648</v>
       </c>
       <c r="J4">
-        <v>1.06375511113386</v>
+        <v>1.036611096729594</v>
       </c>
       <c r="K4">
-        <v>1.067696404866982</v>
+        <v>1.044452029490733</v>
       </c>
       <c r="L4">
-        <v>1.064432551644652</v>
+        <v>1.041170877727976</v>
       </c>
       <c r="M4">
-        <v>1.075460485971844</v>
+        <v>1.052688407762221</v>
       </c>
       <c r="N4">
-        <v>1.065265765406087</v>
+        <v>1.015710615514049</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047322561547007</v>
+        <v>1.01902011356356</v>
       </c>
       <c r="D5">
-        <v>1.059726638834925</v>
+        <v>1.035757516044186</v>
       </c>
       <c r="E5">
-        <v>1.056541910727244</v>
+        <v>1.032564667890914</v>
       </c>
       <c r="F5">
-        <v>1.067702553940717</v>
+        <v>1.044230023356208</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061137068790691</v>
+        <v>1.050008494545262</v>
       </c>
       <c r="J5">
-        <v>1.065164127795992</v>
+        <v>1.037507063846305</v>
       </c>
       <c r="K5">
-        <v>1.068946057532853</v>
+        <v>1.045228439343712</v>
       </c>
       <c r="L5">
-        <v>1.065793944491324</v>
+        <v>1.042070174153421</v>
       </c>
       <c r="M5">
-        <v>1.076841329157939</v>
+        <v>1.053610432135104</v>
       </c>
       <c r="N5">
-        <v>1.066676783033495</v>
+        <v>1.016019204481471</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04763588694308</v>
+        <v>1.019249480475045</v>
       </c>
       <c r="D6">
-        <v>1.059972678533406</v>
+        <v>1.035925046855296</v>
       </c>
       <c r="E6">
-        <v>1.056807014600304</v>
+        <v>1.032753188134401</v>
       </c>
       <c r="F6">
-        <v>1.067970386965497</v>
+        <v>1.044421781290839</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061236928883704</v>
+        <v>1.050062238930911</v>
       </c>
       <c r="J6">
-        <v>1.065399403016775</v>
+        <v>1.037656834924154</v>
       </c>
       <c r="K6">
-        <v>1.069154692067138</v>
+        <v>1.04535819358825</v>
       </c>
       <c r="L6">
-        <v>1.066021291303391</v>
+        <v>1.042220529255488</v>
       </c>
       <c r="M6">
-        <v>1.07707192686134</v>
+        <v>1.053764580139205</v>
       </c>
       <c r="N6">
-        <v>1.066912392372079</v>
+        <v>1.01607077934243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045471759731423</v>
+        <v>1.017666705957713</v>
       </c>
       <c r="D7">
-        <v>1.058273435186704</v>
+        <v>1.034769163287022</v>
       </c>
       <c r="E7">
-        <v>1.054976347154205</v>
+        <v>1.031452738011904</v>
       </c>
       <c r="F7">
-        <v>1.066120883640578</v>
+        <v>1.043098945669956</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060546229414243</v>
+        <v>1.049690490765989</v>
       </c>
       <c r="J7">
-        <v>1.063774026606869</v>
+        <v>1.036623113545454</v>
       </c>
       <c r="K7">
-        <v>1.067713182973496</v>
+        <v>1.044462444895294</v>
       </c>
       <c r="L7">
-        <v>1.064450826183064</v>
+        <v>1.04118293734553</v>
       </c>
       <c r="M7">
-        <v>1.075479021408658</v>
+        <v>1.052700772629763</v>
       </c>
       <c r="N7">
-        <v>1.065284707741238</v>
+        <v>1.015714754965305</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036175107430039</v>
+        <v>1.010906668387012</v>
       </c>
       <c r="D8">
-        <v>1.050978122397683</v>
+        <v>1.029837496299516</v>
       </c>
       <c r="E8">
-        <v>1.047122762949872</v>
+        <v>1.025910440397513</v>
       </c>
       <c r="F8">
-        <v>1.058186815761896</v>
+        <v>1.037460009516359</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057554972538023</v>
+        <v>1.048080917909237</v>
       </c>
       <c r="J8">
-        <v>1.056783569130533</v>
+        <v>1.032203153511309</v>
       </c>
       <c r="K8">
-        <v>1.061509153983322</v>
+        <v>1.040627916165282</v>
       </c>
       <c r="L8">
-        <v>1.057700128839933</v>
+        <v>1.036750513604771</v>
       </c>
       <c r="M8">
-        <v>1.068632333747699</v>
+        <v>1.048155386895739</v>
       </c>
       <c r="N8">
-        <v>1.058284323013468</v>
+        <v>1.014191157301865</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018732623782673</v>
+        <v>0.9984021572210445</v>
       </c>
       <c r="D9">
-        <v>1.037314203562253</v>
+        <v>1.020739859843117</v>
       </c>
       <c r="E9">
-        <v>1.032435111824693</v>
+        <v>1.015708602832136</v>
       </c>
       <c r="F9">
-        <v>1.043350592080033</v>
+        <v>1.027076129644909</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051853370927752</v>
+        <v>1.045022904480761</v>
       </c>
       <c r="J9">
-        <v>1.043640795014632</v>
+        <v>1.024011465883231</v>
       </c>
       <c r="K9">
-        <v>1.049829563011882</v>
+        <v>1.033505176218957</v>
       </c>
       <c r="L9">
-        <v>1.045022992169951</v>
+        <v>1.028551858276738</v>
       </c>
       <c r="M9">
-        <v>1.055777419717277</v>
+        <v>1.039744675377557</v>
       </c>
       <c r="N9">
-        <v>1.045122884650825</v>
+        <v>1.011362851984799</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006267520963074</v>
+        <v>0.9896174153124112</v>
       </c>
       <c r="D10">
-        <v>1.027573043346112</v>
+        <v>1.014370602105742</v>
       </c>
       <c r="E10">
-        <v>1.021977790222514</v>
+        <v>1.008579941889966</v>
       </c>
       <c r="F10">
-        <v>1.032789573047343</v>
+        <v>1.019818043161156</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04772225774385</v>
+        <v>1.042823109382354</v>
       </c>
       <c r="J10">
-        <v>1.034234659575368</v>
+        <v>1.018249110674693</v>
       </c>
       <c r="K10">
-        <v>1.04146168642384</v>
+        <v>1.028485149566727</v>
       </c>
       <c r="L10">
-        <v>1.035961252058656</v>
+        <v>1.022795991773451</v>
       </c>
       <c r="M10">
-        <v>1.046591007012336</v>
+        <v>1.033838464405966</v>
       </c>
       <c r="N10">
-        <v>1.035703391420338</v>
+        <v>1.009370711016575</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000639503746767</v>
+        <v>0.9856948620969349</v>
       </c>
       <c r="D11">
-        <v>1.023182416632733</v>
+        <v>1.011533104709593</v>
       </c>
       <c r="E11">
-        <v>1.017267311542994</v>
+        <v>1.005407037298951</v>
       </c>
       <c r="F11">
-        <v>1.028033073256047</v>
+        <v>1.016587149234287</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045844712915694</v>
+        <v>1.041829407039136</v>
       </c>
       <c r="J11">
-        <v>1.029985702793892</v>
+        <v>1.015675102894559</v>
       </c>
       <c r="K11">
-        <v>1.037679999938729</v>
+        <v>1.026240752434353</v>
       </c>
       <c r="L11">
-        <v>1.031870776500822</v>
+        <v>1.020227700151316</v>
       </c>
       <c r="M11">
-        <v>1.042445007050971</v>
+        <v>1.031202891941229</v>
       </c>
       <c r="N11">
-        <v>1.03144840063287</v>
+        <v>1.008480330187133</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9985112460010143</v>
+        <v>0.9842188695531094</v>
       </c>
       <c r="D12">
-        <v>1.021523396070883</v>
+        <v>1.010466491439041</v>
       </c>
       <c r="E12">
-        <v>1.015487847057923</v>
+        <v>1.004214751698639</v>
       </c>
       <c r="F12">
-        <v>1.026236345721986</v>
+        <v>1.015373028553175</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04513296043153</v>
+        <v>1.041453840753653</v>
       </c>
       <c r="J12">
-        <v>1.028378746485594</v>
+        <v>1.014706464280322</v>
       </c>
       <c r="K12">
-        <v>1.036249541211415</v>
+        <v>1.025395880081407</v>
       </c>
       <c r="L12">
-        <v>1.030324220419608</v>
+        <v>1.019261646753599</v>
       </c>
       <c r="M12">
-        <v>1.040877588400621</v>
+        <v>1.03021151541426</v>
       </c>
       <c r="N12">
-        <v>1.029839162262295</v>
+        <v>1.008145200416788</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9989695276697974</v>
+        <v>0.9845363533916923</v>
       </c>
       <c r="D13">
-        <v>1.021880573646158</v>
+        <v>1.010695867219333</v>
       </c>
       <c r="E13">
-        <v>1.015870937320473</v>
+        <v>1.004471135486658</v>
       </c>
       <c r="F13">
-        <v>1.026623146604107</v>
+        <v>1.01563410944263</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045286300700131</v>
+        <v>1.041534698019381</v>
       </c>
       <c r="J13">
-        <v>1.028724782224337</v>
+        <v>1.014914819553854</v>
       </c>
       <c r="K13">
-        <v>1.036557580142514</v>
+        <v>1.025577624903304</v>
       </c>
       <c r="L13">
-        <v>1.030657228491241</v>
+        <v>1.019469426149842</v>
       </c>
       <c r="M13">
-        <v>1.041215082460864</v>
+        <v>1.030424741803196</v>
       </c>
       <c r="N13">
-        <v>1.030185689411477</v>
+        <v>1.008217290023153</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00046437105345</v>
+        <v>0.9855732502843283</v>
       </c>
       <c r="D14">
-        <v>1.023045869361748</v>
+        <v>1.011445200142109</v>
       </c>
       <c r="E14">
-        <v>1.017120842797332</v>
+        <v>1.005308767393352</v>
       </c>
       <c r="F14">
-        <v>1.027885180984358</v>
+        <v>1.01648708047223</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045786178246788</v>
+        <v>1.041798496080179</v>
       </c>
       <c r="J14">
-        <v>1.029853470865359</v>
+        <v>1.015595294859803</v>
       </c>
       <c r="K14">
-        <v>1.037562295826204</v>
+        <v>1.026171147098049</v>
       </c>
       <c r="L14">
-        <v>1.031743505199132</v>
+        <v>1.020148096231809</v>
       </c>
       <c r="M14">
-        <v>1.042316016144865</v>
+        <v>1.031121201602593</v>
       </c>
       <c r="N14">
-        <v>1.031315980919832</v>
+        <v>1.008452719466795</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001380289672141</v>
+        <v>0.9862095655021</v>
       </c>
       <c r="D15">
-        <v>1.023760046318799</v>
+        <v>1.011905192479617</v>
       </c>
       <c r="E15">
-        <v>1.017886928242787</v>
+        <v>1.005823016507277</v>
       </c>
       <c r="F15">
-        <v>1.028658717082114</v>
+        <v>1.017010741323699</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046092235524227</v>
+        <v>1.041960166045537</v>
       </c>
       <c r="J15">
-        <v>1.030545017446984</v>
+        <v>1.016012875300266</v>
       </c>
       <c r="K15">
-        <v>1.038177855943615</v>
+        <v>1.026535332959416</v>
       </c>
       <c r="L15">
-        <v>1.032409127657284</v>
+        <v>1.020564626430743</v>
       </c>
       <c r="M15">
-        <v>1.042990637460643</v>
+        <v>1.031548648505312</v>
       </c>
       <c r="N15">
-        <v>1.032008509576924</v>
+        <v>1.008597184715435</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006635918394434</v>
+        <v>0.9898751454596357</v>
       </c>
       <c r="D16">
-        <v>1.027860614740681</v>
+        <v>1.01455718369192</v>
       </c>
       <c r="E16">
-        <v>1.022286369529608</v>
+        <v>1.008788636473553</v>
       </c>
       <c r="F16">
-        <v>1.033101182971606</v>
+        <v>1.020030545044386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047844910433371</v>
+        <v>1.042888167632865</v>
       </c>
       <c r="J16">
-        <v>1.034512753323073</v>
+        <v>1.0184182198828</v>
       </c>
       <c r="K16">
-        <v>1.041709164448946</v>
+        <v>1.028632564707775</v>
       </c>
       <c r="L16">
-        <v>1.036229035572797</v>
+        <v>1.022964784959968</v>
       </c>
       <c r="M16">
-        <v>1.046862442456225</v>
+        <v>1.034011676479358</v>
       </c>
       <c r="N16">
-        <v>1.035981880093063</v>
+        <v>1.009429198304368</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009868821361248</v>
+        <v>0.9921419054213306</v>
       </c>
       <c r="D17">
-        <v>1.030385092163241</v>
+        <v>1.016198937217661</v>
       </c>
       <c r="E17">
-        <v>1.02499559687853</v>
+        <v>1.010625292135416</v>
       </c>
       <c r="F17">
-        <v>1.035837098163942</v>
+        <v>1.021900665443995</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048919876819891</v>
+        <v>1.04345906711719</v>
       </c>
       <c r="J17">
-        <v>1.036952967488616</v>
+        <v>1.019905444224815</v>
       </c>
       <c r="K17">
-        <v>1.043880540267686</v>
+        <v>1.029928779197665</v>
       </c>
       <c r="L17">
-        <v>1.038579111100866</v>
+        <v>1.02444955148407</v>
       </c>
       <c r="M17">
-        <v>1.049244654398219</v>
+        <v>1.035535292397562</v>
       </c>
       <c r="N17">
-        <v>1.038425559642618</v>
+        <v>1.009943506378718</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011732504693774</v>
+        <v>0.9934526974634447</v>
       </c>
       <c r="D18">
-        <v>1.031841082132545</v>
+        <v>1.017148916311233</v>
       </c>
       <c r="E18">
-        <v>1.026558420350652</v>
+        <v>1.011688326475525</v>
       </c>
       <c r="F18">
-        <v>1.037415380194294</v>
+        <v>1.022983031494231</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049538398476071</v>
+        <v>1.04378810984842</v>
       </c>
       <c r="J18">
-        <v>1.038359483909557</v>
+        <v>1.020765356490386</v>
       </c>
       <c r="K18">
-        <v>1.045131935180305</v>
+        <v>1.030678060072407</v>
       </c>
       <c r="L18">
-        <v>1.039933944436458</v>
+        <v>1.025308308744256</v>
       </c>
       <c r="M18">
-        <v>1.050618084210705</v>
+        <v>1.03641649974338</v>
       </c>
       <c r="N18">
-        <v>1.039834073478206</v>
+        <v>1.010240830612874</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012364327402297</v>
+        <v>0.9938977483615382</v>
       </c>
       <c r="D19">
-        <v>1.03233480218263</v>
+        <v>1.017471560785172</v>
       </c>
       <c r="E19">
-        <v>1.02708841534385</v>
+        <v>1.012049416231754</v>
       </c>
       <c r="F19">
-        <v>1.037950627866122</v>
+        <v>1.0233506811113</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049747887593287</v>
+        <v>1.043899642364549</v>
       </c>
       <c r="J19">
-        <v>1.038836281082766</v>
+        <v>1.021057301972537</v>
       </c>
       <c r="K19">
-        <v>1.045556118358805</v>
+        <v>1.030932412587187</v>
       </c>
       <c r="L19">
-        <v>1.040393266909175</v>
+        <v>1.025599906925929</v>
       </c>
       <c r="M19">
-        <v>1.051083722681441</v>
+        <v>1.036715717319878</v>
       </c>
       <c r="N19">
-        <v>1.040311547758091</v>
+        <v>1.010341765512476</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00952425989042</v>
+        <v>0.991899887653056</v>
       </c>
       <c r="D20">
-        <v>1.030115960922824</v>
+        <v>1.016023586389867</v>
       </c>
       <c r="E20">
-        <v>1.02470674088283</v>
+        <v>1.010429095783161</v>
       </c>
       <c r="F20">
-        <v>1.035545389993846</v>
+        <v>1.021700898077581</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048805428020435</v>
+        <v>1.043398225828456</v>
       </c>
       <c r="J20">
-        <v>1.036692910751942</v>
+        <v>1.019746665949637</v>
       </c>
       <c r="K20">
-        <v>1.043649150939846</v>
+        <v>1.029790412910355</v>
       </c>
       <c r="L20">
-        <v>1.038328632122541</v>
+        <v>1.024291007917784</v>
       </c>
       <c r="M20">
-        <v>1.048990742860413</v>
+        <v>1.035372602423413</v>
       </c>
       <c r="N20">
-        <v>1.038165133595549</v>
+        <v>1.009888603040294</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000025246354942</v>
+        <v>0.9852684436725808</v>
       </c>
       <c r="D21">
-        <v>1.02270351485505</v>
+        <v>1.011224894990676</v>
       </c>
       <c r="E21">
-        <v>1.016753619492555</v>
+        <v>1.005062491234456</v>
       </c>
       <c r="F21">
-        <v>1.027514390678905</v>
+        <v>1.016236295495326</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045639381627868</v>
+        <v>1.041720994796314</v>
       </c>
       <c r="J21">
-        <v>1.029521912066802</v>
+        <v>1.01539526374225</v>
       </c>
       <c r="K21">
-        <v>1.037267160649092</v>
+        <v>1.025996683781417</v>
       </c>
       <c r="L21">
-        <v>1.031424392224584</v>
+        <v>1.019948583738897</v>
       </c>
       <c r="M21">
-        <v>1.041992593691126</v>
+        <v>1.030916459682166</v>
       </c>
       <c r="N21">
-        <v>1.030983951269751</v>
+        <v>1.00838351484232</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9938325227433853</v>
+        <v>0.9809885305915932</v>
       </c>
       <c r="D22">
-        <v>1.017878875160455</v>
+        <v>1.008134253925166</v>
       </c>
       <c r="E22">
-        <v>1.011579465073065</v>
+        <v>1.001608435825954</v>
       </c>
       <c r="F22">
-        <v>1.022290295302007</v>
+        <v>1.012718915375249</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043565149953954</v>
+        <v>1.040628919511344</v>
       </c>
       <c r="J22">
-        <v>1.02484581974405</v>
+        <v>1.012586444341031</v>
       </c>
       <c r="K22">
-        <v>1.033104278091752</v>
+        <v>1.0235462737749</v>
       </c>
       <c r="L22">
-        <v>1.02692496850252</v>
+        <v>1.017148096487186</v>
       </c>
       <c r="M22">
-        <v>1.037432743119929</v>
+        <v>1.028042549889528</v>
       </c>
       <c r="N22">
-        <v>1.026301218359545</v>
+        <v>1.007411605702477</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9971374333084317</v>
+        <v>0.9832682724611301</v>
       </c>
       <c r="D23">
-        <v>1.020452875448023</v>
+        <v>1.009779872895074</v>
       </c>
       <c r="E23">
-        <v>1.014339720117532</v>
+        <v>1.003447344070995</v>
       </c>
       <c r="F23">
-        <v>1.025077117469805</v>
+        <v>1.014591556132686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044673036812964</v>
+        <v>1.041211504543916</v>
       </c>
       <c r="J23">
-        <v>1.027341399555404</v>
+        <v>1.014082609096166</v>
       </c>
       <c r="K23">
-        <v>1.035326071360139</v>
+        <v>1.024851663999122</v>
       </c>
       <c r="L23">
-        <v>1.029325997783239</v>
+        <v>1.018639580360702</v>
       </c>
       <c r="M23">
-        <v>1.039865939165137</v>
+        <v>1.0295731401964</v>
       </c>
       <c r="N23">
-        <v>1.028800342180478</v>
+        <v>1.00792934160845</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009680020186784</v>
+        <v>0.992009280119471</v>
       </c>
       <c r="D24">
-        <v>1.030237620556742</v>
+        <v>1.016102843403646</v>
       </c>
       <c r="E24">
-        <v>1.02483731613971</v>
+        <v>1.010517773925238</v>
       </c>
       <c r="F24">
-        <v>1.035677254359322</v>
+        <v>1.021791190387141</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048857168661812</v>
+        <v>1.043425729584579</v>
       </c>
       <c r="J24">
-        <v>1.036810471006471</v>
+        <v>1.019818434331524</v>
       </c>
       <c r="K24">
-        <v>1.043753752432161</v>
+        <v>1.029852955586493</v>
       </c>
       <c r="L24">
-        <v>1.038441861849411</v>
+        <v>1.024362669385797</v>
       </c>
       <c r="M24">
-        <v>1.049105524070493</v>
+        <v>1.035446138123669</v>
       </c>
       <c r="N24">
-        <v>1.038282860799124</v>
+        <v>1.009913419708128</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023379545781612</v>
+        <v>1.001710009794233</v>
       </c>
       <c r="D25">
-        <v>1.040951008351906</v>
+        <v>1.023143080541136</v>
       </c>
       <c r="E25">
-        <v>1.036341969316203</v>
+        <v>1.018401051892433</v>
       </c>
       <c r="F25">
-        <v>1.047296671569848</v>
+        <v>1.029817050648773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053382318731754</v>
+        <v>1.045840937047113</v>
       </c>
       <c r="J25">
-        <v>1.047144923191778</v>
+        <v>1.026179962014598</v>
       </c>
       <c r="K25">
-        <v>1.05294521397209</v>
+        <v>1.035392447098946</v>
       </c>
       <c r="L25">
-        <v>1.04840115194821</v>
+        <v>1.030720276322905</v>
       </c>
       <c r="M25">
-        <v>1.059202597518728</v>
+        <v>1.041969479531359</v>
       </c>
       <c r="N25">
-        <v>1.048631989091912</v>
+        <v>1.012112041134377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009127865968322</v>
+        <v>1.04469381780243</v>
       </c>
       <c r="D2">
-        <v>1.02854127413249</v>
+        <v>1.049562856752148</v>
       </c>
       <c r="E2">
-        <v>1.024455251982608</v>
+        <v>1.052251187142056</v>
       </c>
       <c r="F2">
-        <v>1.035979150739121</v>
+        <v>1.062399403692952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047651911615849</v>
+        <v>1.03921230573419</v>
       </c>
       <c r="J2">
-        <v>1.031038950054015</v>
+        <v>1.049757533922906</v>
       </c>
       <c r="K2">
-        <v>1.039616803724136</v>
+        <v>1.052319567876396</v>
       </c>
       <c r="L2">
-        <v>1.035584083721051</v>
+        <v>1.055000436907291</v>
       </c>
       <c r="M2">
-        <v>1.046959001827247</v>
+        <v>1.065120855938856</v>
       </c>
       <c r="N2">
-        <v>1.013789526565158</v>
+        <v>1.020395518248822</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014345295527167</v>
+        <v>1.045800209629632</v>
       </c>
       <c r="D3">
-        <v>1.032345015338845</v>
+        <v>1.050386816192824</v>
       </c>
       <c r="E3">
-        <v>1.028727235224848</v>
+        <v>1.053204524965673</v>
       </c>
       <c r="F3">
-        <v>1.040326156548736</v>
+        <v>1.063365350029963</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048903927058574</v>
+        <v>1.039412402655908</v>
       </c>
       <c r="J3">
-        <v>1.034452388429364</v>
+        <v>1.050510509046007</v>
       </c>
       <c r="K3">
-        <v>1.042580109364577</v>
+        <v>1.052955768235653</v>
       </c>
       <c r="L3">
-        <v>1.039005280688968</v>
+        <v>1.055766222328775</v>
       </c>
       <c r="M3">
-        <v>1.050467801965839</v>
+        <v>1.065901230677546</v>
       </c>
       <c r="N3">
-        <v>1.014966741175619</v>
+        <v>1.020651041769713</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017648310799621</v>
+        <v>1.04651645562775</v>
       </c>
       <c r="D4">
-        <v>1.034755732044043</v>
+        <v>1.050920084672396</v>
       </c>
       <c r="E4">
-        <v>1.031437630328528</v>
+        <v>1.053821986471795</v>
       </c>
       <c r="F4">
-        <v>1.043083577233591</v>
+        <v>1.063990876322227</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049686158313648</v>
+        <v>1.039540602570949</v>
       </c>
       <c r="J4">
-        <v>1.036611096729594</v>
+        <v>1.050997506761563</v>
       </c>
       <c r="K4">
-        <v>1.044452029490733</v>
+        <v>1.053366894470144</v>
       </c>
       <c r="L4">
-        <v>1.041170877727976</v>
+        <v>1.05626170122833</v>
       </c>
       <c r="M4">
-        <v>1.052688407762221</v>
+        <v>1.066406056649275</v>
       </c>
       <c r="N4">
-        <v>1.015710615514049</v>
+        <v>1.020816169151875</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01902011356356</v>
+        <v>1.046817646135292</v>
       </c>
       <c r="D5">
-        <v>1.035757516044186</v>
+        <v>1.05114429675048</v>
       </c>
       <c r="E5">
-        <v>1.032564667890914</v>
+        <v>1.054081707525044</v>
       </c>
       <c r="F5">
-        <v>1.044230023356208</v>
+        <v>1.064253965265301</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050008494545262</v>
+        <v>1.039594192005898</v>
       </c>
       <c r="J5">
-        <v>1.037507063846305</v>
+        <v>1.051202185798443</v>
       </c>
       <c r="K5">
-        <v>1.045228439343712</v>
+        <v>1.05353960268353</v>
       </c>
       <c r="L5">
-        <v>1.042070174153421</v>
+        <v>1.056469991630204</v>
       </c>
       <c r="M5">
-        <v>1.053610432135104</v>
+        <v>1.066618254140741</v>
       </c>
       <c r="N5">
-        <v>1.016019204481471</v>
+        <v>1.020885537402421</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019249480475045</v>
+        <v>1.046868222082421</v>
       </c>
       <c r="D6">
-        <v>1.035925046855296</v>
+        <v>1.05118194444942</v>
       </c>
       <c r="E6">
-        <v>1.032753188134401</v>
+        <v>1.05412532403949</v>
       </c>
       <c r="F6">
-        <v>1.044421781290839</v>
+        <v>1.06429814593827</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050062238930911</v>
+        <v>1.039603171966596</v>
       </c>
       <c r="J6">
-        <v>1.037656834924154</v>
+        <v>1.051236549086177</v>
       </c>
       <c r="K6">
-        <v>1.04535819358825</v>
+        <v>1.05356859355921</v>
       </c>
       <c r="L6">
-        <v>1.042220529255488</v>
+        <v>1.056504963969086</v>
       </c>
       <c r="M6">
-        <v>1.053764580139205</v>
+        <v>1.06665388117928</v>
       </c>
       <c r="N6">
-        <v>1.01607077934243</v>
+        <v>1.020897181622592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017666705957713</v>
+        <v>1.04652047983282</v>
       </c>
       <c r="D7">
-        <v>1.034769163287022</v>
+        <v>1.050923080503854</v>
       </c>
       <c r="E7">
-        <v>1.031452738011904</v>
+        <v>1.053825456326908</v>
       </c>
       <c r="F7">
-        <v>1.043098945669956</v>
+        <v>1.063994391267965</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049690490765989</v>
+        <v>1.039541319837584</v>
       </c>
       <c r="J7">
-        <v>1.036623113545454</v>
+        <v>1.051000241908619</v>
       </c>
       <c r="K7">
-        <v>1.044462444895294</v>
+        <v>1.053369202714221</v>
       </c>
       <c r="L7">
-        <v>1.04118293734553</v>
+        <v>1.056264484450496</v>
       </c>
       <c r="M7">
-        <v>1.052700772629763</v>
+        <v>1.066408892166395</v>
       </c>
       <c r="N7">
-        <v>1.015714754965305</v>
+        <v>1.02081709625567</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010906668387012</v>
+        <v>1.045067658502485</v>
       </c>
       <c r="D8">
-        <v>1.029837496299516</v>
+        <v>1.049841294161217</v>
       </c>
       <c r="E8">
-        <v>1.025910440397513</v>
+        <v>1.052573249988216</v>
       </c>
       <c r="F8">
-        <v>1.037460009516359</v>
+        <v>1.062725747000645</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048080917909237</v>
+        <v>1.039280193490786</v>
       </c>
       <c r="J8">
-        <v>1.032203153511309</v>
+        <v>1.050012052306338</v>
       </c>
       <c r="K8">
-        <v>1.040627916165282</v>
+        <v>1.05253468586671</v>
       </c>
       <c r="L8">
-        <v>1.036750513604771</v>
+        <v>1.055259244759628</v>
       </c>
       <c r="M8">
-        <v>1.048155386895739</v>
+        <v>1.065384613549547</v>
       </c>
       <c r="N8">
-        <v>1.014191157301865</v>
+        <v>1.020481917685066</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9984021572210445</v>
+        <v>1.04251017276005</v>
       </c>
       <c r="D9">
-        <v>1.020739859843117</v>
+        <v>1.047935934566321</v>
       </c>
       <c r="E9">
-        <v>1.015708602832136</v>
+        <v>1.050371232420074</v>
       </c>
       <c r="F9">
-        <v>1.027076129644909</v>
+        <v>1.060494049934384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045022904480761</v>
+        <v>1.038810294296219</v>
       </c>
       <c r="J9">
-        <v>1.024011465883231</v>
+        <v>1.048269007554874</v>
       </c>
       <c r="K9">
-        <v>1.033505176218957</v>
+        <v>1.051060061170726</v>
       </c>
       <c r="L9">
-        <v>1.028551858276738</v>
+        <v>1.053487631222916</v>
       </c>
       <c r="M9">
-        <v>1.039744675377557</v>
+        <v>1.063578742084334</v>
       </c>
       <c r="N9">
-        <v>1.011362851984799</v>
+        <v>1.019889664695349</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9896174153124112</v>
+        <v>1.040806899423646</v>
       </c>
       <c r="D10">
-        <v>1.014370602105742</v>
+        <v>1.046666331009071</v>
       </c>
       <c r="E10">
-        <v>1.008579941889966</v>
+        <v>1.048906298337511</v>
       </c>
       <c r="F10">
-        <v>1.019818043161156</v>
+        <v>1.059008855527734</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042823109382354</v>
+        <v>1.038490481740278</v>
       </c>
       <c r="J10">
-        <v>1.018249110674693</v>
+        <v>1.047105832874099</v>
       </c>
       <c r="K10">
-        <v>1.028485149566727</v>
+        <v>1.050074247959006</v>
       </c>
       <c r="L10">
-        <v>1.022795991773451</v>
+        <v>1.052306409247846</v>
       </c>
       <c r="M10">
-        <v>1.033838464405966</v>
+        <v>1.062374211397703</v>
       </c>
       <c r="N10">
-        <v>1.009370711016575</v>
+        <v>1.019493747974368</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9856948620969349</v>
+        <v>1.040069767083497</v>
       </c>
       <c r="D11">
-        <v>1.011533104709593</v>
+        <v>1.046116737487392</v>
       </c>
       <c r="E11">
-        <v>1.005407037298951</v>
+        <v>1.048272701750249</v>
       </c>
       <c r="F11">
-        <v>1.016587149234287</v>
+        <v>1.058366374824787</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041829407039136</v>
+        <v>1.038350449860575</v>
       </c>
       <c r="J11">
-        <v>1.015675102894559</v>
+        <v>1.04660189683479</v>
       </c>
       <c r="K11">
-        <v>1.026240752434353</v>
+        <v>1.049646737380931</v>
       </c>
       <c r="L11">
-        <v>1.020227700151316</v>
+        <v>1.051794896775536</v>
       </c>
       <c r="M11">
-        <v>1.031202891941229</v>
+        <v>1.06185249588353</v>
       </c>
       <c r="N11">
-        <v>1.008480330187133</v>
+        <v>1.019322057379927</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9842188695531094</v>
+        <v>1.039796022437109</v>
       </c>
       <c r="D12">
-        <v>1.010466491439041</v>
+        <v>1.045912617570161</v>
       </c>
       <c r="E12">
-        <v>1.004214751698639</v>
+        <v>1.048037465785076</v>
       </c>
       <c r="F12">
-        <v>1.015373028553175</v>
+        <v>1.058127822288544</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041453840753653</v>
+        <v>1.038298202987858</v>
       </c>
       <c r="J12">
-        <v>1.014706464280322</v>
+        <v>1.046414671584177</v>
       </c>
       <c r="K12">
-        <v>1.025395880081407</v>
+        <v>1.049487844047309</v>
       </c>
       <c r="L12">
-        <v>1.019261646753599</v>
+        <v>1.051604893202395</v>
       </c>
       <c r="M12">
-        <v>1.03021151541426</v>
+        <v>1.061658685999501</v>
       </c>
       <c r="N12">
-        <v>1.008145200416788</v>
+        <v>1.019258245530246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9845363533916923</v>
+        <v>1.039854738923942</v>
       </c>
       <c r="D13">
-        <v>1.010695867219333</v>
+        <v>1.045956400908765</v>
       </c>
       <c r="E13">
-        <v>1.004471135486658</v>
+        <v>1.048087919712934</v>
       </c>
       <c r="F13">
-        <v>1.01563410944263</v>
+        <v>1.058178988382398</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041534698019381</v>
+        <v>1.038309420650574</v>
       </c>
       <c r="J13">
-        <v>1.014914819553854</v>
+        <v>1.046454833887339</v>
       </c>
       <c r="K13">
-        <v>1.025577624903304</v>
+        <v>1.049521931585059</v>
       </c>
       <c r="L13">
-        <v>1.019469426149842</v>
+        <v>1.0516456498386</v>
       </c>
       <c r="M13">
-        <v>1.030424741803196</v>
+        <v>1.061700259844773</v>
       </c>
       <c r="N13">
-        <v>1.008217290023153</v>
+        <v>1.019271935120215</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9855732502843283</v>
+        <v>1.040047138061823</v>
       </c>
       <c r="D14">
-        <v>1.011445200142109</v>
+        <v>1.04609986438688</v>
       </c>
       <c r="E14">
-        <v>1.005308767393352</v>
+        <v>1.048253254825252</v>
       </c>
       <c r="F14">
-        <v>1.01648708047223</v>
+        <v>1.058346654089348</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041798496080179</v>
+        <v>1.038346135865545</v>
       </c>
       <c r="J14">
-        <v>1.015595294859803</v>
+        <v>1.046586421571989</v>
       </c>
       <c r="K14">
-        <v>1.026171147098049</v>
+        <v>1.049633605182629</v>
       </c>
       <c r="L14">
-        <v>1.020148096231809</v>
+        <v>1.051779191122642</v>
       </c>
       <c r="M14">
-        <v>1.031121201602593</v>
+        <v>1.061836475934656</v>
       </c>
       <c r="N14">
-        <v>1.008452719466795</v>
+        <v>1.019316783453348</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9862095655021</v>
+        <v>1.040165689343266</v>
       </c>
       <c r="D15">
-        <v>1.011905192479617</v>
+        <v>1.04618826011328</v>
       </c>
       <c r="E15">
-        <v>1.005823016507277</v>
+        <v>1.048355137835566</v>
       </c>
       <c r="F15">
-        <v>1.017010741323699</v>
+        <v>1.058449970857307</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041960166045537</v>
+        <v>1.038368726479673</v>
       </c>
       <c r="J15">
-        <v>1.016012875300266</v>
+        <v>1.046667491663518</v>
       </c>
       <c r="K15">
-        <v>1.026535332959416</v>
+        <v>1.049702398145374</v>
       </c>
       <c r="L15">
-        <v>1.020564626430743</v>
+        <v>1.051861469652196</v>
       </c>
       <c r="M15">
-        <v>1.031548648505312</v>
+        <v>1.061920400324342</v>
       </c>
       <c r="N15">
-        <v>1.008597184715435</v>
+        <v>1.019344410918471</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9898751454596357</v>
+        <v>1.040855828783131</v>
       </c>
       <c r="D16">
-        <v>1.01455718369192</v>
+        <v>1.046702808997514</v>
       </c>
       <c r="E16">
-        <v>1.008788636473553</v>
+        <v>1.048948363462098</v>
       </c>
       <c r="F16">
-        <v>1.020030545044386</v>
+        <v>1.05905150792628</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042888167632865</v>
+        <v>1.038499742536683</v>
       </c>
       <c r="J16">
-        <v>1.0184182198828</v>
+        <v>1.047139271695566</v>
       </c>
       <c r="K16">
-        <v>1.028632564707775</v>
+        <v>1.050102606825476</v>
       </c>
       <c r="L16">
-        <v>1.022964784959968</v>
+        <v>1.052340355920369</v>
       </c>
       <c r="M16">
-        <v>1.034011676479358</v>
+        <v>1.062408832899941</v>
       </c>
       <c r="N16">
-        <v>1.009429198304368</v>
+        <v>1.019505137131888</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9921419054213306</v>
+        <v>1.041288840820388</v>
       </c>
       <c r="D17">
-        <v>1.016198937217661</v>
+        <v>1.047025613337089</v>
       </c>
       <c r="E17">
-        <v>1.010625292135416</v>
+        <v>1.049320673834542</v>
       </c>
       <c r="F17">
-        <v>1.021900665443995</v>
+        <v>1.059429002130333</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04345906711719</v>
+        <v>1.038581510368751</v>
       </c>
       <c r="J17">
-        <v>1.019905444224815</v>
+        <v>1.047435133671117</v>
       </c>
       <c r="K17">
-        <v>1.029928779197665</v>
+        <v>1.050353474180594</v>
       </c>
       <c r="L17">
-        <v>1.02444955148407</v>
+        <v>1.052640739298734</v>
       </c>
       <c r="M17">
-        <v>1.035535292397562</v>
+        <v>1.062715174995836</v>
       </c>
       <c r="N17">
-        <v>1.009943506378718</v>
+        <v>1.01960588799488</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9934526974634447</v>
+        <v>1.041541447675608</v>
       </c>
       <c r="D18">
-        <v>1.017148916311233</v>
+        <v>1.047213914389931</v>
       </c>
       <c r="E18">
-        <v>1.011688326475525</v>
+        <v>1.049537906537845</v>
       </c>
       <c r="F18">
-        <v>1.022983031494231</v>
+        <v>1.059649247733016</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04378810984842</v>
+        <v>1.038629054504977</v>
       </c>
       <c r="J18">
-        <v>1.020765356490386</v>
+        <v>1.047607678534632</v>
       </c>
       <c r="K18">
-        <v>1.030678060072407</v>
+        <v>1.050499738421023</v>
       </c>
       <c r="L18">
-        <v>1.025308308744256</v>
+        <v>1.052815944391388</v>
       </c>
       <c r="M18">
-        <v>1.03641649974338</v>
+        <v>1.06289384506588</v>
       </c>
       <c r="N18">
-        <v>1.010240830612874</v>
+        <v>1.019664629554415</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9938977483615382</v>
+        <v>1.041627586587284</v>
       </c>
       <c r="D19">
-        <v>1.017471560785172</v>
+        <v>1.047278122666091</v>
       </c>
       <c r="E19">
-        <v>1.012049416231754</v>
+        <v>1.049611989197927</v>
       </c>
       <c r="F19">
-        <v>1.0233506811113</v>
+        <v>1.059724355888845</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043899642364549</v>
+        <v>1.038645240435946</v>
       </c>
       <c r="J19">
-        <v>1.021057301972537</v>
+        <v>1.047666507387894</v>
       </c>
       <c r="K19">
-        <v>1.030932412587187</v>
+        <v>1.050549600145763</v>
       </c>
       <c r="L19">
-        <v>1.025599906925929</v>
+        <v>1.052875684206708</v>
       </c>
       <c r="M19">
-        <v>1.036715717319878</v>
+        <v>1.06295476454052</v>
       </c>
       <c r="N19">
-        <v>1.010341765512476</v>
+        <v>1.019684654711692</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.991899887653056</v>
+        <v>1.041242378772184</v>
       </c>
       <c r="D20">
-        <v>1.016023586389867</v>
+        <v>1.046990977957306</v>
       </c>
       <c r="E20">
-        <v>1.010429095783161</v>
+        <v>1.049280721174142</v>
       </c>
       <c r="F20">
-        <v>1.021700898077581</v>
+        <v>1.059388494404217</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043398225828456</v>
+        <v>1.038572752932357</v>
       </c>
       <c r="J20">
-        <v>1.019746665949637</v>
+        <v>1.047403393212807</v>
       </c>
       <c r="K20">
-        <v>1.029790412910355</v>
+        <v>1.050326564943961</v>
       </c>
       <c r="L20">
-        <v>1.024291007917784</v>
+        <v>1.052608511359792</v>
       </c>
       <c r="M20">
-        <v>1.035372602423413</v>
+        <v>1.062682308842812</v>
       </c>
       <c r="N20">
-        <v>1.009888603040294</v>
+        <v>1.019595080935988</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9852684436725808</v>
+        <v>1.039990479682229</v>
       </c>
       <c r="D21">
-        <v>1.011224894990676</v>
+        <v>1.046057617312594</v>
       </c>
       <c r="E21">
-        <v>1.005062491234456</v>
+        <v>1.048204564715177</v>
       </c>
       <c r="F21">
-        <v>1.016236295495326</v>
+        <v>1.058297278135087</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041720994796314</v>
+        <v>1.038335330574482</v>
       </c>
       <c r="J21">
-        <v>1.01539526374225</v>
+        <v>1.046547673408244</v>
       </c>
       <c r="K21">
-        <v>1.025996683781417</v>
+        <v>1.04960072276299</v>
       </c>
       <c r="L21">
-        <v>1.019948583738897</v>
+        <v>1.051739866680531</v>
       </c>
       <c r="M21">
-        <v>1.030916459682166</v>
+        <v>1.06179636428201</v>
       </c>
       <c r="N21">
-        <v>1.00838351484232</v>
+        <v>1.019303577793634</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9809885305915932</v>
+        <v>1.039203702920934</v>
       </c>
       <c r="D22">
-        <v>1.008134253925166</v>
+        <v>1.045470913182088</v>
       </c>
       <c r="E22">
-        <v>1.001608435825954</v>
+        <v>1.047528579173681</v>
       </c>
       <c r="F22">
-        <v>1.012718915375249</v>
+        <v>1.057611727814112</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040628919511344</v>
+        <v>1.038184706925416</v>
       </c>
       <c r="J22">
-        <v>1.012586444341031</v>
+        <v>1.04600941145499</v>
       </c>
       <c r="K22">
-        <v>1.0235462737749</v>
+        <v>1.049143796677779</v>
       </c>
       <c r="L22">
-        <v>1.017148096487186</v>
+        <v>1.051193686122882</v>
       </c>
       <c r="M22">
-        <v>1.028042549889528</v>
+        <v>1.061239211500996</v>
       </c>
       <c r="N22">
-        <v>1.007411605702477</v>
+        <v>1.019120076573661</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9832682724611301</v>
+        <v>1.039620755896489</v>
       </c>
       <c r="D23">
-        <v>1.009779872895074</v>
+        <v>1.045781922989371</v>
       </c>
       <c r="E23">
-        <v>1.003447344070995</v>
+        <v>1.047886871405794</v>
       </c>
       <c r="F23">
-        <v>1.014591556132686</v>
+        <v>1.057975099590351</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041211504543916</v>
+        <v>1.038264682960489</v>
       </c>
       <c r="J23">
-        <v>1.014082609096166</v>
+        <v>1.046294776708023</v>
       </c>
       <c r="K23">
-        <v>1.024851663999122</v>
+        <v>1.04938607484117</v>
       </c>
       <c r="L23">
-        <v>1.018639580360702</v>
+        <v>1.051483229442947</v>
       </c>
       <c r="M23">
-        <v>1.0295731401964</v>
+        <v>1.061534580381477</v>
       </c>
       <c r="N23">
-        <v>1.00792934160845</v>
+        <v>1.019217375000076</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.992009280119471</v>
+        <v>1.0412633728534</v>
       </c>
       <c r="D24">
-        <v>1.016102843403646</v>
+        <v>1.047006628148996</v>
       </c>
       <c r="E24">
-        <v>1.010517773925238</v>
+        <v>1.049298773844178</v>
       </c>
       <c r="F24">
-        <v>1.021791190387141</v>
+        <v>1.059406797917761</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043425729584579</v>
+        <v>1.038576710503302</v>
       </c>
       <c r="J24">
-        <v>1.019818434331524</v>
+        <v>1.047417735441217</v>
       </c>
       <c r="K24">
-        <v>1.029852955586493</v>
+        <v>1.050338724262593</v>
       </c>
       <c r="L24">
-        <v>1.024362669385797</v>
+        <v>1.052623073788761</v>
       </c>
       <c r="M24">
-        <v>1.035446138123669</v>
+        <v>1.062697159686149</v>
       </c>
       <c r="N24">
-        <v>1.009913419708128</v>
+        <v>1.019599964257066</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001710009794233</v>
+        <v>1.043171040639999</v>
       </c>
       <c r="D25">
-        <v>1.023143080541136</v>
+        <v>1.048428406515655</v>
       </c>
       <c r="E25">
-        <v>1.018401051892433</v>
+        <v>1.050939966628265</v>
       </c>
       <c r="F25">
-        <v>1.029817050648773</v>
+        <v>1.061070540980312</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045840937047113</v>
+        <v>1.038932929562783</v>
       </c>
       <c r="J25">
-        <v>1.026179962014598</v>
+        <v>1.048719829456808</v>
       </c>
       <c r="K25">
-        <v>1.035392447098946</v>
+        <v>1.051441770109711</v>
       </c>
       <c r="L25">
-        <v>1.030720276322905</v>
+        <v>1.053945663305369</v>
       </c>
       <c r="M25">
-        <v>1.041969479531359</v>
+        <v>1.064045713997332</v>
       </c>
       <c r="N25">
-        <v>1.012112041134377</v>
+        <v>1.020042967734641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04469381780243</v>
+        <v>1.009127865968321</v>
       </c>
       <c r="D2">
-        <v>1.049562856752148</v>
+        <v>1.02854127413249</v>
       </c>
       <c r="E2">
-        <v>1.052251187142056</v>
+        <v>1.024455251982607</v>
       </c>
       <c r="F2">
-        <v>1.062399403692952</v>
+        <v>1.035979150739121</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03921230573419</v>
+        <v>1.047651911615849</v>
       </c>
       <c r="J2">
-        <v>1.049757533922906</v>
+        <v>1.031038950054014</v>
       </c>
       <c r="K2">
-        <v>1.052319567876396</v>
+        <v>1.039616803724135</v>
       </c>
       <c r="L2">
-        <v>1.055000436907291</v>
+        <v>1.035584083721051</v>
       </c>
       <c r="M2">
-        <v>1.065120855938856</v>
+        <v>1.046959001827246</v>
       </c>
       <c r="N2">
-        <v>1.020395518248822</v>
+        <v>1.013789526565158</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045800209629632</v>
+        <v>1.014345295527167</v>
       </c>
       <c r="D3">
-        <v>1.050386816192824</v>
+        <v>1.032345015338846</v>
       </c>
       <c r="E3">
-        <v>1.053204524965673</v>
+        <v>1.028727235224849</v>
       </c>
       <c r="F3">
-        <v>1.063365350029963</v>
+        <v>1.040326156548737</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039412402655908</v>
+        <v>1.048903927058575</v>
       </c>
       <c r="J3">
-        <v>1.050510509046007</v>
+        <v>1.034452388429365</v>
       </c>
       <c r="K3">
-        <v>1.052955768235653</v>
+        <v>1.042580109364578</v>
       </c>
       <c r="L3">
-        <v>1.055766222328775</v>
+        <v>1.039005280688969</v>
       </c>
       <c r="M3">
-        <v>1.065901230677546</v>
+        <v>1.05046780196584</v>
       </c>
       <c r="N3">
-        <v>1.020651041769713</v>
+        <v>1.014966741175619</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04651645562775</v>
+        <v>1.017648310799619</v>
       </c>
       <c r="D4">
-        <v>1.050920084672396</v>
+        <v>1.034755732044042</v>
       </c>
       <c r="E4">
-        <v>1.053821986471795</v>
+        <v>1.031437630328527</v>
       </c>
       <c r="F4">
-        <v>1.063990876322227</v>
+        <v>1.04308357723359</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039540602570949</v>
+        <v>1.049686158313647</v>
       </c>
       <c r="J4">
-        <v>1.050997506761563</v>
+        <v>1.036611096729592</v>
       </c>
       <c r="K4">
-        <v>1.053366894470144</v>
+        <v>1.044452029490732</v>
       </c>
       <c r="L4">
-        <v>1.05626170122833</v>
+        <v>1.041170877727974</v>
       </c>
       <c r="M4">
-        <v>1.066406056649275</v>
+        <v>1.05268840776222</v>
       </c>
       <c r="N4">
-        <v>1.020816169151875</v>
+        <v>1.015710615514049</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046817646135292</v>
+        <v>1.019020113563559</v>
       </c>
       <c r="D5">
-        <v>1.05114429675048</v>
+        <v>1.035757516044185</v>
       </c>
       <c r="E5">
-        <v>1.054081707525044</v>
+        <v>1.032564667890913</v>
       </c>
       <c r="F5">
-        <v>1.064253965265301</v>
+        <v>1.044230023356207</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039594192005898</v>
+        <v>1.050008494545261</v>
       </c>
       <c r="J5">
-        <v>1.051202185798443</v>
+        <v>1.037507063846304</v>
       </c>
       <c r="K5">
-        <v>1.05353960268353</v>
+        <v>1.045228439343711</v>
       </c>
       <c r="L5">
-        <v>1.056469991630204</v>
+        <v>1.04207017415342</v>
       </c>
       <c r="M5">
-        <v>1.066618254140741</v>
+        <v>1.053610432135103</v>
       </c>
       <c r="N5">
-        <v>1.020885537402421</v>
+        <v>1.016019204481471</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046868222082421</v>
+        <v>1.019249480475046</v>
       </c>
       <c r="D6">
-        <v>1.05118194444942</v>
+        <v>1.035925046855296</v>
       </c>
       <c r="E6">
-        <v>1.05412532403949</v>
+        <v>1.032753188134401</v>
       </c>
       <c r="F6">
-        <v>1.06429814593827</v>
+        <v>1.044421781290839</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039603171966596</v>
+        <v>1.050062238930911</v>
       </c>
       <c r="J6">
-        <v>1.051236549086177</v>
+        <v>1.037656834924154</v>
       </c>
       <c r="K6">
-        <v>1.05356859355921</v>
+        <v>1.045358193588251</v>
       </c>
       <c r="L6">
-        <v>1.056504963969086</v>
+        <v>1.042220529255488</v>
       </c>
       <c r="M6">
-        <v>1.06665388117928</v>
+        <v>1.053764580139205</v>
       </c>
       <c r="N6">
-        <v>1.020897181622592</v>
+        <v>1.01607077934243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04652047983282</v>
+        <v>1.017666705957712</v>
       </c>
       <c r="D7">
-        <v>1.050923080503854</v>
+        <v>1.034769163287022</v>
       </c>
       <c r="E7">
-        <v>1.053825456326908</v>
+        <v>1.031452738011903</v>
       </c>
       <c r="F7">
-        <v>1.063994391267965</v>
+        <v>1.043098945669956</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039541319837584</v>
+        <v>1.049690490765988</v>
       </c>
       <c r="J7">
-        <v>1.051000241908619</v>
+        <v>1.036623113545453</v>
       </c>
       <c r="K7">
-        <v>1.053369202714221</v>
+        <v>1.044462444895294</v>
       </c>
       <c r="L7">
-        <v>1.056264484450496</v>
+        <v>1.041182937345529</v>
       </c>
       <c r="M7">
-        <v>1.066408892166395</v>
+        <v>1.052700772629763</v>
       </c>
       <c r="N7">
-        <v>1.02081709625567</v>
+        <v>1.015714754965305</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045067658502485</v>
+        <v>1.010906668387012</v>
       </c>
       <c r="D8">
-        <v>1.049841294161217</v>
+        <v>1.029837496299516</v>
       </c>
       <c r="E8">
-        <v>1.052573249988216</v>
+        <v>1.025910440397514</v>
       </c>
       <c r="F8">
-        <v>1.062725747000645</v>
+        <v>1.03746000951636</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039280193490786</v>
+        <v>1.048080917909237</v>
       </c>
       <c r="J8">
-        <v>1.050012052306338</v>
+        <v>1.03220315351131</v>
       </c>
       <c r="K8">
-        <v>1.05253468586671</v>
+        <v>1.040627916165283</v>
       </c>
       <c r="L8">
-        <v>1.055259244759628</v>
+        <v>1.036750513604772</v>
       </c>
       <c r="M8">
-        <v>1.065384613549547</v>
+        <v>1.048155386895739</v>
       </c>
       <c r="N8">
-        <v>1.020481917685066</v>
+        <v>1.014191157301866</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04251017276005</v>
+        <v>0.9984021572210442</v>
       </c>
       <c r="D9">
-        <v>1.047935934566321</v>
+        <v>1.020739859843117</v>
       </c>
       <c r="E9">
-        <v>1.050371232420074</v>
+        <v>1.015708602832135</v>
       </c>
       <c r="F9">
-        <v>1.060494049934384</v>
+        <v>1.027076129644908</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038810294296219</v>
+        <v>1.04502290448076</v>
       </c>
       <c r="J9">
-        <v>1.048269007554874</v>
+        <v>1.024011465883231</v>
       </c>
       <c r="K9">
-        <v>1.051060061170726</v>
+        <v>1.033505176218957</v>
       </c>
       <c r="L9">
-        <v>1.053487631222916</v>
+        <v>1.028551858276737</v>
       </c>
       <c r="M9">
-        <v>1.063578742084334</v>
+        <v>1.039744675377556</v>
       </c>
       <c r="N9">
-        <v>1.019889664695349</v>
+        <v>1.011362851984799</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040806899423646</v>
+        <v>0.9896174153124103</v>
       </c>
       <c r="D10">
-        <v>1.046666331009071</v>
+        <v>1.014370602105741</v>
       </c>
       <c r="E10">
-        <v>1.048906298337511</v>
+        <v>1.008579941889965</v>
       </c>
       <c r="F10">
-        <v>1.059008855527734</v>
+        <v>1.019818043161156</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038490481740278</v>
+        <v>1.042823109382354</v>
       </c>
       <c r="J10">
-        <v>1.047105832874099</v>
+        <v>1.018249110674693</v>
       </c>
       <c r="K10">
-        <v>1.050074247959006</v>
+        <v>1.028485149566726</v>
       </c>
       <c r="L10">
-        <v>1.052306409247846</v>
+        <v>1.022795991773451</v>
       </c>
       <c r="M10">
-        <v>1.062374211397703</v>
+        <v>1.033838464405966</v>
       </c>
       <c r="N10">
-        <v>1.019493747974368</v>
+        <v>1.009370711016574</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040069767083497</v>
+        <v>0.985694862096935</v>
       </c>
       <c r="D11">
-        <v>1.046116737487392</v>
+        <v>1.011533104709593</v>
       </c>
       <c r="E11">
-        <v>1.048272701750249</v>
+        <v>1.005407037298951</v>
       </c>
       <c r="F11">
-        <v>1.058366374824787</v>
+        <v>1.016587149234287</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038350449860575</v>
+        <v>1.041829407039136</v>
       </c>
       <c r="J11">
-        <v>1.04660189683479</v>
+        <v>1.015675102894559</v>
       </c>
       <c r="K11">
-        <v>1.049646737380931</v>
+        <v>1.026240752434353</v>
       </c>
       <c r="L11">
-        <v>1.051794896775536</v>
+        <v>1.020227700151316</v>
       </c>
       <c r="M11">
-        <v>1.06185249588353</v>
+        <v>1.031202891941229</v>
       </c>
       <c r="N11">
-        <v>1.019322057379927</v>
+        <v>1.008480330187133</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039796022437109</v>
+        <v>0.9842188695531101</v>
       </c>
       <c r="D12">
-        <v>1.045912617570161</v>
+        <v>1.010466491439041</v>
       </c>
       <c r="E12">
-        <v>1.048037465785076</v>
+        <v>1.00421475169864</v>
       </c>
       <c r="F12">
-        <v>1.058127822288544</v>
+        <v>1.015373028553176</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038298202987858</v>
+        <v>1.041453840753653</v>
       </c>
       <c r="J12">
-        <v>1.046414671584177</v>
+        <v>1.014706464280323</v>
       </c>
       <c r="K12">
-        <v>1.049487844047309</v>
+        <v>1.025395880081407</v>
       </c>
       <c r="L12">
-        <v>1.051604893202395</v>
+        <v>1.0192616467536</v>
       </c>
       <c r="M12">
-        <v>1.061658685999501</v>
+        <v>1.03021151541426</v>
       </c>
       <c r="N12">
-        <v>1.019258245530246</v>
+        <v>1.008145200416788</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039854738923942</v>
+        <v>0.984536353391692</v>
       </c>
       <c r="D13">
-        <v>1.045956400908765</v>
+        <v>1.010695867219333</v>
       </c>
       <c r="E13">
-        <v>1.048087919712934</v>
+        <v>1.004471135486658</v>
       </c>
       <c r="F13">
-        <v>1.058178988382398</v>
+        <v>1.015634109442629</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038309420650574</v>
+        <v>1.041534698019381</v>
       </c>
       <c r="J13">
-        <v>1.046454833887339</v>
+        <v>1.014914819553854</v>
       </c>
       <c r="K13">
-        <v>1.049521931585059</v>
+        <v>1.025577624903305</v>
       </c>
       <c r="L13">
-        <v>1.0516456498386</v>
+        <v>1.019469426149842</v>
       </c>
       <c r="M13">
-        <v>1.061700259844773</v>
+        <v>1.030424741803195</v>
       </c>
       <c r="N13">
-        <v>1.019271935120215</v>
+        <v>1.008217290023153</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040047138061823</v>
+        <v>0.9855732502843274</v>
       </c>
       <c r="D14">
-        <v>1.04609986438688</v>
+        <v>1.011445200142107</v>
       </c>
       <c r="E14">
-        <v>1.048253254825252</v>
+        <v>1.005308767393351</v>
       </c>
       <c r="F14">
-        <v>1.058346654089348</v>
+        <v>1.016487080472228</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038346135865545</v>
+        <v>1.041798496080179</v>
       </c>
       <c r="J14">
-        <v>1.046586421571989</v>
+        <v>1.015595294859802</v>
       </c>
       <c r="K14">
-        <v>1.049633605182629</v>
+        <v>1.026171147098048</v>
       </c>
       <c r="L14">
-        <v>1.051779191122642</v>
+        <v>1.020148096231808</v>
       </c>
       <c r="M14">
-        <v>1.061836475934656</v>
+        <v>1.031121201602592</v>
       </c>
       <c r="N14">
-        <v>1.019316783453348</v>
+        <v>1.008452719466794</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040165689343266</v>
+        <v>0.9862095655021015</v>
       </c>
       <c r="D15">
-        <v>1.04618826011328</v>
+        <v>1.011905192479618</v>
       </c>
       <c r="E15">
-        <v>1.048355137835566</v>
+        <v>1.005823016507278</v>
       </c>
       <c r="F15">
-        <v>1.058449970857307</v>
+        <v>1.017010741323699</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038368726479673</v>
+        <v>1.041960166045538</v>
       </c>
       <c r="J15">
-        <v>1.046667491663518</v>
+        <v>1.016012875300268</v>
       </c>
       <c r="K15">
-        <v>1.049702398145374</v>
+        <v>1.026535332959417</v>
       </c>
       <c r="L15">
-        <v>1.051861469652196</v>
+        <v>1.020564626430744</v>
       </c>
       <c r="M15">
-        <v>1.061920400324342</v>
+        <v>1.031548648505313</v>
       </c>
       <c r="N15">
-        <v>1.019344410918471</v>
+        <v>1.008597184715435</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040855828783131</v>
+        <v>0.989875145459636</v>
       </c>
       <c r="D16">
-        <v>1.046702808997514</v>
+        <v>1.01455718369192</v>
       </c>
       <c r="E16">
-        <v>1.048948363462098</v>
+        <v>1.008788636473553</v>
       </c>
       <c r="F16">
-        <v>1.05905150792628</v>
+        <v>1.020030545044386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038499742536683</v>
+        <v>1.042888167632865</v>
       </c>
       <c r="J16">
-        <v>1.047139271695566</v>
+        <v>1.0184182198828</v>
       </c>
       <c r="K16">
-        <v>1.050102606825476</v>
+        <v>1.028632564707775</v>
       </c>
       <c r="L16">
-        <v>1.052340355920369</v>
+        <v>1.022964784959968</v>
       </c>
       <c r="M16">
-        <v>1.062408832899941</v>
+        <v>1.034011676479358</v>
       </c>
       <c r="N16">
-        <v>1.019505137131888</v>
+        <v>1.009429198304368</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041288840820388</v>
+        <v>0.9921419054213304</v>
       </c>
       <c r="D17">
-        <v>1.047025613337089</v>
+        <v>1.016198937217661</v>
       </c>
       <c r="E17">
-        <v>1.049320673834542</v>
+        <v>1.010625292135415</v>
       </c>
       <c r="F17">
-        <v>1.059429002130333</v>
+        <v>1.021900665443995</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038581510368751</v>
+        <v>1.043459067117189</v>
       </c>
       <c r="J17">
-        <v>1.047435133671117</v>
+        <v>1.019905444224814</v>
       </c>
       <c r="K17">
-        <v>1.050353474180594</v>
+        <v>1.029928779197665</v>
       </c>
       <c r="L17">
-        <v>1.052640739298734</v>
+        <v>1.024449551484069</v>
       </c>
       <c r="M17">
-        <v>1.062715174995836</v>
+        <v>1.035535292397561</v>
       </c>
       <c r="N17">
-        <v>1.01960588799488</v>
+        <v>1.009943506378718</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041541447675608</v>
+        <v>0.9934526974634441</v>
       </c>
       <c r="D18">
-        <v>1.047213914389931</v>
+        <v>1.017148916311232</v>
       </c>
       <c r="E18">
-        <v>1.049537906537845</v>
+        <v>1.011688326475524</v>
       </c>
       <c r="F18">
-        <v>1.059649247733016</v>
+        <v>1.022983031494231</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038629054504977</v>
+        <v>1.04378810984842</v>
       </c>
       <c r="J18">
-        <v>1.047607678534632</v>
+        <v>1.020765356490385</v>
       </c>
       <c r="K18">
-        <v>1.050499738421023</v>
+        <v>1.030678060072407</v>
       </c>
       <c r="L18">
-        <v>1.052815944391388</v>
+        <v>1.025308308744256</v>
       </c>
       <c r="M18">
-        <v>1.06289384506588</v>
+        <v>1.03641649974338</v>
       </c>
       <c r="N18">
-        <v>1.019664629554415</v>
+        <v>1.010240830612873</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041627586587284</v>
+        <v>0.9938977483615375</v>
       </c>
       <c r="D19">
-        <v>1.047278122666091</v>
+        <v>1.017471560785172</v>
       </c>
       <c r="E19">
-        <v>1.049611989197927</v>
+        <v>1.012049416231753</v>
       </c>
       <c r="F19">
-        <v>1.059724355888845</v>
+        <v>1.0233506811113</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038645240435946</v>
+        <v>1.043899642364549</v>
       </c>
       <c r="J19">
-        <v>1.047666507387894</v>
+        <v>1.021057301972536</v>
       </c>
       <c r="K19">
-        <v>1.050549600145763</v>
+        <v>1.030932412587187</v>
       </c>
       <c r="L19">
-        <v>1.052875684206708</v>
+        <v>1.025599906925929</v>
       </c>
       <c r="M19">
-        <v>1.06295476454052</v>
+        <v>1.036715717319878</v>
       </c>
       <c r="N19">
-        <v>1.019684654711692</v>
+        <v>1.010341765512476</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041242378772184</v>
+        <v>0.9918998876530555</v>
       </c>
       <c r="D20">
-        <v>1.046990977957306</v>
+        <v>1.016023586389867</v>
       </c>
       <c r="E20">
-        <v>1.049280721174142</v>
+        <v>1.01042909578316</v>
       </c>
       <c r="F20">
-        <v>1.059388494404217</v>
+        <v>1.02170089807758</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038572752932357</v>
+        <v>1.043398225828456</v>
       </c>
       <c r="J20">
-        <v>1.047403393212807</v>
+        <v>1.019746665949636</v>
       </c>
       <c r="K20">
-        <v>1.050326564943961</v>
+        <v>1.029790412910355</v>
       </c>
       <c r="L20">
-        <v>1.052608511359792</v>
+        <v>1.024291007917784</v>
       </c>
       <c r="M20">
-        <v>1.062682308842812</v>
+        <v>1.035372602423412</v>
       </c>
       <c r="N20">
-        <v>1.019595080935988</v>
+        <v>1.009888603040294</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039990479682229</v>
+        <v>0.9852684436725804</v>
       </c>
       <c r="D21">
-        <v>1.046057617312594</v>
+        <v>1.011224894990675</v>
       </c>
       <c r="E21">
-        <v>1.048204564715177</v>
+        <v>1.005062491234455</v>
       </c>
       <c r="F21">
-        <v>1.058297278135087</v>
+        <v>1.016236295495326</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038335330574482</v>
+        <v>1.041720994796314</v>
       </c>
       <c r="J21">
-        <v>1.046547673408244</v>
+        <v>1.015395263742249</v>
       </c>
       <c r="K21">
-        <v>1.04960072276299</v>
+        <v>1.025996683781417</v>
       </c>
       <c r="L21">
-        <v>1.051739866680531</v>
+        <v>1.019948583738896</v>
       </c>
       <c r="M21">
-        <v>1.06179636428201</v>
+        <v>1.030916459682166</v>
       </c>
       <c r="N21">
-        <v>1.019303577793634</v>
+        <v>1.00838351484232</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039203702920934</v>
+        <v>0.9809885305915925</v>
       </c>
       <c r="D22">
-        <v>1.045470913182088</v>
+        <v>1.008134253925165</v>
       </c>
       <c r="E22">
-        <v>1.047528579173681</v>
+        <v>1.001608435825952</v>
       </c>
       <c r="F22">
-        <v>1.057611727814112</v>
+        <v>1.012718915375248</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038184706925416</v>
+        <v>1.040628919511343</v>
       </c>
       <c r="J22">
-        <v>1.04600941145499</v>
+        <v>1.01258644434103</v>
       </c>
       <c r="K22">
-        <v>1.049143796677779</v>
+        <v>1.023546273774899</v>
       </c>
       <c r="L22">
-        <v>1.051193686122882</v>
+        <v>1.017148096487184</v>
       </c>
       <c r="M22">
-        <v>1.061239211500996</v>
+        <v>1.028042549889527</v>
       </c>
       <c r="N22">
-        <v>1.019120076573661</v>
+        <v>1.007411605702477</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039620755896489</v>
+        <v>0.9832682724611304</v>
       </c>
       <c r="D23">
-        <v>1.045781922989371</v>
+        <v>1.009779872895074</v>
       </c>
       <c r="E23">
-        <v>1.047886871405794</v>
+        <v>1.003447344070995</v>
       </c>
       <c r="F23">
-        <v>1.057975099590351</v>
+        <v>1.014591556132686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038264682960489</v>
+        <v>1.041211504543916</v>
       </c>
       <c r="J23">
-        <v>1.046294776708023</v>
+        <v>1.014082609096166</v>
       </c>
       <c r="K23">
-        <v>1.04938607484117</v>
+        <v>1.024851663999122</v>
       </c>
       <c r="L23">
-        <v>1.051483229442947</v>
+        <v>1.018639580360702</v>
       </c>
       <c r="M23">
-        <v>1.061534580381477</v>
+        <v>1.0295731401964</v>
       </c>
       <c r="N23">
-        <v>1.019217375000076</v>
+        <v>1.00792934160845</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0412633728534</v>
+        <v>0.9920092801194713</v>
       </c>
       <c r="D24">
-        <v>1.047006628148996</v>
+        <v>1.016102843403646</v>
       </c>
       <c r="E24">
-        <v>1.049298773844178</v>
+        <v>1.010517773925238</v>
       </c>
       <c r="F24">
-        <v>1.059406797917761</v>
+        <v>1.021791190387141</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038576710503302</v>
+        <v>1.043425729584579</v>
       </c>
       <c r="J24">
-        <v>1.047417735441217</v>
+        <v>1.019818434331524</v>
       </c>
       <c r="K24">
-        <v>1.050338724262593</v>
+        <v>1.029852955586493</v>
       </c>
       <c r="L24">
-        <v>1.052623073788761</v>
+        <v>1.024362669385798</v>
       </c>
       <c r="M24">
-        <v>1.062697159686149</v>
+        <v>1.035446138123669</v>
       </c>
       <c r="N24">
-        <v>1.019599964257066</v>
+        <v>1.009913419708128</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043171040639999</v>
+        <v>1.001710009794232</v>
       </c>
       <c r="D25">
-        <v>1.048428406515655</v>
+        <v>1.023143080541135</v>
       </c>
       <c r="E25">
-        <v>1.050939966628265</v>
+        <v>1.018401051892432</v>
       </c>
       <c r="F25">
-        <v>1.061070540980312</v>
+        <v>1.029817050648772</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038932929562783</v>
+        <v>1.045840937047113</v>
       </c>
       <c r="J25">
-        <v>1.048719829456808</v>
+        <v>1.026179962014597</v>
       </c>
       <c r="K25">
-        <v>1.051441770109711</v>
+        <v>1.035392447098945</v>
       </c>
       <c r="L25">
-        <v>1.053945663305369</v>
+        <v>1.030720276322905</v>
       </c>
       <c r="M25">
-        <v>1.064045713997332</v>
+        <v>1.041969479531358</v>
       </c>
       <c r="N25">
-        <v>1.020042967734641</v>
+        <v>1.012112041134377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009127865968321</v>
+        <v>1.02677492734632</v>
       </c>
       <c r="D2">
-        <v>1.02854127413249</v>
+        <v>1.043178192137869</v>
       </c>
       <c r="E2">
-        <v>1.024455251982607</v>
+        <v>1.039302300920232</v>
       </c>
       <c r="F2">
-        <v>1.035979150739121</v>
+        <v>1.04960707249648</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047651911615849</v>
+        <v>1.055723170518576</v>
       </c>
       <c r="J2">
-        <v>1.031038950054014</v>
+        <v>1.048183268601839</v>
       </c>
       <c r="K2">
-        <v>1.039616803724135</v>
+        <v>1.054067057449881</v>
       </c>
       <c r="L2">
-        <v>1.035584083721051</v>
+        <v>1.050239956565831</v>
       </c>
       <c r="M2">
-        <v>1.046959001827246</v>
+        <v>1.060415999121506</v>
       </c>
       <c r="N2">
-        <v>1.013789526565158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.019564682667706</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.056387430075697</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.049300285610167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014345295527167</v>
+        <v>1.030491912356824</v>
       </c>
       <c r="D3">
-        <v>1.032345015338846</v>
+        <v>1.045672925772705</v>
       </c>
       <c r="E3">
-        <v>1.028727235224849</v>
+        <v>1.042163747954778</v>
       </c>
       <c r="F3">
-        <v>1.040326156548737</v>
+        <v>1.052255216705262</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048903927058575</v>
+        <v>1.056661599015561</v>
       </c>
       <c r="J3">
-        <v>1.034452388429365</v>
+        <v>1.050184495168944</v>
       </c>
       <c r="K3">
-        <v>1.042580109364578</v>
+        <v>1.0557529526309</v>
       </c>
       <c r="L3">
-        <v>1.039005280688969</v>
+        <v>1.052284128060155</v>
       </c>
       <c r="M3">
-        <v>1.05046780196584</v>
+        <v>1.062260446082216</v>
       </c>
       <c r="N3">
-        <v>1.014966741175619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.020259934235239</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.057847153518769</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.050489699593358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017648310799619</v>
+        <v>1.032857439242466</v>
       </c>
       <c r="D4">
-        <v>1.034755732044042</v>
+        <v>1.047264929917713</v>
       </c>
       <c r="E4">
-        <v>1.031437630328527</v>
+        <v>1.043990545306751</v>
       </c>
       <c r="F4">
-        <v>1.04308357723359</v>
+        <v>1.053947022190045</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049686158313647</v>
+        <v>1.057251905304083</v>
       </c>
       <c r="J4">
-        <v>1.036611096729592</v>
+        <v>1.051456422793054</v>
       </c>
       <c r="K4">
-        <v>1.044452029490732</v>
+        <v>1.056824508095034</v>
       </c>
       <c r="L4">
-        <v>1.041170877727974</v>
+        <v>1.053585522480914</v>
       </c>
       <c r="M4">
-        <v>1.05268840776222</v>
+        <v>1.063435196272827</v>
       </c>
       <c r="N4">
-        <v>1.015710615514049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020701656479795</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.058776867280101</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.051248241808561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019020113563559</v>
+        <v>1.033846465658602</v>
       </c>
       <c r="D5">
-        <v>1.035757516044185</v>
+        <v>1.047933504786129</v>
       </c>
       <c r="E5">
-        <v>1.032564667890913</v>
+        <v>1.044756232769063</v>
       </c>
       <c r="F5">
-        <v>1.044230023356207</v>
+        <v>1.054656483945298</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050008494545261</v>
+        <v>1.057498654802847</v>
       </c>
       <c r="J5">
-        <v>1.037507063846304</v>
+        <v>1.051989446932957</v>
       </c>
       <c r="K5">
-        <v>1.045228439343711</v>
+        <v>1.057274910035187</v>
       </c>
       <c r="L5">
-        <v>1.04207017415342</v>
+        <v>1.054131079115878</v>
       </c>
       <c r="M5">
-        <v>1.053610432135103</v>
+        <v>1.063927939755512</v>
       </c>
       <c r="N5">
-        <v>1.016019204481471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020887210535421</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.059166831042138</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.051573765066809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019249480475046</v>
+        <v>1.03401658784464</v>
       </c>
       <c r="D6">
-        <v>1.035925046855296</v>
+        <v>1.048050932041096</v>
       </c>
       <c r="E6">
-        <v>1.032753188134401</v>
+        <v>1.044888690415325</v>
       </c>
       <c r="F6">
-        <v>1.044421781290839</v>
+        <v>1.054779323154171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050062238930911</v>
+        <v>1.057542985423904</v>
       </c>
       <c r="J6">
-        <v>1.037656834924154</v>
+        <v>1.052083121519338</v>
       </c>
       <c r="K6">
-        <v>1.045358193588251</v>
+        <v>1.057355686731753</v>
       </c>
       <c r="L6">
-        <v>1.042220529255488</v>
+        <v>1.054226576577072</v>
       </c>
       <c r="M6">
-        <v>1.053764580139205</v>
+        <v>1.064014389326431</v>
       </c>
       <c r="N6">
-        <v>1.01607077934243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020920406822942</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.059235248364864</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.051639489418338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017666705957712</v>
+        <v>1.032883072870293</v>
       </c>
       <c r="D7">
-        <v>1.034769163287022</v>
+        <v>1.047288597107863</v>
       </c>
       <c r="E7">
-        <v>1.031452738011903</v>
+        <v>1.04401220447489</v>
       </c>
       <c r="F7">
-        <v>1.043098945669956</v>
+        <v>1.053967321780766</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049690490765988</v>
+        <v>1.057263656476194</v>
       </c>
       <c r="J7">
-        <v>1.036623113545453</v>
+        <v>1.051475658162518</v>
       </c>
       <c r="K7">
-        <v>1.044462444895294</v>
+        <v>1.056845099036717</v>
       </c>
       <c r="L7">
-        <v>1.041182937345529</v>
+        <v>1.053604113465453</v>
       </c>
       <c r="M7">
-        <v>1.052700772629763</v>
+        <v>1.06345248292595</v>
       </c>
       <c r="N7">
-        <v>1.015714754965305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020709958400827</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.058790548171211</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.051282606149518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010906668387012</v>
+        <v>1.028055078370641</v>
       </c>
       <c r="D8">
-        <v>1.029837496299516</v>
+        <v>1.044044368370464</v>
       </c>
       <c r="E8">
-        <v>1.025910440397514</v>
+        <v>1.040288950203863</v>
       </c>
       <c r="F8">
-        <v>1.03746000951636</v>
+        <v>1.050520160827387</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048080917909237</v>
+        <v>1.056054467829558</v>
       </c>
       <c r="J8">
-        <v>1.03220315351131</v>
+        <v>1.048879623141102</v>
       </c>
       <c r="K8">
-        <v>1.040627916165283</v>
+        <v>1.054659036148632</v>
       </c>
       <c r="L8">
-        <v>1.036750513604772</v>
+        <v>1.05094949535625</v>
       </c>
       <c r="M8">
-        <v>1.048155386895739</v>
+        <v>1.06105667418607</v>
       </c>
       <c r="N8">
-        <v>1.014191157301866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.0198087457393</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.056894470404464</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049741425430913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9984021572210442</v>
+        <v>1.01921134690623</v>
       </c>
       <c r="D9">
-        <v>1.020739859843117</v>
+        <v>1.038127435375563</v>
       </c>
       <c r="E9">
-        <v>1.015708602832135</v>
+        <v>1.033512762277933</v>
       </c>
       <c r="F9">
-        <v>1.027076129644908</v>
+        <v>1.044255797842656</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04502290448076</v>
+        <v>1.053777487515378</v>
       </c>
       <c r="J9">
-        <v>1.024011465883231</v>
+        <v>1.044103477218302</v>
       </c>
       <c r="K9">
-        <v>1.033505176218957</v>
+        <v>1.050630791458882</v>
       </c>
       <c r="L9">
-        <v>1.028551858276737</v>
+        <v>1.046084549921601</v>
       </c>
       <c r="M9">
-        <v>1.039744675377556</v>
+        <v>1.056669461321678</v>
       </c>
       <c r="N9">
-        <v>1.011362851984799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.018146849351689</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.053422354336341</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046890134980907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9896174153124103</v>
+        <v>1.013150430400194</v>
       </c>
       <c r="D10">
-        <v>1.014370602105741</v>
+        <v>1.034120452548447</v>
       </c>
       <c r="E10">
-        <v>1.008579941889965</v>
+        <v>1.028928680657201</v>
       </c>
       <c r="F10">
-        <v>1.019818043161156</v>
+        <v>1.040059893516066</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042823109382354</v>
+        <v>1.052208055725696</v>
       </c>
       <c r="J10">
-        <v>1.018249110674693</v>
+        <v>1.040851840701225</v>
       </c>
       <c r="K10">
-        <v>1.028485149566726</v>
+        <v>1.047899818410373</v>
       </c>
       <c r="L10">
-        <v>1.022795991773451</v>
+        <v>1.042794550781111</v>
       </c>
       <c r="M10">
-        <v>1.033838464405966</v>
+        <v>1.053741658667476</v>
       </c>
       <c r="N10">
-        <v>1.009370711016574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.017022808716803</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.051155890959468</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044975805602018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.985694862096935</v>
+        <v>1.01098727673669</v>
       </c>
       <c r="D11">
-        <v>1.011533104709593</v>
+        <v>1.032862941641102</v>
       </c>
       <c r="E11">
-        <v>1.005407037298951</v>
+        <v>1.027508572820871</v>
       </c>
       <c r="F11">
-        <v>1.016587149234287</v>
+        <v>1.039042723701725</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041829407039136</v>
+        <v>1.05183606427997</v>
       </c>
       <c r="J11">
-        <v>1.015675102894559</v>
+        <v>1.039910009353024</v>
       </c>
       <c r="K11">
-        <v>1.026240752434353</v>
+        <v>1.047190627338914</v>
       </c>
       <c r="L11">
-        <v>1.020227700151316</v>
+        <v>1.041929717342051</v>
       </c>
       <c r="M11">
-        <v>1.031202891941229</v>
+        <v>1.05326409001422</v>
       </c>
       <c r="N11">
-        <v>1.008480330187133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.016761926668738</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.05120784750764</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.044506816455352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9842188695531101</v>
+        <v>1.010365326996617</v>
       </c>
       <c r="D12">
-        <v>1.010466491439041</v>
+        <v>1.032573687624565</v>
       </c>
       <c r="E12">
-        <v>1.00421475169864</v>
+        <v>1.027195433579511</v>
       </c>
       <c r="F12">
-        <v>1.015373028553176</v>
+        <v>1.038963943694268</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041453840753653</v>
+        <v>1.051815418229831</v>
       </c>
       <c r="J12">
-        <v>1.014706464280323</v>
+        <v>1.03973739490709</v>
       </c>
       <c r="K12">
-        <v>1.025395880081407</v>
+        <v>1.047102348851975</v>
       </c>
       <c r="L12">
-        <v>1.0192616467536</v>
+        <v>1.041819522442321</v>
       </c>
       <c r="M12">
-        <v>1.03021151541426</v>
+        <v>1.053380883138824</v>
       </c>
       <c r="N12">
-        <v>1.008145200416788</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.016753663900182</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.051622327517259</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.044444402181014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.984536353391692</v>
+        <v>1.010905211605125</v>
       </c>
       <c r="D13">
-        <v>1.010695867219333</v>
+        <v>1.033029808566628</v>
       </c>
       <c r="E13">
-        <v>1.004471135486658</v>
+        <v>1.027729698376314</v>
       </c>
       <c r="F13">
-        <v>1.015634109442629</v>
+        <v>1.039625021640532</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041534698019381</v>
+        <v>1.052079177956958</v>
       </c>
       <c r="J13">
-        <v>1.014914819553854</v>
+        <v>1.040164147150442</v>
       </c>
       <c r="K13">
-        <v>1.025577624903305</v>
+        <v>1.047508431129504</v>
       </c>
       <c r="L13">
-        <v>1.019469426149842</v>
+        <v>1.042301931895059</v>
       </c>
       <c r="M13">
-        <v>1.030424741803195</v>
+        <v>1.053988882869053</v>
       </c>
       <c r="N13">
-        <v>1.008217290023153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016947905859469</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.052376500027751</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044729048046288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9855732502843274</v>
+        <v>1.011810848636458</v>
       </c>
       <c r="D14">
-        <v>1.011445200142107</v>
+        <v>1.033688599134692</v>
       </c>
       <c r="E14">
-        <v>1.005308767393351</v>
+        <v>1.028488367090137</v>
       </c>
       <c r="F14">
-        <v>1.016487080472228</v>
+        <v>1.040423961976516</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041798496080179</v>
+        <v>1.052393203007672</v>
       </c>
       <c r="J14">
-        <v>1.015595294859802</v>
+        <v>1.040735369670201</v>
       </c>
       <c r="K14">
-        <v>1.026171147098048</v>
+        <v>1.048018158594028</v>
       </c>
       <c r="L14">
-        <v>1.020148096231808</v>
+        <v>1.042908607054718</v>
       </c>
       <c r="M14">
-        <v>1.031121201602592</v>
+        <v>1.054637811731105</v>
       </c>
       <c r="N14">
-        <v>1.008452719466794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.017176107043893</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.053061019862951</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.045090839686079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9862095655021015</v>
+        <v>1.012290160848734</v>
       </c>
       <c r="D15">
-        <v>1.011905192479618</v>
+        <v>1.034019516695645</v>
       </c>
       <c r="E15">
-        <v>1.005823016507278</v>
+        <v>1.028866030979845</v>
       </c>
       <c r="F15">
-        <v>1.017010741323699</v>
+        <v>1.040792775947378</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041960166045538</v>
+        <v>1.052536705223806</v>
       </c>
       <c r="J15">
-        <v>1.016012875300268</v>
+        <v>1.041012392055463</v>
       </c>
       <c r="K15">
-        <v>1.026535332959417</v>
+        <v>1.048258650890146</v>
       </c>
       <c r="L15">
-        <v>1.020564626430744</v>
+        <v>1.043194339842697</v>
       </c>
       <c r="M15">
-        <v>1.031548648505313</v>
+        <v>1.054916440289551</v>
       </c>
       <c r="N15">
-        <v>1.008597184715435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.017278917545614</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.053318435565542</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.045266665635202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.989875145459636</v>
+        <v>1.014753079883668</v>
       </c>
       <c r="D16">
-        <v>1.01455718369192</v>
+        <v>1.035632930502761</v>
       </c>
       <c r="E16">
-        <v>1.008788636473553</v>
+        <v>1.030707619597953</v>
       </c>
       <c r="F16">
-        <v>1.020030545044386</v>
+        <v>1.04246681936078</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042888167632865</v>
+        <v>1.053165858205989</v>
       </c>
       <c r="J16">
-        <v>1.0184182198828</v>
+        <v>1.042318392883781</v>
       </c>
       <c r="K16">
-        <v>1.028632564707775</v>
+        <v>1.049352426669137</v>
       </c>
       <c r="L16">
-        <v>1.022964784959968</v>
+        <v>1.044508605948316</v>
       </c>
       <c r="M16">
-        <v>1.034011676479358</v>
+        <v>1.05607488492826</v>
       </c>
       <c r="N16">
-        <v>1.009429198304368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.017721705970786</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.054195732307041</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046043109276056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9921419054213304</v>
+        <v>1.016169843400897</v>
       </c>
       <c r="D17">
-        <v>1.016198937217661</v>
+        <v>1.036526953379631</v>
       </c>
       <c r="E17">
-        <v>1.010625292135415</v>
+        <v>1.031724304682667</v>
       </c>
       <c r="F17">
-        <v>1.021900665443995</v>
+        <v>1.043329487354061</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043459067117189</v>
+        <v>1.053481925664378</v>
       </c>
       <c r="J17">
-        <v>1.019905444224814</v>
+        <v>1.043020512887226</v>
       </c>
       <c r="K17">
-        <v>1.029928779197665</v>
+        <v>1.04992347293168</v>
       </c>
       <c r="L17">
-        <v>1.024449551484069</v>
+        <v>1.04519805283832</v>
       </c>
       <c r="M17">
-        <v>1.035535292397561</v>
+        <v>1.056618176314414</v>
       </c>
       <c r="N17">
-        <v>1.009943506378718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.017941542794871</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.054497461910368</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046449403483396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9934526974634441</v>
+        <v>1.016804865601441</v>
       </c>
       <c r="D18">
-        <v>1.017148916311232</v>
+        <v>1.036862083341682</v>
       </c>
       <c r="E18">
-        <v>1.011688326475524</v>
+        <v>1.032100739778777</v>
       </c>
       <c r="F18">
-        <v>1.022983031494231</v>
+        <v>1.043533944568151</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04378810984842</v>
+        <v>1.053544558363871</v>
       </c>
       <c r="J18">
-        <v>1.020765356490385</v>
+        <v>1.043247700509759</v>
       </c>
       <c r="K18">
-        <v>1.030678060072407</v>
+        <v>1.05007348268699</v>
       </c>
       <c r="L18">
-        <v>1.025308308744256</v>
+        <v>1.04538745964466</v>
       </c>
       <c r="M18">
-        <v>1.03641649974338</v>
+        <v>1.056641277618632</v>
       </c>
       <c r="N18">
-        <v>1.010240830612873</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017980623866466</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.054280817288822</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.046543983362713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9938977483615375</v>
+        <v>1.016752179068073</v>
       </c>
       <c r="D19">
-        <v>1.017471560785172</v>
+        <v>1.036714469543958</v>
       </c>
       <c r="E19">
-        <v>1.012049416231753</v>
+        <v>1.03191406165582</v>
       </c>
       <c r="F19">
-        <v>1.0233506811113</v>
+        <v>1.043157055255149</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043899642364549</v>
+        <v>1.053394141684623</v>
       </c>
       <c r="J19">
-        <v>1.021057301972536</v>
+        <v>1.043065893620692</v>
       </c>
       <c r="K19">
-        <v>1.030932412587187</v>
+        <v>1.049866878770023</v>
       </c>
       <c r="L19">
-        <v>1.025599906925929</v>
+        <v>1.045142036935983</v>
       </c>
       <c r="M19">
-        <v>1.036715717319878</v>
+        <v>1.056209443408805</v>
       </c>
       <c r="N19">
-        <v>1.010341765512476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017869377874936</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.053618191851418</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04640422091714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9918998876530555</v>
+        <v>1.014754120880091</v>
       </c>
       <c r="D20">
-        <v>1.016023586389867</v>
+        <v>1.035195717595284</v>
       </c>
       <c r="E20">
-        <v>1.01042909578316</v>
+        <v>1.030145697950887</v>
       </c>
       <c r="F20">
-        <v>1.02170089807758</v>
+        <v>1.041175628804596</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043398225828456</v>
+        <v>1.052640479446495</v>
       </c>
       <c r="J20">
-        <v>1.019746665949636</v>
+        <v>1.041727908841033</v>
       </c>
       <c r="K20">
-        <v>1.029790412910355</v>
+        <v>1.048646691838749</v>
       </c>
       <c r="L20">
-        <v>1.024291007917784</v>
+        <v>1.043678403643374</v>
       </c>
       <c r="M20">
-        <v>1.035372602423412</v>
+        <v>1.054531135080367</v>
       </c>
       <c r="N20">
-        <v>1.009888603040294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.017330833576729</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.051770278633591</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.045545395025519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9852684436725804</v>
+        <v>1.010109297173123</v>
       </c>
       <c r="D21">
-        <v>1.011224894990675</v>
+        <v>1.032100467452699</v>
       </c>
       <c r="E21">
-        <v>1.005062491234455</v>
+        <v>1.026604438633957</v>
       </c>
       <c r="F21">
-        <v>1.016236295495326</v>
+        <v>1.037881711737511</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041720994796314</v>
+        <v>1.051387374990556</v>
       </c>
       <c r="J21">
-        <v>1.015395263742249</v>
+        <v>1.039190350131578</v>
       </c>
       <c r="K21">
-        <v>1.025996683781417</v>
+        <v>1.046498180540347</v>
       </c>
       <c r="L21">
-        <v>1.019948583738896</v>
+        <v>1.041098723050925</v>
       </c>
       <c r="M21">
-        <v>1.030916459682166</v>
+        <v>1.05217926897067</v>
       </c>
       <c r="N21">
-        <v>1.00838351484232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.016441328818479</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.049868721993149</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.044029542683626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9809885305915925</v>
+        <v>1.00715192042355</v>
       </c>
       <c r="D22">
-        <v>1.008134253925165</v>
+        <v>1.03013960864739</v>
       </c>
       <c r="E22">
-        <v>1.001608435825952</v>
+        <v>1.024368202375628</v>
       </c>
       <c r="F22">
-        <v>1.012718915375248</v>
+        <v>1.035820841511272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040628919511343</v>
+        <v>1.050589074251284</v>
       </c>
       <c r="J22">
-        <v>1.01258644434103</v>
+        <v>1.03758138663719</v>
       </c>
       <c r="K22">
-        <v>1.023546273774899</v>
+        <v>1.04513674086624</v>
       </c>
       <c r="L22">
-        <v>1.017148096487184</v>
+        <v>1.039471898829229</v>
       </c>
       <c r="M22">
-        <v>1.028042549889527</v>
+        <v>1.050714582440667</v>
       </c>
       <c r="N22">
-        <v>1.007411605702477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.015878850787506</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.048709534720208</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.043053627338341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9832682724611304</v>
+        <v>1.008712879947098</v>
       </c>
       <c r="D23">
-        <v>1.009779872895074</v>
+        <v>1.031168211117476</v>
       </c>
       <c r="E23">
-        <v>1.003447344070995</v>
+        <v>1.025545762288157</v>
       </c>
       <c r="F23">
-        <v>1.014591556132686</v>
+        <v>1.036905851302557</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041211504543916</v>
+        <v>1.051006185761941</v>
       </c>
       <c r="J23">
-        <v>1.014082609096166</v>
+        <v>1.038425669434085</v>
       </c>
       <c r="K23">
-        <v>1.024851663999122</v>
+        <v>1.045847393904255</v>
       </c>
       <c r="L23">
-        <v>1.018639580360702</v>
+        <v>1.040326088288064</v>
       </c>
       <c r="M23">
-        <v>1.0295731401964</v>
+        <v>1.051483284569962</v>
       </c>
       <c r="N23">
-        <v>1.00792934160845</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.016172221129557</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.049317903839803</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.043546558328603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9920092801194713</v>
+        <v>1.014762652631904</v>
       </c>
       <c r="D24">
-        <v>1.016102843403646</v>
+        <v>1.035176785522716</v>
       </c>
       <c r="E24">
-        <v>1.010517773925238</v>
+        <v>1.030129038914346</v>
       </c>
       <c r="F24">
-        <v>1.021791190387141</v>
+        <v>1.041132284130077</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043425729584579</v>
+        <v>1.052616896153138</v>
       </c>
       <c r="J24">
-        <v>1.019818434331524</v>
+        <v>1.041704034641757</v>
       </c>
       <c r="K24">
-        <v>1.029852955586493</v>
+        <v>1.048613089441057</v>
       </c>
       <c r="L24">
-        <v>1.024362669385798</v>
+        <v>1.043646936758437</v>
       </c>
       <c r="M24">
-        <v>1.035446138123669</v>
+        <v>1.05447362378076</v>
       </c>
       <c r="N24">
-        <v>1.009913419708128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.017314179639682</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.051684524582907</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.045494583049005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001710009794232</v>
+        <v>1.021557227594463</v>
       </c>
       <c r="D25">
-        <v>1.023143080541135</v>
+        <v>1.039702465902495</v>
       </c>
       <c r="E25">
-        <v>1.018401051892432</v>
+        <v>1.035307625188354</v>
       </c>
       <c r="F25">
-        <v>1.029817050648772</v>
+        <v>1.045914122250076</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045840937047113</v>
+        <v>1.054395991418663</v>
       </c>
       <c r="J25">
-        <v>1.026179962014597</v>
+        <v>1.045380264499679</v>
       </c>
       <c r="K25">
-        <v>1.035392447098945</v>
+        <v>1.051714201271967</v>
       </c>
       <c r="L25">
-        <v>1.030720276322905</v>
+        <v>1.047381490260108</v>
       </c>
       <c r="M25">
-        <v>1.041969479531358</v>
+        <v>1.057839166860499</v>
       </c>
       <c r="N25">
-        <v>1.012112041134377</v>
+        <v>1.018594054768599</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.054348081063596</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047684347693555</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02677492734632</v>
+        <v>1.024996139934895</v>
       </c>
       <c r="D2">
-        <v>1.043178192137869</v>
+        <v>1.04077107130318</v>
       </c>
       <c r="E2">
-        <v>1.039302300920232</v>
+        <v>1.037748293190976</v>
       </c>
       <c r="F2">
-        <v>1.04960707249648</v>
+        <v>1.047963496711443</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055723170518576</v>
+        <v>1.054578906171406</v>
       </c>
       <c r="J2">
-        <v>1.048183268601839</v>
+        <v>1.046454085761762</v>
       </c>
       <c r="K2">
-        <v>1.054067057449881</v>
+        <v>1.051690184484868</v>
       </c>
       <c r="L2">
-        <v>1.050239956565831</v>
+        <v>1.048705638727295</v>
       </c>
       <c r="M2">
-        <v>1.060415999121506</v>
+        <v>1.058792743862588</v>
       </c>
       <c r="N2">
-        <v>1.019564682667706</v>
+        <v>1.01924654152763</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.056387430075697</v>
+        <v>1.055102758808626</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049300285610167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047628329883744</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025625471749488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030491912356824</v>
+        <v>1.028544478007414</v>
       </c>
       <c r="D3">
-        <v>1.045672925772705</v>
+        <v>1.043071116733681</v>
       </c>
       <c r="E3">
-        <v>1.042163747954778</v>
+        <v>1.04046054781294</v>
       </c>
       <c r="F3">
-        <v>1.052255216705262</v>
+        <v>1.050470187772828</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056661599015561</v>
+        <v>1.05541114759001</v>
       </c>
       <c r="J3">
-        <v>1.050184495168944</v>
+        <v>1.048286122866388</v>
       </c>
       <c r="K3">
-        <v>1.0557529526309</v>
+        <v>1.053181030549267</v>
       </c>
       <c r="L3">
-        <v>1.052284128060155</v>
+        <v>1.050600634856517</v>
       </c>
       <c r="M3">
-        <v>1.062260446082216</v>
+        <v>1.06049558703731</v>
       </c>
       <c r="N3">
-        <v>1.020259934235239</v>
+        <v>1.019749913417233</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.057847153518769</v>
+        <v>1.056450417223094</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050489699593358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048679556798839</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025933523903189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032857439242466</v>
+        <v>1.030803808879376</v>
       </c>
       <c r="D4">
-        <v>1.047264929917713</v>
+        <v>1.04453994710764</v>
       </c>
       <c r="E4">
-        <v>1.043990545306751</v>
+        <v>1.042193303239876</v>
       </c>
       <c r="F4">
-        <v>1.053947022190045</v>
+        <v>1.052072699709887</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057251905304083</v>
+        <v>1.055934274093774</v>
       </c>
       <c r="J4">
-        <v>1.051456422793054</v>
+        <v>1.049451075297979</v>
       </c>
       <c r="K4">
-        <v>1.056824508095034</v>
+        <v>1.054128965756424</v>
       </c>
       <c r="L4">
-        <v>1.053585522480914</v>
+        <v>1.051807826227919</v>
       </c>
       <c r="M4">
-        <v>1.063435196272827</v>
+        <v>1.061580790541148</v>
       </c>
       <c r="N4">
-        <v>1.020701656479795</v>
+        <v>1.02006997572225</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.058776867280101</v>
+        <v>1.057309264086164</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051248241808561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049350775357989</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026127133188649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033846465658602</v>
+        <v>1.031748630542157</v>
       </c>
       <c r="D5">
-        <v>1.047933504786129</v>
+        <v>1.045157196479795</v>
       </c>
       <c r="E5">
-        <v>1.044756232769063</v>
+        <v>1.042919825255008</v>
       </c>
       <c r="F5">
-        <v>1.054656483945298</v>
+        <v>1.052744970962437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057498654802847</v>
+        <v>1.056152997773894</v>
       </c>
       <c r="J5">
-        <v>1.051989446932957</v>
+        <v>1.049939479456424</v>
       </c>
       <c r="K5">
-        <v>1.057274910035187</v>
+        <v>1.054527808934995</v>
       </c>
       <c r="L5">
-        <v>1.054131079115878</v>
+        <v>1.052314113661186</v>
       </c>
       <c r="M5">
-        <v>1.063927939755512</v>
+        <v>1.062036204213146</v>
       </c>
       <c r="N5">
-        <v>1.020887210535421</v>
+        <v>1.020204519540796</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059166831042138</v>
+        <v>1.057669685233614</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051573765066809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049640556235825</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026208594446654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03401658784464</v>
+        <v>1.031911086029235</v>
       </c>
       <c r="D6">
-        <v>1.048050932041096</v>
+        <v>1.045265809322347</v>
       </c>
       <c r="E6">
-        <v>1.044888690415325</v>
+        <v>1.043045487931999</v>
       </c>
       <c r="F6">
-        <v>1.054779323154171</v>
+        <v>1.052861390762203</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057542985423904</v>
+        <v>1.056192473847985</v>
       </c>
       <c r="J6">
-        <v>1.052083121519338</v>
+        <v>1.050025418327244</v>
       </c>
       <c r="K6">
-        <v>1.057355686731753</v>
+        <v>1.054599731461472</v>
       </c>
       <c r="L6">
-        <v>1.054226576577072</v>
+        <v>1.052402799049034</v>
       </c>
       <c r="M6">
-        <v>1.064014389326431</v>
+        <v>1.062116210962289</v>
       </c>
       <c r="N6">
-        <v>1.020920406822942</v>
+        <v>1.020228636846709</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059235248364864</v>
+        <v>1.057733003746283</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051639489418338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049700890623666</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026223919778466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032883072870293</v>
+        <v>1.030836698851754</v>
       </c>
       <c r="D7">
-        <v>1.047288597107863</v>
+        <v>1.044568543337727</v>
       </c>
       <c r="E7">
-        <v>1.04401220447489</v>
+        <v>1.042220999399869</v>
       </c>
       <c r="F7">
-        <v>1.053967321780766</v>
+        <v>1.052097546066733</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057263656476194</v>
+        <v>1.055949561746322</v>
       </c>
       <c r="J7">
-        <v>1.051475658162518</v>
+        <v>1.049477375300611</v>
       </c>
       <c r="K7">
-        <v>1.056845099036717</v>
+        <v>1.054154420927463</v>
       </c>
       <c r="L7">
-        <v>1.053604113465453</v>
+        <v>1.051832380945779</v>
       </c>
       <c r="M7">
-        <v>1.06345248292595</v>
+        <v>1.061602568018908</v>
       </c>
       <c r="N7">
-        <v>1.020709958400827</v>
+        <v>1.020104468753486</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.058790548171211</v>
+        <v>1.057326499109536</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051282606149518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049390581346205</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026134943033866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028055078370641</v>
+        <v>1.026244220970863</v>
       </c>
       <c r="D8">
-        <v>1.044044368370464</v>
+        <v>1.041589384430862</v>
       </c>
       <c r="E8">
-        <v>1.040288950203863</v>
+        <v>1.038705497260396</v>
       </c>
       <c r="F8">
-        <v>1.050520160827387</v>
+        <v>1.048844926536733</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056054467829558</v>
+        <v>1.054886945151089</v>
       </c>
       <c r="J8">
-        <v>1.048879623141102</v>
+        <v>1.047117589239728</v>
       </c>
       <c r="K8">
-        <v>1.054659036148632</v>
+        <v>1.052233996511067</v>
       </c>
       <c r="L8">
-        <v>1.05094949535625</v>
+        <v>1.049385510087059</v>
       </c>
       <c r="M8">
-        <v>1.06105667418607</v>
+        <v>1.059401542960479</v>
       </c>
       <c r="N8">
-        <v>1.0198087457393</v>
+        <v>1.01950970823051</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.056894470404464</v>
+        <v>1.055584572815696</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049741425430913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048037683932664</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025743075771685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01921134690623</v>
+        <v>1.017813104160116</v>
       </c>
       <c r="D9">
-        <v>1.038127435375563</v>
+        <v>1.036143192176827</v>
       </c>
       <c r="E9">
-        <v>1.033512762277933</v>
+        <v>1.032293522845183</v>
       </c>
       <c r="F9">
-        <v>1.044255797842656</v>
+        <v>1.042924473628923</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053777487515378</v>
+        <v>1.052867311365427</v>
       </c>
       <c r="J9">
-        <v>1.044103477218302</v>
+        <v>1.042752145342475</v>
       </c>
       <c r="K9">
-        <v>1.050630791458882</v>
+        <v>1.048675877913498</v>
       </c>
       <c r="L9">
-        <v>1.046084549921601</v>
+        <v>1.044883520735456</v>
       </c>
       <c r="M9">
-        <v>1.056669461321678</v>
+        <v>1.055357508224047</v>
       </c>
       <c r="N9">
-        <v>1.018146849351689</v>
+        <v>1.018318615849306</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.053422354336341</v>
+        <v>1.052384048894176</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046890134980907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045518512020047</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024993677923158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013150430400194</v>
+        <v>1.01207633180944</v>
       </c>
       <c r="D10">
-        <v>1.034120452548447</v>
+        <v>1.032487449855913</v>
       </c>
       <c r="E10">
-        <v>1.028928680657201</v>
+        <v>1.02799302333019</v>
       </c>
       <c r="F10">
-        <v>1.040059893516066</v>
+        <v>1.038990819517447</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052208055725696</v>
+        <v>1.051493502396295</v>
       </c>
       <c r="J10">
-        <v>1.040851840701225</v>
+        <v>1.039818874018591</v>
       </c>
       <c r="K10">
-        <v>1.047899818410373</v>
+        <v>1.0462939037085</v>
       </c>
       <c r="L10">
-        <v>1.042794550781111</v>
+        <v>1.041874603007202</v>
       </c>
       <c r="M10">
-        <v>1.053741658667476</v>
+        <v>1.052690046525922</v>
       </c>
       <c r="N10">
-        <v>1.017022808716803</v>
+        <v>1.01763584378642</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.051155890959468</v>
+        <v>1.050323672438127</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044975805602018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043852619633701</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024491092045498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01098727673669</v>
+        <v>1.010053553204885</v>
       </c>
       <c r="D11">
-        <v>1.032862941641102</v>
+        <v>1.031365097173902</v>
       </c>
       <c r="E11">
-        <v>1.027508572820871</v>
+        <v>1.026690654973737</v>
       </c>
       <c r="F11">
-        <v>1.039042723701725</v>
+        <v>1.038079077635917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05183606427997</v>
+        <v>1.051197451431749</v>
       </c>
       <c r="J11">
-        <v>1.039910009353024</v>
+        <v>1.039013992017775</v>
       </c>
       <c r="K11">
-        <v>1.047190627338914</v>
+        <v>1.045718800715423</v>
       </c>
       <c r="L11">
-        <v>1.041929717342051</v>
+        <v>1.041126187255805</v>
       </c>
       <c r="M11">
-        <v>1.05326409001422</v>
+        <v>1.052316915251556</v>
       </c>
       <c r="N11">
-        <v>1.016761926668738</v>
+        <v>1.017691136572327</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.05120784750764</v>
+        <v>1.05045864431629</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.044506816455352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04348165077167</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02442615151157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010365326996617</v>
+        <v>1.009463565006622</v>
       </c>
       <c r="D12">
-        <v>1.032573687624565</v>
+        <v>1.031104136218405</v>
       </c>
       <c r="E12">
-        <v>1.027195433579511</v>
+        <v>1.026401695578675</v>
       </c>
       <c r="F12">
-        <v>1.038963943694268</v>
+        <v>1.038022509966091</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051815418229831</v>
+        <v>1.051190604296988</v>
       </c>
       <c r="J12">
-        <v>1.03973739490709</v>
+        <v>1.038872740596208</v>
       </c>
       <c r="K12">
-        <v>1.047102348851975</v>
+        <v>1.045658743842688</v>
       </c>
       <c r="L12">
-        <v>1.041819522442321</v>
+        <v>1.041039977913515</v>
       </c>
       <c r="M12">
-        <v>1.053380883138824</v>
+        <v>1.052455796796501</v>
       </c>
       <c r="N12">
-        <v>1.016753663900182</v>
+        <v>1.017789670287132</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.051622327517259</v>
+        <v>1.050890837316315</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044444402181014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043439190383994</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024454073091578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010905211605125</v>
+        <v>1.009940155600587</v>
       </c>
       <c r="D13">
-        <v>1.033029808566628</v>
+        <v>1.031497790035759</v>
       </c>
       <c r="E13">
-        <v>1.027729698376314</v>
+        <v>1.026878209658248</v>
       </c>
       <c r="F13">
-        <v>1.039625021640532</v>
+        <v>1.038634134480472</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052079177956958</v>
+        <v>1.051414350110419</v>
       </c>
       <c r="J13">
-        <v>1.040164147150442</v>
+        <v>1.039238601998968</v>
       </c>
       <c r="K13">
-        <v>1.047508431129504</v>
+        <v>1.046003343086827</v>
       </c>
       <c r="L13">
-        <v>1.042301931895059</v>
+        <v>1.041465599186637</v>
       </c>
       <c r="M13">
-        <v>1.053988882869053</v>
+        <v>1.053015117477484</v>
       </c>
       <c r="N13">
-        <v>1.016947905859469</v>
+        <v>1.017897329476735</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.052376500027751</v>
+        <v>1.05160670726825</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044729048046288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043680119796452</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024560340309816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011810848636458</v>
+        <v>1.010759068292159</v>
       </c>
       <c r="D14">
-        <v>1.033688599134692</v>
+        <v>1.032072483700067</v>
       </c>
       <c r="E14">
-        <v>1.028488367090137</v>
+        <v>1.027560205625104</v>
       </c>
       <c r="F14">
-        <v>1.040423961976516</v>
+        <v>1.039366708024113</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052393203007672</v>
+        <v>1.051676666044766</v>
       </c>
       <c r="J14">
-        <v>1.040735369670201</v>
+        <v>1.039726032345779</v>
       </c>
       <c r="K14">
-        <v>1.048018158594028</v>
+        <v>1.046430097934436</v>
       </c>
       <c r="L14">
-        <v>1.042908607054718</v>
+        <v>1.041996755786226</v>
       </c>
       <c r="M14">
-        <v>1.054637811731105</v>
+        <v>1.053598592618322</v>
       </c>
       <c r="N14">
-        <v>1.017176107043893</v>
+        <v>1.017978719635827</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.053061019862951</v>
+        <v>1.052239592842281</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.045090839686079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043983381820767</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024671065037259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012290160848734</v>
+        <v>1.01119697190895</v>
       </c>
       <c r="D15">
-        <v>1.034019516695645</v>
+        <v>1.032363417987721</v>
       </c>
       <c r="E15">
-        <v>1.028866030979845</v>
+        <v>1.027901825763627</v>
       </c>
       <c r="F15">
-        <v>1.040792775947378</v>
+        <v>1.039704094197127</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052536705223806</v>
+        <v>1.051796169286412</v>
       </c>
       <c r="J15">
-        <v>1.041012392055463</v>
+        <v>1.039962932299257</v>
       </c>
       <c r="K15">
-        <v>1.048258650890146</v>
+        <v>1.046631083347012</v>
       </c>
       <c r="L15">
-        <v>1.043194339842697</v>
+        <v>1.0422469475985</v>
       </c>
       <c r="M15">
-        <v>1.054916440289551</v>
+        <v>1.053846187304147</v>
       </c>
       <c r="N15">
-        <v>1.017278917545614</v>
+        <v>1.018005975986851</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.053318435565542</v>
+        <v>1.052472500493491</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045266665635202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044131844972714</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024718059436292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014753079883668</v>
+        <v>1.013476302400373</v>
       </c>
       <c r="D16">
-        <v>1.035632930502761</v>
+        <v>1.033797484367248</v>
       </c>
       <c r="E16">
-        <v>1.030707619597953</v>
+        <v>1.029585937311991</v>
       </c>
       <c r="F16">
-        <v>1.04246681936078</v>
+        <v>1.041238803720182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053165858205989</v>
+        <v>1.052321354092557</v>
       </c>
       <c r="J16">
-        <v>1.042318392883781</v>
+        <v>1.041090149542651</v>
       </c>
       <c r="K16">
-        <v>1.049352426669137</v>
+        <v>1.047547231528199</v>
       </c>
       <c r="L16">
-        <v>1.044508605948316</v>
+        <v>1.043405622537156</v>
       </c>
       <c r="M16">
-        <v>1.05607488492826</v>
+        <v>1.054866754371359</v>
       </c>
       <c r="N16">
-        <v>1.017721705970786</v>
+        <v>1.018099662597901</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.054195732307041</v>
+        <v>1.053240791023026</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046043109276056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044783002018175</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024904245653523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016169843400897</v>
+        <v>1.014807611013121</v>
       </c>
       <c r="D17">
-        <v>1.036526953379631</v>
+        <v>1.034605078233974</v>
       </c>
       <c r="E17">
-        <v>1.031724304682667</v>
+        <v>1.030530045760736</v>
       </c>
       <c r="F17">
-        <v>1.043329487354061</v>
+        <v>1.042035631710244</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053481925664378</v>
+        <v>1.052589397901617</v>
       </c>
       <c r="J17">
-        <v>1.043020512887226</v>
+        <v>1.041708411108429</v>
       </c>
       <c r="K17">
-        <v>1.04992347293168</v>
+        <v>1.048032391964011</v>
       </c>
       <c r="L17">
-        <v>1.04519805283832</v>
+        <v>1.044023141612024</v>
       </c>
       <c r="M17">
-        <v>1.056618176314414</v>
+        <v>1.055344691480129</v>
       </c>
       <c r="N17">
-        <v>1.017941542794871</v>
+        <v>1.018158330143181</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.054497461910368</v>
+        <v>1.053490764130509</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046449403483396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045128821228752</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024990223440283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016804865601441</v>
+        <v>1.015422591713996</v>
       </c>
       <c r="D18">
-        <v>1.036862083341682</v>
+        <v>1.034918107006688</v>
       </c>
       <c r="E18">
-        <v>1.032100739778777</v>
+        <v>1.030891001449</v>
       </c>
       <c r="F18">
-        <v>1.043533944568151</v>
+        <v>1.042224260134599</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053544558363871</v>
+        <v>1.052642336534352</v>
       </c>
       <c r="J18">
-        <v>1.043247700509759</v>
+        <v>1.041915352139114</v>
       </c>
       <c r="K18">
-        <v>1.05007348268699</v>
+        <v>1.048160151266582</v>
       </c>
       <c r="L18">
-        <v>1.04538745964466</v>
+        <v>1.044197000451099</v>
       </c>
       <c r="M18">
-        <v>1.056641277618632</v>
+        <v>1.055351887080182</v>
       </c>
       <c r="N18">
-        <v>1.017980623866466</v>
+        <v>1.018146783855986</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.054280817288822</v>
+        <v>1.05326133803405</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046543983362713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045206533254312</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024987799659762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016752179068073</v>
+        <v>1.015399755122796</v>
       </c>
       <c r="D19">
-        <v>1.036714469543958</v>
+        <v>1.034799631061502</v>
       </c>
       <c r="E19">
-        <v>1.03191406165582</v>
+        <v>1.030732567261445</v>
       </c>
       <c r="F19">
-        <v>1.043157055255149</v>
+        <v>1.041870569784273</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053394141684623</v>
+        <v>1.05251198814816</v>
       </c>
       <c r="J19">
-        <v>1.043065893620692</v>
+        <v>1.041762037730849</v>
       </c>
       <c r="K19">
-        <v>1.049866878770023</v>
+        <v>1.047982075336756</v>
       </c>
       <c r="L19">
-        <v>1.045142036935983</v>
+        <v>1.043979279412962</v>
       </c>
       <c r="M19">
-        <v>1.056209443408805</v>
+        <v>1.054942804384166</v>
       </c>
       <c r="N19">
-        <v>1.017869377874936</v>
+        <v>1.018060399034755</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053618191851418</v>
+        <v>1.052616382549288</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04640422091714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045087566745877</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024912679263439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014754120880091</v>
+        <v>1.013568540813313</v>
       </c>
       <c r="D20">
-        <v>1.035195717595284</v>
+        <v>1.033451166285468</v>
       </c>
       <c r="E20">
-        <v>1.030145697950887</v>
+        <v>1.029113086578255</v>
       </c>
       <c r="F20">
-        <v>1.041175628804596</v>
+        <v>1.040020196308364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052640479446495</v>
+        <v>1.05186080891261</v>
       </c>
       <c r="J20">
-        <v>1.041727908841033</v>
+        <v>1.040586255208859</v>
       </c>
       <c r="K20">
-        <v>1.048646691838749</v>
+        <v>1.046930259099289</v>
       </c>
       <c r="L20">
-        <v>1.043678403643374</v>
+        <v>1.042662631389931</v>
       </c>
       <c r="M20">
-        <v>1.054531135080367</v>
+        <v>1.053394039180645</v>
       </c>
       <c r="N20">
-        <v>1.017330833576729</v>
+        <v>1.017749594599029</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051770278633591</v>
+        <v>1.05087039999338</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045545395025519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044348174087272</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024628762321169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010109297173123</v>
+        <v>1.00930007481383</v>
       </c>
       <c r="D21">
-        <v>1.032100467452699</v>
+        <v>1.030721247648313</v>
       </c>
       <c r="E21">
-        <v>1.026604438633957</v>
+        <v>1.025898838500833</v>
       </c>
       <c r="F21">
-        <v>1.037881711737511</v>
+        <v>1.037013214369195</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051387374990556</v>
+        <v>1.050825125390037</v>
       </c>
       <c r="J21">
-        <v>1.039190350131578</v>
+        <v>1.038414044893044</v>
       </c>
       <c r="K21">
-        <v>1.046498180540347</v>
+        <v>1.045143069760337</v>
       </c>
       <c r="L21">
-        <v>1.041098723050925</v>
+        <v>1.040405618326948</v>
       </c>
       <c r="M21">
-        <v>1.05217926897067</v>
+        <v>1.051325725511091</v>
       </c>
       <c r="N21">
-        <v>1.016441328818479</v>
+        <v>1.017571564920437</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.049868721993149</v>
+        <v>1.049193207899592</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.044029542683626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043088112983036</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02424938632438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00715192042355</v>
+        <v>1.006581138938502</v>
       </c>
       <c r="D22">
-        <v>1.03013960864739</v>
+        <v>1.028992170277241</v>
       </c>
       <c r="E22">
-        <v>1.024368202375628</v>
+        <v>1.023870141203964</v>
       </c>
       <c r="F22">
-        <v>1.035820841511272</v>
+        <v>1.03513476331517</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050589074251284</v>
+        <v>1.05016496564004</v>
       </c>
       <c r="J22">
-        <v>1.03758138663719</v>
+        <v>1.037035172358884</v>
       </c>
       <c r="K22">
-        <v>1.04513674086624</v>
+        <v>1.044010364965943</v>
       </c>
       <c r="L22">
-        <v>1.039471898829229</v>
+        <v>1.038983107415083</v>
       </c>
       <c r="M22">
-        <v>1.050714582440667</v>
+        <v>1.050040911651123</v>
       </c>
       <c r="N22">
-        <v>1.015878850787506</v>
+        <v>1.017453528814645</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.048709534720208</v>
+        <v>1.048176375249856</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.043053627338341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.042272619438617</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024008505829826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008712879947098</v>
+        <v>1.008002026471538</v>
       </c>
       <c r="D23">
-        <v>1.031168211117476</v>
+        <v>1.029887598261138</v>
       </c>
       <c r="E23">
-        <v>1.025545762288157</v>
+        <v>1.024925940159041</v>
       </c>
       <c r="F23">
-        <v>1.036905851302557</v>
+        <v>1.036113838352549</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051006185761941</v>
+        <v>1.050501615752398</v>
       </c>
       <c r="J23">
-        <v>1.038425669434085</v>
+        <v>1.037744516912326</v>
       </c>
       <c r="K23">
-        <v>1.045847393904255</v>
+        <v>1.044589692060992</v>
       </c>
       <c r="L23">
-        <v>1.040326088288064</v>
+        <v>1.039717504585546</v>
       </c>
       <c r="M23">
-        <v>1.051483284569962</v>
+        <v>1.050705230002507</v>
       </c>
       <c r="N23">
-        <v>1.016172221129557</v>
+        <v>1.017468532645161</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.049317903839803</v>
+        <v>1.048702132975489</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.043546558328603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04267175638447</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024128640075877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014762652631904</v>
+        <v>1.013579844031081</v>
       </c>
       <c r="D24">
-        <v>1.035176785522716</v>
+        <v>1.033434718986017</v>
       </c>
       <c r="E24">
-        <v>1.030129038914346</v>
+        <v>1.029099182267986</v>
       </c>
       <c r="F24">
-        <v>1.041132284130077</v>
+        <v>1.039978978449817</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052616896153138</v>
+        <v>1.051839230123289</v>
       </c>
       <c r="J24">
-        <v>1.041704034641757</v>
+        <v>1.040564987278081</v>
       </c>
       <c r="K24">
-        <v>1.048613089441057</v>
+        <v>1.046899066809572</v>
       </c>
       <c r="L24">
-        <v>1.043646936758437</v>
+        <v>1.042633853479662</v>
       </c>
       <c r="M24">
-        <v>1.05447362378076</v>
+        <v>1.053338599522589</v>
       </c>
       <c r="N24">
-        <v>1.017314179639682</v>
+        <v>1.017733917576557</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.051684524582907</v>
+        <v>1.050786242105159</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045494583049005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044296391025205</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024614669210778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021557227594463</v>
+        <v>1.020037250419175</v>
       </c>
       <c r="D25">
-        <v>1.039702465902495</v>
+        <v>1.037584716557358</v>
       </c>
       <c r="E25">
-        <v>1.035307625188354</v>
+        <v>1.033981422471831</v>
       </c>
       <c r="F25">
-        <v>1.045914122250076</v>
+        <v>1.044483585613135</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054395991418663</v>
+        <v>1.053411415474585</v>
       </c>
       <c r="J25">
-        <v>1.045380264499679</v>
+        <v>1.043908598751945</v>
       </c>
       <c r="K25">
-        <v>1.051714201271967</v>
+        <v>1.049626307420402</v>
       </c>
       <c r="L25">
-        <v>1.047381490260108</v>
+        <v>1.046074167273182</v>
       </c>
       <c r="M25">
-        <v>1.057839166860499</v>
+        <v>1.056428479695646</v>
       </c>
       <c r="N25">
-        <v>1.018594054768599</v>
+        <v>1.018605525365507</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.054348081063596</v>
+        <v>1.053231636852903</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047684347693555</v>
+        <v>1.046221509468412</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025197745814011</v>
       </c>
     </row>
   </sheetData>
